--- a/input/reviewed_synonyms.xlsx
+++ b/input/reviewed_synonyms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18c1f91d246f9ff5/Documents/GitHub/tpt-siphonaptera/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6A963E9E-68E8-4956-B88B-D7907D097D75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6177C59B-270D-4DFD-851D-65672FAE4AA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3071" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3056" uniqueCount="506">
   <si>
     <t>family</t>
   </si>
@@ -193,6 +193,9 @@
     <t>Spalacopsylla Pinto, 1930 (junior synonym)</t>
   </si>
   <si>
+    <t>Lewis</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spalacopsylla Pinto, 1930 </t>
   </si>
   <si>
@@ -310,7 +313,7 @@
     <t>Hirtopsylla Argyropulo, 1948 (unrecognized subgenus)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Spalacopsylla Oudemans, 1906 (junior synonym)</t>
+    <t>Spalacopsylla Oudemans, 1906 (junior synonym)</t>
   </si>
   <si>
     <t>Ceratophyllidae</t>
@@ -337,7 +340,7 @@
     <t>Pleochaetoides Augustson, 1944 (subgenus of Jellisonia)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Jellisonia Traub, 1944 (subgenus)</t>
+    <t>Jellisonia Traub, 1944 (subgenus)</t>
   </si>
   <si>
     <t>Myodopsylla</t>
@@ -382,10 +385,10 @@
     <t>Aneptescopsylla Ioff, 1953 (unrecognized subgenus)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dinycteridopsylla Ioff, 1953 (unrecognized subgenus)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hexanycteropsylla Ioff, 1953 (unrecognized subgenus)</t>
+    <t>Dinycteridopsylla Ioff, 1953 (unrecognized subgenus)</t>
+  </si>
+  <si>
+    <t>Hexanycteropsylla Ioff, 1953 (unrecognized subgenus)</t>
   </si>
   <si>
     <t>Rhadinopsyllinae</t>
@@ -409,7 +412,7 @@
     <t>Rectofrontia Wagner, 1930 (synonym of subgenus Actenophthalmus)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Rangulpsylla Darskaya, 1949 (synonym of subgenus Actenophthalmus)</t>
+    <t>Rangulpsylla Darskaya, 1949 (synonym of subgenus Actenophthalmus)</t>
   </si>
   <si>
     <t>Anomiopsyllinae</t>
@@ -448,10 +451,10 @@
     <t>Nomadopsylla Stark, 1970 (junior synonym of Thrassis)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Pandoropsylla Stark, 1970 (junior synonym of Thrassis)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thrassoides Stark, 1970 (junior synonym of Thrassis)</t>
+    <t>Pandoropsylla Stark, 1970 (junior synonym of Thrassis)</t>
+  </si>
+  <si>
+    <t>Thrassoides Stark, 1970 (junior synonym of Thrassis)</t>
   </si>
   <si>
     <t>Leptopsyllidae</t>
@@ -472,9 +475,6 @@
     <t>Amphipsylla kuznetzovi transcaucasica Goncharov, 1973 (junior homonym)</t>
   </si>
   <si>
-    <t xml:space="preserve">Amphipsylla kuznetzovi transcaucasica Goncharov, 1973 </t>
-  </si>
-  <si>
     <t>Amphipsylla (Amphipsyllinae) transcaucasica Ioff, 1953</t>
   </si>
   <si>
@@ -514,19 +514,19 @@
     <t>Pulex hirundinis Köhler, 1832 (junior homonym)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ceratophyllus hirundinis Chao, 1947 (junior homonym)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ceratophyllus hirundinis oiticus Peus, 1954</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ceratophyllus phaulius Rothschild, 1909</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ceratophyllus pinnatus Wagner, 1898</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ceratophyllus troglodytes Dampf, 1908</t>
+    <t>Ceratophyllus hirundinis Chao, 1947 (junior homonym)</t>
+  </si>
+  <si>
+    <t>Ceratophyllus hirundinis oiticus Peus, 1954</t>
+  </si>
+  <si>
+    <t>Ceratophyllus phaulius Rothschild, 1909</t>
+  </si>
+  <si>
+    <t>Ceratophyllus pinnatus Wagner, 1898</t>
+  </si>
+  <si>
+    <t>Ceratophyllus troglodytes Dampf, 1908</t>
   </si>
   <si>
     <t>Pulicidae</t>
@@ -559,10 +559,10 @@
     <t>Pulex canis Curtis, 1826 (junior homonym)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Pulex canis Dugès, 1832 (junior homonym)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ctenocephalus novemdentatus Kolenati, 1859</t>
+    <t>Pulex canis Dugès, 1832 (junior homonym)</t>
+  </si>
+  <si>
+    <t>Ctenocephalus novemdentatus Kolenati, 1859</t>
   </si>
   <si>
     <t>Frontopsylla</t>
@@ -619,7 +619,7 @@
     <t>Ischnopsyllus schmitzi Oudemans, 1909 (female Ischnopsyllus intermedius)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ceratopsylla wagneri Kohaut, 1903</t>
+    <t>Ceratopsylla wagneri Kohaut, 1903</t>
   </si>
   <si>
     <t>needhami</t>
@@ -649,7 +649,7 @@
     <t>Ischnopsyllus vasilii Skalon (in Argyropulo, 1948)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ischnopsyllus wassilii Scalon 1935</t>
+    <t>Ischnopsyllus wassilii Scalon 1935</t>
   </si>
   <si>
     <t>Opisodasys</t>
@@ -694,9 +694,6 @@
     <t>Smit &amp; Rosicky, 1976</t>
   </si>
   <si>
-    <t>Female</t>
-  </si>
-  <si>
     <t>Palaeopsylla aporema</t>
   </si>
   <si>
@@ -730,7 +727,7 @@
     <t>Paradoxopsyllus cruvispinus Miyajima &amp; Koidzumi, 1909 (misspelling of curvispinus)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ceratophyllus subcaecatus Rothschild, 1912</t>
+    <t>Ceratophyllus subcaecatus Rothschild, 1912</t>
   </si>
   <si>
     <t>Rhopalopsyllidae</t>
@@ -790,7 +787,7 @@
     <t>Pygiopsylla congrua Jordan &amp; Rothschild, 1922 (female)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Pygiopsylla spinata Holland, 1969</t>
+    <t>Pygiopsylla spinata Holland, 1969</t>
   </si>
   <si>
     <t>zethi</t>
@@ -859,13 +856,13 @@
     <t>Thrassis howelli (Jordan, 1933)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Thrassis acamantis Stark, 1970</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thrassis pristinus Stark, 1957</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thrassis utahensis Wagner, 1936</t>
+    <t>Thrassis acamantis Stark, 1970</t>
+  </si>
+  <si>
+    <t>Thrassis pristinus Stark, 1957</t>
+  </si>
+  <si>
+    <t>Thrassis utahensis Wagner, 1936</t>
   </si>
   <si>
     <t>Xenopsyllinae</t>
@@ -910,10 +907,10 @@
     <t xml:space="preserve">Ceratophyllus mustelae Wagner, 1898 </t>
   </si>
   <si>
-    <t>Amalaraeus (Ceratophyllinae) penicilliger  mustelae (Dale, 1878)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">penicilliger </t>
+    <t>Amalaraeus (Ceratophyllinae) penicilliger mustelae (Dale, 1878)</t>
+  </si>
+  <si>
+    <t>penicilliger</t>
   </si>
   <si>
     <t>mustelae</t>
@@ -925,7 +922,7 @@
     <t>(Dale, 1878)</t>
   </si>
   <si>
-    <t>Amalaraeus penicilliger  mustelae</t>
+    <t>Amalaraeus penicilliger mustelae</t>
   </si>
   <si>
     <t>sibirica sibirica</t>
@@ -940,10 +937,7 @@
     <t xml:space="preserve">Typhlopsylla sibirica Wagner, 1901 </t>
   </si>
   <si>
-    <t>Amphipsylla (Amphipsyllinae) sibirica  sibirica (Wagner, 1898)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sibirica </t>
+    <t>Amphipsylla (Amphipsyllinae) sibirica sibirica (Wagner, 1898)</t>
   </si>
   <si>
     <t>sibirica</t>
@@ -952,13 +946,13 @@
     <t>(Wagner, 1898)</t>
   </si>
   <si>
-    <t>Amphipsylla sibirica  sibirica</t>
+    <t>Amphipsylla sibirica sibirica</t>
   </si>
   <si>
     <t>Typhlopsylla sibirica Wagner, 1901 (junior homonym)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ceratophyllus thoracicus Rothschild, 1911</t>
+    <t>Ceratophyllus thoracicus Rothschild, 1911</t>
   </si>
   <si>
     <t>farreni chaoi</t>
@@ -973,10 +967,10 @@
     <t xml:space="preserve">Ceratophyllus chaoi Wang, 1957 </t>
   </si>
   <si>
-    <t>Ceratophyllus (Ceratophyllinae) farreni  chaoi Smit &amp; Allan, 1955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">farreni </t>
+    <t>Ceratophyllus (Ceratophyllinae) farreni chaoi Smit &amp; Allan, 1955</t>
+  </si>
+  <si>
+    <t>farreni</t>
   </si>
   <si>
     <t>chaoi</t>
@@ -985,7 +979,7 @@
     <t>Smit &amp; Allan, 1955</t>
   </si>
   <si>
-    <t>Ceratophyllus farreni  chaoi</t>
+    <t>Ceratophyllus farreni chaoi</t>
   </si>
   <si>
     <t>tauberi makaluensis</t>
@@ -997,10 +991,10 @@
     <t>Palaeopsylla makaluensis Brelih, 1975 (Male)</t>
   </si>
   <si>
-    <t>Palaeopsylla (Ctenophthalminae) tauberi  makaluensis Brelih, 1975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tauberi </t>
+    <t>Palaeopsylla (Ctenophthalminae) tauberi makaluensis Brelih, 1975</t>
+  </si>
+  <si>
+    <t>tauberi</t>
   </si>
   <si>
     <t>makaluensis</t>
@@ -1009,10 +1003,7 @@
     <t>Brelih, 1975</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Palaeopsylla tauberi  makaluensis</t>
+    <t>Palaeopsylla tauberi makaluensis</t>
   </si>
   <si>
     <t>li transbaikalica</t>
@@ -1027,10 +1018,10 @@
     <t xml:space="preserve">Rhadinopsylla acuminata Ioff &amp; Tiflov, 1946 </t>
   </si>
   <si>
-    <t>Rhadinopsylla (Rhadinopsyllinae) li  transbaikalica Ioff &amp; Tiflov, 1947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">li </t>
+    <t>Rhadinopsylla (Rhadinopsyllinae) li transbaikalica Ioff &amp; Tiflov, 1947</t>
+  </si>
+  <si>
+    <t>li</t>
   </si>
   <si>
     <t>transbaikalica</t>
@@ -1042,13 +1033,13 @@
     <t>suppressed by ICZN</t>
   </si>
   <si>
-    <t>Rhadinopsylla li  transbaikalica</t>
+    <t>Rhadinopsylla li transbaikalica</t>
   </si>
   <si>
     <t>Trichopsylla Kolenati, 1863; Trichopsylla Jordan &amp; Rothschild, 1920 (junior homonym of Trichopsylla Kolenati, 1863); Trichopsylla Ewing &amp; Fox, 1943 (junior homonym of Trichopsylla Kolenati, 1863)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Trichopsylla Jordan &amp; Rothschild, 1920 </t>
+    <t xml:space="preserve">Trichopsylla Jordan &amp; Rothschild, 1920 </t>
   </si>
   <si>
     <t>Amalaraeus (Ceratophyllinae)</t>
@@ -1060,31 +1051,31 @@
     <t>Trichopsylla Kolenati, 1863</t>
   </si>
   <si>
-    <t xml:space="preserve"> Trichopsylla Jordan &amp; Rothschild, 1920 (junior homonym of Trichopsylla Kolenati, 1863)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Trichopsylla Ewing &amp; Fox, 1943 (junior homonym of Trichopsylla Kolenati, 1863)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Spalacopsylla Oudemans, 1906 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jellisonia Traub, 1944 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dinycteridopsylla Ioff, 1953 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rangulpsylla Darskaya, 1949 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pandoropsylla Stark, 1970 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ceratophyllus hirundinis Chao, 1947 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pulex canis Dugès, 1832 </t>
+    <t>Trichopsylla Jordan &amp; Rothschild, 1920 (junior homonym of Trichopsylla Kolenati, 1863)</t>
+  </si>
+  <si>
+    <t>Trichopsylla Ewing &amp; Fox, 1943 (junior homonym of Trichopsylla Kolenati, 1863)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spalacopsylla Oudemans, 1906 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jellisonia Traub, 1944 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinycteridopsylla Ioff, 1953 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rangulpsylla Darskaya, 1949 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pandoropsylla Stark, 1970 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ceratophyllus hirundinis Chao, 1947 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulex canis Dugès, 1832 </t>
   </si>
   <si>
     <t>isacantha</t>
@@ -1105,7 +1096,7 @@
     <t>Rhadinopsylla isacantha continentalis Smit, 1957</t>
   </si>
   <si>
-    <t xml:space="preserve"> Rhadinopsylla pitymydis (Zavattari, 1914)</t>
+    <t>Rhadinopsylla pitymydis (Zavattari, 1914)</t>
   </si>
   <si>
     <t>Synosternus</t>
@@ -1120,7 +1111,7 @@
     <t>Synosternus pallidus infestus Wagner, 1933; Pulex witherbyi Rothschild (in: Witherby, 1902)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Pulex witherbyi Rothschild </t>
+    <t xml:space="preserve">Pulex witherbyi Rothschild </t>
   </si>
   <si>
     <t>Synosternus (Xenopsyllinae) pallidus (Taschenberg, 1880)</t>
@@ -1138,7 +1129,7 @@
     <t>Synosternus pallidus infestus Wagner, 1933</t>
   </si>
   <si>
-    <t xml:space="preserve"> Pulex witherbyi Rothschild (in: Witherby, 1902)</t>
+    <t>Pulex witherbyi Rothschild (in: Witherby, 1902)</t>
   </si>
   <si>
     <t>Tarsopsylla</t>
@@ -1153,7 +1144,7 @@
     <t>Ctenonotus octodecimdentata octodecimdentata Kolenati 1863; Opisodasys jellisoni I. Fox, 1941 (male Tarsopsylla octodecimdentata); Ceratophyllus uralensis Wagner, 1898</t>
   </si>
   <si>
-    <t xml:space="preserve"> Opisodasys jellisoni I. Fox, 1941 </t>
+    <t xml:space="preserve">Opisodasys jellisoni I. Fox, 1941 </t>
   </si>
   <si>
     <t>Tarsopsylla (Ceratophyllinae) octodecimdentata (Kolenati, 1863)</t>
@@ -1171,10 +1162,10 @@
     <t>Ctenonotus octodecimdentata octodecimdentata Kolenati 1863</t>
   </si>
   <si>
-    <t xml:space="preserve"> Opisodasys jellisoni I. Fox, 1941 (male Tarsopsylla octodecimdentata)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ceratophyllus uralensis Wagner, 1898</t>
+    <t>Opisodasys jellisoni I. Fox, 1941 (male Tarsopsylla octodecimdentata)</t>
+  </si>
+  <si>
+    <t>Ceratophyllus uralensis Wagner, 1898</t>
   </si>
   <si>
     <t>Acanthopsylla</t>
@@ -1189,13 +1180,10 @@
     <t>Glauertia scintilla M. Rothschild, 1936; Glauertidos M. Rothschild, 1937 (nomen novum for Glauertia = Acanthopsylla Jordan &amp; Rothschild, 1922)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Glauertidos M. Rothschild, 1937 </t>
-  </si>
-  <si>
-    <t>Acanthopsylla scintilla  scintilla (M. Rothschild, 1936)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scintilla </t>
+    <t xml:space="preserve">Glauertidos M. Rothschild, 1937 </t>
+  </si>
+  <si>
+    <t>Acanthopsylla scintilla scintilla (M. Rothschild, 1936)</t>
   </si>
   <si>
     <t>scintilla</t>
@@ -1207,13 +1195,13 @@
     <t>nomen novum for Glauertia = Acanthopsylla Jordan &amp; Rothschild, 1922</t>
   </si>
   <si>
-    <t>Acanthopsylla scintilla  scintilla</t>
+    <t>Acanthopsylla scintilla scintilla</t>
   </si>
   <si>
     <t>Glauertia scintilla M. Rothschild, 1936</t>
   </si>
   <si>
-    <t xml:space="preserve"> Glauertidos M. Rothschild, 1937 (nomen novum for Glauertia = Acanthopsylla Jordan &amp; Rothschild, 1922)</t>
+    <t>Glauertidos M. Rothschild, 1937 (nomen novum for Glauertia = Acanthopsylla Jordan &amp; Rothschild, 1922)</t>
   </si>
   <si>
     <t>Atyphloceras</t>
@@ -1228,13 +1216,10 @@
     <t>Atyphloceras artius Jordan 1933; Atyphoceras (recte Atyphloceras) felix Jordan, 1933</t>
   </si>
   <si>
-    <t xml:space="preserve"> Atyphoceras  felix Jordan, 1933</t>
-  </si>
-  <si>
-    <t>Atyphloceras (Hystrichopsyllinae) multidentatus  multidentatus (C. Fox, 1909)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multidentatus </t>
+    <t>Atyphoceras  felix Jordan, 1933</t>
+  </si>
+  <si>
+    <t>Atyphloceras (Hystrichopsyllinae) multidentatus multidentatus (C. Fox, 1909)</t>
   </si>
   <si>
     <t>multidentatus</t>
@@ -1246,13 +1231,13 @@
     <t>recte Atyphloceras</t>
   </si>
   <si>
-    <t>Atyphloceras multidentatus  multidentatus</t>
+    <t>Atyphloceras multidentatus multidentatus</t>
   </si>
   <si>
     <t>Atyphloceras artius Jordan 1933</t>
   </si>
   <si>
-    <t xml:space="preserve"> Atyphoceras (recte Atyphloceras) felix Jordan, 1933</t>
+    <t>Atyphoceras (recte Atyphloceras) felix Jordan, 1933</t>
   </si>
   <si>
     <t>agyrtes peusianus</t>
@@ -1264,13 +1249,13 @@
     <t>Ctenophthalmus agyrtes obenbergeri Rosicky, 1957; Ctenophthalmus agyrtes slovacicus Rosicky, 1951 (partim); Ctenophthalmus orphilus tatricus Rosicky, 1951 (partim)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ctenophthalmus agyrtes slovacicus Rosicky, 1951 </t>
-  </si>
-  <si>
-    <t>Ctenophthalmus (Ctenophthalminae) agyrtes  peusianus Rosicky, 1955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agyrtes </t>
+    <t xml:space="preserve">Ctenophthalmus agyrtes slovacicus Rosicky, 1951 </t>
+  </si>
+  <si>
+    <t>Ctenophthalmus (Ctenophthalminae) agyrtes peusianus Rosicky, 1955</t>
+  </si>
+  <si>
+    <t>agyrtes</t>
   </si>
   <si>
     <t>peusianus</t>
@@ -1282,25 +1267,25 @@
     <t>partim</t>
   </si>
   <si>
-    <t>Ctenophthalmus agyrtes  peusianus</t>
+    <t>Ctenophthalmus agyrtes peusianus</t>
   </si>
   <si>
     <t>Ctenophthalmus agyrtes obenbergeri Rosicky, 1957</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ctenophthalmus agyrtes slovacicus Rosicky, 1951 (partim)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ctenophthalmus orphilus tatricus Rosicky, 1951 (partim)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Trichopsylla Ewing &amp; Fox, 1943 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hexanycteropsylla Ioff, 1953 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thrassoides Stark, 1970 </t>
+    <t>Ctenophthalmus agyrtes slovacicus Rosicky, 1951 (partim)</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus orphilus tatricus Rosicky, 1951 (partim)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trichopsylla Ewing &amp; Fox, 1943 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hexanycteropsylla Ioff, 1953 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thrassoides Stark, 1970 </t>
   </si>
   <si>
     <t>Tungidae</t>
@@ -1312,7 +1297,7 @@
     <t>Dermatophilus Guérin, 1840; Dermatophylus Lucas, 1839; Psammodes Gistel 1850 (1847?); Rhynchoprion Karsten, 1864; Sarcophaga Westwood, 1840</t>
   </si>
   <si>
-    <t xml:space="preserve"> Psammodes Gistel 1850 </t>
+    <t xml:space="preserve">Psammodes Gistel 1850 </t>
   </si>
   <si>
     <t>1847?</t>
@@ -1321,16 +1306,16 @@
     <t>Dermatophilus Guérin, 1840</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dermatophylus Lucas, 1839</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Psammodes Gistel 1850 (1847?)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rhynchoprion Karsten, 1864</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sarcophaga Westwood, 1840</t>
+    <t>Dermatophylus Lucas, 1839</t>
+  </si>
+  <si>
+    <t>Psammodes Gistel 1850 (1847?)</t>
+  </si>
+  <si>
+    <t>Rhynchoprion Karsten, 1864</t>
+  </si>
+  <si>
+    <t>Sarcophaga Westwood, 1840</t>
   </si>
   <si>
     <t>Nosopsyllus</t>
@@ -1354,13 +1339,13 @@
     <t>Ceratophyllus acutus Baker, 1904</t>
   </si>
   <si>
-    <t xml:space="preserve"> Diamanus hopkinsi Vargas, 1955</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Oropsylla montana mandarina (Jordan &amp; Rothschild, 1911)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ceratophyllus sucinus Jordan &amp; Rothschild, 1921</t>
+    <t>Diamanus hopkinsi Vargas, 1955</t>
+  </si>
+  <si>
+    <t>Oropsylla montana mandarina (Jordan &amp; Rothschild, 1911)</t>
+  </si>
+  <si>
+    <t>Ceratophyllus sucinus Jordan &amp; Rothschild, 1921</t>
   </si>
   <si>
     <t>Oropsylla</t>
@@ -1393,13 +1378,7 @@
     <t>Ceratophyllus danubianus Rothschild, 1909; Citellophilus simplex domicae Rosicky, 1956; Ischnopsyllus schmitzi Oudemans, 1909 (male of Ischnopsyllus simplex simplex)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ischnopsyllus schmitzi Oudemans, 1909 </t>
-  </si>
-  <si>
-    <t>Citellophilus (Ceratophyllinae) simplex  simplex (Wagner, 1902)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simplex </t>
+    <t>Citellophilus (Ceratophyllinae) simplex simplex (Wagner, 1902)</t>
   </si>
   <si>
     <t>simplex</t>
@@ -1411,16 +1390,16 @@
     <t>male of Ischnopsyllus simplex simplex</t>
   </si>
   <si>
-    <t>Citellophilus simplex  simplex</t>
+    <t>Citellophilus simplex simplex</t>
   </si>
   <si>
     <t>Ceratophyllus danubianus Rothschild, 1909</t>
   </si>
   <si>
-    <t xml:space="preserve"> Citellophilus simplex domicae Rosicky, 1956</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ischnopsyllus schmitzi Oudemans, 1909 (male of Ischnopsyllus simplex simplex)</t>
+    <t>Citellophilus simplex domicae Rosicky, 1956</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus schmitzi Oudemans, 1909 (male of Ischnopsyllus simplex simplex)</t>
   </si>
   <si>
     <t>agyrtes agyrtes</t>
@@ -1432,25 +1411,22 @@
     <t>Ctenophthalmus agyrtoides Wahlgren, 1911; Ctenophthalmus agyrtes hanzaki Rosicky, 1951; Ctenophthalmus agyrtes slovacicus Rosicky, 1951 (partim); Ctenophthalmus orphilus tatricus Rosicky, 1951 (partim)</t>
   </si>
   <si>
-    <t>Ctenophthalmus (Ctenophthalminae) agyrtes  agyrtes (Heller, 1896)</t>
-  </si>
-  <si>
-    <t>agyrtes</t>
+    <t>Ctenophthalmus (Ctenophthalminae) agyrtes agyrtes (Heller, 1896)</t>
   </si>
   <si>
     <t>(Heller, 1896)</t>
   </si>
   <si>
-    <t>Ctenophthalmus agyrtes  agyrtes</t>
+    <t>Ctenophthalmus agyrtes agyrtes</t>
   </si>
   <si>
     <t>Ctenophthalmus agyrtoides Wahlgren, 1911</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ctenophthalmus agyrtes hanzaki Rosicky, 1951</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ctenophthalmus orphilus tatricus Rosicky, 1951 </t>
+    <t>Ctenophthalmus agyrtes hanzaki Rosicky, 1951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ctenophthalmus orphilus tatricus Rosicky, 1951 </t>
   </si>
   <si>
     <t>Leptopsyllinae</t>
@@ -1468,7 +1444,7 @@
     <t>Ctenophthalmus bisbidentatus Kolenati, 1859; Typhlopsylla mexicana Baker, 1896; Pulex musculi Dugès, 1832; Pulex musculi Bouché, 1835 (junior homonym of Pulex musculi Dugès, 1832); Ctenophthalmus quadridentatus Kolenati, 1859</t>
   </si>
   <si>
-    <t xml:space="preserve"> Pulex musculi Bouché, 1835 </t>
+    <t xml:space="preserve">Pulex musculi Bouché, 1835 </t>
   </si>
   <si>
     <t>Leptopsylla (Leptopsyllinae) segnis (Schönherr, 1811)</t>
@@ -1486,16 +1462,16 @@
     <t>Ctenophthalmus bisbidentatus Kolenati, 1859</t>
   </si>
   <si>
-    <t xml:space="preserve"> Typhlopsylla mexicana Baker, 1896</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pulex musculi Dugès, 1832</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pulex musculi Bouché, 1835 (junior homonym of Pulex musculi Dugès, 1832)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ctenophthalmus quadridentatus Kolenati, 1859</t>
+    <t>Typhlopsylla mexicana Baker, 1896</t>
+  </si>
+  <si>
+    <t>Pulex musculi Dugès, 1832</t>
+  </si>
+  <si>
+    <t>Pulex musculi Bouché, 1835 (junior homonym of Pulex musculi Dugès, 1832)</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus quadridentatus Kolenati, 1859</t>
   </si>
   <si>
     <t>fasciatus</t>
@@ -1507,7 +1483,7 @@
     <t>Ceratophyllus californicus Baker, 1904; Ceratophyllus canadensis Baker, 1904; Ceratophyllus endymionis Rothschild, 1904; Pulex furoris Dale, 1878; Ceratophyllus oculatus Baker, 1904; Nosopsyllus paganus Peus, 1949; Pulex talpae Bouche, 1835 (junior homonym of Pulex fasciatus Bosc, 1800)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Pulex talpae Bouche, 1835 </t>
+    <t xml:space="preserve">Pulex talpae Bouche, 1835 </t>
   </si>
   <si>
     <t>Nosopsyllus (Ceratophyllinae) fasciatus (Bosc, 1800)</t>
@@ -1525,40 +1501,43 @@
     <t>Ceratophyllus californicus Baker, 1904</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ceratophyllus canadensis Baker, 1904</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ceratophyllus endymionis Rothschild, 1904</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pulex furoris Dale, 1878</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ceratophyllus oculatus Baker, 1904</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nosopsyllus paganus Peus, 1949</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pulex talpae Bouche, 1835 (junior homonym of Pulex fasciatus Bosc, 1800)</t>
+    <t>Ceratophyllus canadensis Baker, 1904</t>
+  </si>
+  <si>
+    <t>Ceratophyllus endymionis Rothschild, 1904</t>
+  </si>
+  <si>
+    <t>Pulex furoris Dale, 1878</t>
+  </si>
+  <si>
+    <t>Ceratophyllus oculatus Baker, 1904</t>
+  </si>
+  <si>
+    <t>Nosopsyllus paganus Peus, 1949</t>
+  </si>
+  <si>
+    <t>Pulex talpae Bouche, 1835 (junior homonym of Pulex fasciatus Bosc, 1800)</t>
+  </si>
+  <si>
+    <t>female Opisodasys vesperalis (Jordan, 1929)</t>
   </si>
   <si>
     <t>Opisodasys jellisoni I. Fox, 1941</t>
   </si>
   <si>
+    <t>Amphipsylla kuznetzovi transcaucasica Goncharov, 1973</t>
+  </si>
+  <si>
+    <t>misspelling</t>
+  </si>
+  <si>
+    <t>missapplication</t>
+  </si>
+  <si>
+    <t>nomen novum</t>
+  </si>
+  <si>
     <t>synonym</t>
-  </si>
-  <si>
-    <t>misapplied</t>
-  </si>
-  <si>
-    <t>female Opisodasys vesperalis</t>
-  </si>
-  <si>
-    <t>misspelling</t>
-  </si>
-  <si>
-    <t>nomen novum</t>
   </si>
 </sst>
 </file>
@@ -2089,18 +2068,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2412,12 +2380,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AL54" sqref="AL54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="18" max="18" width="82.7265625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="52.54296875" customWidth="1"/>
+    <col min="36" max="36" width="15.36328125" customWidth="1"/>
+    <col min="37" max="37" width="16.7265625" customWidth="1"/>
+    <col min="38" max="38" width="49.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.35">
@@ -2580,13 +2551,13 @@
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>422</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>423</v>
       </c>
       <c r="D2" t="s">
         <v>55</v>
@@ -2598,13 +2569,13 @@
         <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>424</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I2">
-        <v>2697</v>
+        <v>2600</v>
       </c>
       <c r="J2" t="s">
         <v>55</v>
@@ -2631,10 +2602,10 @@
         <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>57</v>
+        <v>425</v>
       </c>
       <c r="S2" t="s">
-        <v>58</v>
+        <v>423</v>
       </c>
       <c r="T2" t="s">
         <v>55</v>
@@ -2652,16 +2623,16 @@
         <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC2" t="s">
         <v>55</v>
@@ -2685,31 +2656,31 @@
         <v>55</v>
       </c>
       <c r="AJ2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="AK2" t="s">
         <v>55</v>
       </c>
       <c r="AL2" t="s">
-        <v>55</v>
+        <v>426</v>
       </c>
       <c r="AM2" t="s">
-        <v>54</v>
+        <v>423</v>
       </c>
       <c r="AN2" t="s">
-        <v>56</v>
+        <v>427</v>
       </c>
       <c r="AO2" t="s">
-        <v>55</v>
+        <v>428</v>
       </c>
       <c r="AP2" t="s">
-        <v>55</v>
+        <v>429</v>
       </c>
       <c r="AQ2" t="s">
-        <v>55</v>
+        <v>430</v>
       </c>
       <c r="AR2" t="s">
-        <v>55</v>
+        <v>431</v>
       </c>
       <c r="AS2" t="s">
         <v>55</v>
@@ -2738,31 +2709,31 @@
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>218</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" t="s">
-        <v>55</v>
+        <v>219</v>
+      </c>
+      <c r="F3">
+        <v>1976</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>220</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I3">
-        <v>2702</v>
+        <v>1890</v>
       </c>
       <c r="J3" t="s">
         <v>55</v>
@@ -2789,10 +2760,10 @@
         <v>55</v>
       </c>
       <c r="R3" t="s">
-        <v>67</v>
+        <v>221</v>
       </c>
       <c r="S3" t="s">
-        <v>65</v>
+        <v>222</v>
       </c>
       <c r="T3" t="s">
         <v>55</v>
@@ -2810,31 +2781,31 @@
         <v>55</v>
       </c>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC3" t="s">
-        <v>55</v>
+        <v>218</v>
       </c>
       <c r="AD3" t="s">
         <v>55</v>
       </c>
       <c r="AE3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF3" t="s">
         <v>55</v>
       </c>
       <c r="AG3" t="s">
-        <v>55</v>
+        <v>223</v>
       </c>
       <c r="AH3" t="s">
         <v>55</v>
@@ -2843,19 +2814,19 @@
         <v>55</v>
       </c>
       <c r="AJ3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="AK3" t="s">
         <v>55</v>
       </c>
       <c r="AL3" t="s">
-        <v>55</v>
+        <v>252</v>
       </c>
       <c r="AM3" t="s">
-        <v>65</v>
+        <v>224</v>
       </c>
       <c r="AN3" t="s">
-        <v>66</v>
+        <v>220</v>
       </c>
       <c r="AO3" t="s">
         <v>55</v>
@@ -2896,31 +2867,31 @@
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>245</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>246</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" t="s">
-        <v>55</v>
+        <v>247</v>
+      </c>
+      <c r="F4">
+        <v>1922</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>248</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I4">
-        <v>2704</v>
+        <v>2265</v>
       </c>
       <c r="J4" t="s">
         <v>55</v>
@@ -2947,10 +2918,10 @@
         <v>55</v>
       </c>
       <c r="R4" t="s">
-        <v>71</v>
+        <v>249</v>
       </c>
       <c r="S4" t="s">
-        <v>69</v>
+        <v>250</v>
       </c>
       <c r="T4" t="s">
         <v>55</v>
@@ -2968,31 +2939,31 @@
         <v>55</v>
       </c>
       <c r="Y4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC4" t="s">
-        <v>55</v>
+        <v>246</v>
       </c>
       <c r="AD4" t="s">
         <v>55</v>
       </c>
       <c r="AE4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF4" t="s">
         <v>55</v>
       </c>
       <c r="AG4" t="s">
-        <v>55</v>
+        <v>251</v>
       </c>
       <c r="AH4" t="s">
         <v>55</v>
@@ -3007,16 +2978,16 @@
         <v>55</v>
       </c>
       <c r="AL4" t="s">
-        <v>72</v>
+        <v>252</v>
       </c>
       <c r="AM4" t="s">
-        <v>69</v>
+        <v>253</v>
       </c>
       <c r="AN4" t="s">
-        <v>70</v>
+        <v>254</v>
       </c>
       <c r="AO4" t="s">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="AP4" t="s">
         <v>55</v>
@@ -3054,31 +3025,31 @@
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
+        <v>191</v>
+      </c>
+      <c r="F5">
+        <v>1898</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I5">
-        <v>2707</v>
+        <v>1218</v>
       </c>
       <c r="J5" t="s">
         <v>55</v>
@@ -3105,10 +3076,10 @@
         <v>55</v>
       </c>
       <c r="R5" t="s">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="S5" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="T5" t="s">
         <v>55</v>
@@ -3126,31 +3097,31 @@
         <v>55</v>
       </c>
       <c r="Y5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC5" t="s">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="AD5" t="s">
         <v>55</v>
       </c>
       <c r="AE5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF5" t="s">
         <v>55</v>
       </c>
       <c r="AG5" t="s">
-        <v>55</v>
+        <v>195</v>
       </c>
       <c r="AH5" t="s">
         <v>55</v>
@@ -3159,22 +3130,22 @@
         <v>55</v>
       </c>
       <c r="AJ5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="AK5" t="s">
         <v>55</v>
       </c>
       <c r="AL5" t="s">
-        <v>55</v>
+        <v>196</v>
       </c>
       <c r="AM5" t="s">
-        <v>74</v>
+        <v>197</v>
       </c>
       <c r="AN5" t="s">
-        <v>75</v>
+        <v>198</v>
       </c>
       <c r="AO5" t="s">
-        <v>55</v>
+        <v>199</v>
       </c>
       <c r="AP5" t="s">
         <v>55</v>
@@ -3212,31 +3183,31 @@
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" t="s">
-        <v>55</v>
+        <v>201</v>
+      </c>
+      <c r="F6">
+        <v>1935</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I6">
-        <v>2714</v>
+        <v>1223</v>
       </c>
       <c r="J6" t="s">
         <v>55</v>
@@ -3263,10 +3234,10 @@
         <v>55</v>
       </c>
       <c r="R6" t="s">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="S6" t="s">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="T6" t="s">
         <v>55</v>
@@ -3284,31 +3255,31 @@
         <v>55</v>
       </c>
       <c r="Y6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC6" t="s">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AD6" t="s">
         <v>55</v>
       </c>
       <c r="AE6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF6" t="s">
         <v>55</v>
       </c>
       <c r="AG6" t="s">
-        <v>55</v>
+        <v>205</v>
       </c>
       <c r="AH6" t="s">
         <v>55</v>
@@ -3323,16 +3294,16 @@
         <v>55</v>
       </c>
       <c r="AL6" t="s">
-        <v>1</v>
+        <v>206</v>
       </c>
       <c r="AM6" t="s">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="AN6" t="s">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="AO6" t="s">
-        <v>55</v>
+        <v>209</v>
       </c>
       <c r="AP6" t="s">
         <v>55</v>
@@ -3370,31 +3341,31 @@
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>281</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>359</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>360</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" t="s">
-        <v>55</v>
+        <v>361</v>
+      </c>
+      <c r="F7">
+        <v>1880</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>362</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I7">
-        <v>2717</v>
+        <v>2519</v>
       </c>
       <c r="J7" t="s">
         <v>55</v>
@@ -3421,10 +3392,10 @@
         <v>55</v>
       </c>
       <c r="R7" t="s">
-        <v>86</v>
+        <v>363</v>
       </c>
       <c r="S7" t="s">
-        <v>87</v>
+        <v>364</v>
       </c>
       <c r="T7" t="s">
         <v>55</v>
@@ -3442,31 +3413,31 @@
         <v>55</v>
       </c>
       <c r="Y7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC7" t="s">
-        <v>55</v>
+        <v>360</v>
       </c>
       <c r="AD7" t="s">
         <v>55</v>
       </c>
       <c r="AE7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF7" t="s">
         <v>55</v>
       </c>
       <c r="AG7" t="s">
-        <v>55</v>
+        <v>365</v>
       </c>
       <c r="AH7" t="s">
         <v>55</v>
@@ -3481,16 +3452,16 @@
         <v>55</v>
       </c>
       <c r="AL7" t="s">
-        <v>88</v>
+        <v>366</v>
       </c>
       <c r="AM7" t="s">
-        <v>84</v>
+        <v>367</v>
       </c>
       <c r="AN7" t="s">
-        <v>85</v>
+        <v>368</v>
       </c>
       <c r="AO7" t="s">
-        <v>55</v>
+        <v>369</v>
       </c>
       <c r="AP7" t="s">
         <v>55</v>
@@ -3528,31 +3499,31 @@
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>432</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>433</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" t="s">
-        <v>55</v>
+        <v>302</v>
+      </c>
+      <c r="F8">
+        <v>1916</v>
       </c>
       <c r="G8" t="s">
-        <v>92</v>
+        <v>434</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I8">
-        <v>2719</v>
+        <v>1735</v>
       </c>
       <c r="J8" t="s">
         <v>55</v>
@@ -3579,10 +3550,10 @@
         <v>55</v>
       </c>
       <c r="R8" t="s">
-        <v>93</v>
+        <v>440</v>
       </c>
       <c r="S8" t="s">
-        <v>94</v>
+        <v>435</v>
       </c>
       <c r="T8" t="s">
         <v>55</v>
@@ -3600,31 +3571,31 @@
         <v>55</v>
       </c>
       <c r="Y8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC8" t="s">
-        <v>55</v>
+        <v>433</v>
       </c>
       <c r="AD8" t="s">
         <v>55</v>
       </c>
       <c r="AE8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF8" t="s">
         <v>55</v>
       </c>
       <c r="AG8" t="s">
-        <v>55</v>
+        <v>436</v>
       </c>
       <c r="AH8" t="s">
         <v>55</v>
@@ -3638,23 +3609,20 @@
       <c r="AK8" t="s">
         <v>55</v>
       </c>
-      <c r="AL8" t="s">
-        <v>88</v>
-      </c>
       <c r="AM8" t="s">
-        <v>91</v>
+        <v>437</v>
       </c>
       <c r="AN8" t="s">
-        <v>95</v>
+        <v>438</v>
       </c>
       <c r="AO8" t="s">
-        <v>96</v>
+        <v>439</v>
       </c>
       <c r="AP8" t="s">
-        <v>55</v>
+        <v>440</v>
       </c>
       <c r="AQ8" t="s">
-        <v>55</v>
+        <v>441</v>
       </c>
       <c r="AR8" t="s">
         <v>55</v>
@@ -3686,31 +3654,31 @@
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>442</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>443</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
+        <v>444</v>
+      </c>
+      <c r="F9">
+        <v>1895</v>
       </c>
       <c r="G9" t="s">
-        <v>100</v>
+        <v>445</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I9">
-        <v>2720</v>
+        <v>1867</v>
       </c>
       <c r="J9" t="s">
         <v>55</v>
@@ -3737,10 +3705,10 @@
         <v>55</v>
       </c>
       <c r="R9" t="s">
-        <v>101</v>
+        <v>440</v>
       </c>
       <c r="S9" t="s">
-        <v>102</v>
+        <v>446</v>
       </c>
       <c r="T9" t="s">
         <v>55</v>
@@ -3758,31 +3726,31 @@
         <v>55</v>
       </c>
       <c r="Y9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC9" t="s">
-        <v>55</v>
+        <v>443</v>
       </c>
       <c r="AD9" t="s">
         <v>55</v>
       </c>
       <c r="AE9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF9" t="s">
         <v>55</v>
       </c>
       <c r="AG9" t="s">
-        <v>55</v>
+        <v>447</v>
       </c>
       <c r="AH9" t="s">
         <v>55</v>
@@ -3796,20 +3764,17 @@
       <c r="AK9" t="s">
         <v>55</v>
       </c>
-      <c r="AL9" t="s">
-        <v>103</v>
-      </c>
       <c r="AM9" t="s">
-        <v>99</v>
+        <v>448</v>
       </c>
       <c r="AN9" t="s">
-        <v>104</v>
+        <v>438</v>
       </c>
       <c r="AO9" t="s">
-        <v>105</v>
+        <v>439</v>
       </c>
       <c r="AP9" t="s">
-        <v>55</v>
+        <v>440</v>
       </c>
       <c r="AQ9" t="s">
         <v>55</v>
@@ -3844,31 +3809,31 @@
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>210</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>211</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" t="s">
-        <v>55</v>
+        <v>212</v>
+      </c>
+      <c r="F10">
+        <v>1929</v>
       </c>
       <c r="G10" t="s">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I10">
-        <v>2726</v>
+        <v>1837</v>
       </c>
       <c r="J10" t="s">
         <v>55</v>
@@ -3895,10 +3860,10 @@
         <v>55</v>
       </c>
       <c r="R10" t="s">
-        <v>108</v>
+        <v>500</v>
       </c>
       <c r="S10" t="s">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="T10" t="s">
         <v>55</v>
@@ -3916,31 +3881,31 @@
         <v>55</v>
       </c>
       <c r="Y10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC10" t="s">
-        <v>55</v>
+        <v>211</v>
       </c>
       <c r="AD10" t="s">
         <v>55</v>
       </c>
       <c r="AE10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF10" t="s">
         <v>55</v>
       </c>
       <c r="AG10" t="s">
-        <v>55</v>
+        <v>215</v>
       </c>
       <c r="AH10" t="s">
         <v>55</v>
@@ -3949,19 +3914,19 @@
         <v>55</v>
       </c>
       <c r="AJ10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="AK10" t="s">
         <v>55</v>
       </c>
       <c r="AL10" t="s">
-        <v>55</v>
+        <v>499</v>
       </c>
       <c r="AM10" t="s">
-        <v>106</v>
+        <v>216</v>
       </c>
       <c r="AN10" t="s">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="AO10" t="s">
         <v>55</v>
@@ -4002,31 +3967,31 @@
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>272</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
+        <v>191</v>
+      </c>
+      <c r="F11">
+        <v>1905</v>
       </c>
       <c r="G11" t="s">
-        <v>112</v>
+        <v>273</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I11">
-        <v>2728</v>
+        <v>2541</v>
       </c>
       <c r="J11" t="s">
         <v>55</v>
@@ -4053,10 +4018,10 @@
         <v>55</v>
       </c>
       <c r="R11" t="s">
-        <v>113</v>
+        <v>277</v>
       </c>
       <c r="S11" t="s">
-        <v>111</v>
+        <v>274</v>
       </c>
       <c r="T11" t="s">
         <v>55</v>
@@ -4074,31 +4039,31 @@
         <v>55</v>
       </c>
       <c r="Y11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC11" t="s">
-        <v>55</v>
+        <v>272</v>
       </c>
       <c r="AD11" t="s">
         <v>55</v>
       </c>
       <c r="AE11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF11" t="s">
         <v>55</v>
       </c>
       <c r="AG11" t="s">
-        <v>55</v>
+        <v>275</v>
       </c>
       <c r="AH11" t="s">
         <v>55</v>
@@ -4112,23 +4077,20 @@
       <c r="AK11" t="s">
         <v>55</v>
       </c>
-      <c r="AL11" t="s">
-        <v>114</v>
-      </c>
       <c r="AM11" t="s">
-        <v>111</v>
+        <v>276</v>
       </c>
       <c r="AN11" t="s">
-        <v>112</v>
+        <v>277</v>
       </c>
       <c r="AO11" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="AP11" t="s">
-        <v>55</v>
+        <v>279</v>
       </c>
       <c r="AQ11" t="s">
-        <v>55</v>
+        <v>280</v>
       </c>
       <c r="AR11" t="s">
         <v>55</v>
@@ -4160,31 +4122,31 @@
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>236</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>237</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>238</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>239</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" t="s">
-        <v>55</v>
+        <v>240</v>
+      </c>
+      <c r="F12">
+        <v>1908</v>
       </c>
       <c r="G12" t="s">
-        <v>116</v>
+        <v>241</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I12">
-        <v>2729</v>
+        <v>2226</v>
       </c>
       <c r="J12" t="s">
         <v>55</v>
@@ -4211,10 +4173,10 @@
         <v>55</v>
       </c>
       <c r="R12" t="s">
-        <v>117</v>
+        <v>241</v>
       </c>
       <c r="S12" t="s">
-        <v>118</v>
+        <v>242</v>
       </c>
       <c r="T12" t="s">
         <v>55</v>
@@ -4232,31 +4194,31 @@
         <v>55</v>
       </c>
       <c r="Y12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC12" t="s">
-        <v>55</v>
+        <v>239</v>
       </c>
       <c r="AD12" t="s">
         <v>55</v>
       </c>
       <c r="AE12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF12" t="s">
         <v>55</v>
       </c>
       <c r="AG12" t="s">
-        <v>55</v>
+        <v>243</v>
       </c>
       <c r="AH12" t="s">
         <v>55</v>
@@ -4270,20 +4232,17 @@
       <c r="AK12" t="s">
         <v>55</v>
       </c>
-      <c r="AL12" t="s">
-        <v>88</v>
-      </c>
       <c r="AM12" t="s">
-        <v>115</v>
+        <v>244</v>
       </c>
       <c r="AN12" t="s">
-        <v>119</v>
+        <v>241</v>
       </c>
       <c r="AO12" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AP12" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="AQ12" t="s">
         <v>55</v>
@@ -4318,31 +4277,31 @@
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>148</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" t="s">
-        <v>55</v>
+        <v>149</v>
+      </c>
+      <c r="F13">
+        <v>1953</v>
       </c>
       <c r="G13" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I13">
-        <v>2733</v>
+        <v>157</v>
       </c>
       <c r="J13" t="s">
         <v>55</v>
@@ -4369,10 +4328,10 @@
         <v>55</v>
       </c>
       <c r="R13" t="s">
-        <v>125</v>
+        <v>501</v>
       </c>
       <c r="S13" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="T13" t="s">
         <v>55</v>
@@ -4390,31 +4349,31 @@
         <v>55</v>
       </c>
       <c r="Y13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC13" t="s">
-        <v>55</v>
+        <v>148</v>
       </c>
       <c r="AD13" t="s">
         <v>55</v>
       </c>
       <c r="AE13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF13" t="s">
         <v>55</v>
       </c>
       <c r="AG13" t="s">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="AH13" t="s">
         <v>55</v>
@@ -4423,22 +4382,19 @@
         <v>55</v>
       </c>
       <c r="AJ13" t="s">
-        <v>508</v>
+        <v>153</v>
       </c>
       <c r="AK13" t="s">
         <v>55</v>
       </c>
-      <c r="AL13" t="s">
-        <v>127</v>
-      </c>
       <c r="AM13" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="AN13" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="AO13" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="AP13" t="s">
         <v>55</v>
@@ -4476,31 +4432,31 @@
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" t="s">
-        <v>55</v>
+        <v>157</v>
+      </c>
+      <c r="F14">
+        <v>1826</v>
       </c>
       <c r="G14" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I14">
-        <v>2735</v>
+        <v>338</v>
       </c>
       <c r="J14" t="s">
         <v>55</v>
@@ -4527,10 +4483,10 @@
         <v>55</v>
       </c>
       <c r="R14" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="S14" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="T14" t="s">
         <v>55</v>
@@ -4548,31 +4504,31 @@
         <v>55</v>
       </c>
       <c r="Y14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC14" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="AD14" t="s">
         <v>55</v>
       </c>
       <c r="AE14" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF14" t="s">
         <v>55</v>
       </c>
       <c r="AG14" t="s">
-        <v>55</v>
+        <v>161</v>
       </c>
       <c r="AH14" t="s">
         <v>55</v>
@@ -4581,34 +4537,31 @@
         <v>55</v>
       </c>
       <c r="AJ14" t="s">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="AK14" t="s">
         <v>55</v>
       </c>
-      <c r="AL14" t="s">
-        <v>135</v>
-      </c>
       <c r="AM14" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="AN14" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="AO14" t="s">
-        <v>55</v>
+        <v>164</v>
       </c>
       <c r="AP14" t="s">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="AQ14" t="s">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="AR14" t="s">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="AS14" t="s">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="AT14" t="s">
         <v>55</v>
@@ -4634,31 +4587,31 @@
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" t="s">
-        <v>55</v>
+        <v>157</v>
+      </c>
+      <c r="F15">
+        <v>1926</v>
       </c>
       <c r="G15" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I15">
-        <v>2738</v>
+        <v>521</v>
       </c>
       <c r="J15" t="s">
         <v>55</v>
@@ -4685,10 +4638,10 @@
         <v>55</v>
       </c>
       <c r="R15" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="S15" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="T15" t="s">
         <v>55</v>
@@ -4706,31 +4659,31 @@
         <v>55</v>
       </c>
       <c r="Y15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC15" t="s">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c r="AD15" t="s">
         <v>55</v>
       </c>
       <c r="AE15" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF15" t="s">
         <v>55</v>
       </c>
       <c r="AG15" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="AH15" t="s">
         <v>55</v>
@@ -4739,25 +4692,22 @@
         <v>55</v>
       </c>
       <c r="AJ15" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="AK15" t="s">
         <v>55</v>
       </c>
-      <c r="AL15" t="s">
-        <v>140</v>
-      </c>
       <c r="AM15" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="AN15" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="AO15" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="AP15" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="AQ15" t="s">
         <v>55</v>
@@ -4792,31 +4742,31 @@
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>146</v>
+        <v>290</v>
       </c>
       <c r="D16" t="s">
-        <v>147</v>
+        <v>291</v>
       </c>
       <c r="E16" t="s">
-        <v>148</v>
+        <v>292</v>
       </c>
       <c r="F16">
-        <v>1953</v>
+        <v>1878</v>
       </c>
       <c r="G16" t="s">
-        <v>149</v>
+        <v>293</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I16">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="J16" t="s">
         <v>55</v>
@@ -4843,10 +4793,10 @@
         <v>55</v>
       </c>
       <c r="R16" t="s">
-        <v>150</v>
+        <v>294</v>
       </c>
       <c r="S16" t="s">
-        <v>151</v>
+        <v>295</v>
       </c>
       <c r="T16" t="s">
         <v>55</v>
@@ -4864,31 +4814,31 @@
         <v>55</v>
       </c>
       <c r="Y16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC16" t="s">
-        <v>147</v>
+        <v>296</v>
       </c>
       <c r="AD16" t="s">
-        <v>55</v>
+        <v>297</v>
       </c>
       <c r="AE16" t="s">
-        <v>3</v>
+        <v>298</v>
       </c>
       <c r="AF16" t="s">
         <v>55</v>
       </c>
       <c r="AG16" t="s">
-        <v>152</v>
+        <v>299</v>
       </c>
       <c r="AH16" t="s">
         <v>55</v>
@@ -4902,14 +4852,11 @@
       <c r="AK16" t="s">
         <v>55</v>
       </c>
-      <c r="AL16" t="s">
-        <v>55</v>
-      </c>
       <c r="AM16" t="s">
-        <v>154</v>
+        <v>300</v>
       </c>
       <c r="AN16" t="s">
-        <v>149</v>
+        <v>293</v>
       </c>
       <c r="AO16" t="s">
         <v>55</v>
@@ -4950,31 +4897,31 @@
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="C17" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D17" t="s">
-        <v>156</v>
+        <v>301</v>
       </c>
       <c r="E17" t="s">
-        <v>157</v>
+        <v>302</v>
       </c>
       <c r="F17">
-        <v>1826</v>
+        <v>1898</v>
       </c>
       <c r="G17" t="s">
-        <v>158</v>
+        <v>303</v>
       </c>
       <c r="H17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I17">
-        <v>332</v>
+        <v>154</v>
       </c>
       <c r="J17" t="s">
         <v>55</v>
@@ -5001,10 +4948,10 @@
         <v>55</v>
       </c>
       <c r="R17" t="s">
-        <v>159</v>
+        <v>304</v>
       </c>
       <c r="S17" t="s">
-        <v>160</v>
+        <v>305</v>
       </c>
       <c r="T17" t="s">
         <v>55</v>
@@ -5022,31 +4969,31 @@
         <v>55</v>
       </c>
       <c r="Y17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC17" t="s">
-        <v>156</v>
+        <v>306</v>
       </c>
       <c r="AD17" t="s">
-        <v>55</v>
+        <v>306</v>
       </c>
       <c r="AE17" t="s">
-        <v>3</v>
+        <v>298</v>
       </c>
       <c r="AF17" t="s">
         <v>55</v>
       </c>
       <c r="AG17" t="s">
-        <v>161</v>
+        <v>307</v>
       </c>
       <c r="AH17" t="s">
         <v>55</v>
@@ -5060,29 +5007,26 @@
       <c r="AK17" t="s">
         <v>55</v>
       </c>
-      <c r="AL17" t="s">
-        <v>55</v>
-      </c>
       <c r="AM17" t="s">
-        <v>162</v>
+        <v>308</v>
       </c>
       <c r="AN17" t="s">
-        <v>163</v>
+        <v>309</v>
       </c>
       <c r="AO17" t="s">
-        <v>164</v>
+        <v>310</v>
       </c>
       <c r="AP17" t="s">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="AQ17" t="s">
-        <v>166</v>
+        <v>55</v>
       </c>
       <c r="AR17" t="s">
-        <v>167</v>
+        <v>55</v>
       </c>
       <c r="AS17" t="s">
-        <v>168</v>
+        <v>55</v>
       </c>
       <c r="AT17" t="s">
         <v>55</v>
@@ -5108,31 +5052,31 @@
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D18" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="E18" t="s">
         <v>157</v>
       </c>
       <c r="F18">
-        <v>1926</v>
+        <v>1826</v>
       </c>
       <c r="G18" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="H18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I18">
-        <v>508</v>
+        <v>338</v>
       </c>
       <c r="J18" t="s">
         <v>55</v>
@@ -5159,10 +5103,10 @@
         <v>55</v>
       </c>
       <c r="R18" t="s">
-        <v>174</v>
+        <v>350</v>
       </c>
       <c r="S18" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="T18" t="s">
         <v>55</v>
@@ -5180,19 +5124,19 @@
         <v>55</v>
       </c>
       <c r="Y18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC18" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="AD18" t="s">
         <v>55</v>
@@ -5204,7 +5148,7 @@
         <v>55</v>
       </c>
       <c r="AG18" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="AH18" t="s">
         <v>55</v>
@@ -5218,29 +5162,26 @@
       <c r="AK18" t="s">
         <v>55</v>
       </c>
-      <c r="AL18" t="s">
-        <v>55</v>
-      </c>
       <c r="AM18" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="AN18" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="AO18" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="AP18" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="AQ18" t="s">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="AR18" t="s">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="AS18" t="s">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="AT18" t="s">
         <v>55</v>
@@ -5266,31 +5207,31 @@
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="C19" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D19" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E19" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="F19">
-        <v>1981</v>
+        <v>1926</v>
       </c>
       <c r="G19" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="H19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I19">
-        <v>1062</v>
+        <v>521</v>
       </c>
       <c r="J19" t="s">
         <v>55</v>
@@ -5317,10 +5258,10 @@
         <v>55</v>
       </c>
       <c r="R19" t="s">
-        <v>185</v>
+        <v>351</v>
       </c>
       <c r="S19" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="T19" t="s">
         <v>55</v>
@@ -5338,19 +5279,19 @@
         <v>55</v>
       </c>
       <c r="Y19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC19" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="AD19" t="s">
         <v>55</v>
@@ -5362,7 +5303,7 @@
         <v>55</v>
       </c>
       <c r="AG19" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="AH19" t="s">
         <v>55</v>
@@ -5371,25 +5312,22 @@
         <v>55</v>
       </c>
       <c r="AJ19" t="s">
-        <v>509</v>
+        <v>153</v>
       </c>
       <c r="AK19" t="s">
         <v>55</v>
       </c>
-      <c r="AL19" t="s">
-        <v>188</v>
-      </c>
       <c r="AM19" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="AN19" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AO19" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="AP19" t="s">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="AQ19" t="s">
         <v>55</v>
@@ -5424,31 +5362,31 @@
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>432</v>
       </c>
       <c r="D20" t="s">
-        <v>190</v>
+        <v>484</v>
       </c>
       <c r="E20" t="s">
-        <v>191</v>
+        <v>485</v>
       </c>
       <c r="F20">
-        <v>1898</v>
+        <v>1800</v>
       </c>
       <c r="G20" t="s">
-        <v>192</v>
+        <v>486</v>
       </c>
       <c r="H20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I20">
-        <v>1194</v>
+        <v>1708</v>
       </c>
       <c r="J20" t="s">
         <v>55</v>
@@ -5475,10 +5413,10 @@
         <v>55</v>
       </c>
       <c r="R20" t="s">
-        <v>193</v>
+        <v>487</v>
       </c>
       <c r="S20" t="s">
-        <v>194</v>
+        <v>488</v>
       </c>
       <c r="T20" t="s">
         <v>55</v>
@@ -5496,19 +5434,19 @@
         <v>55</v>
       </c>
       <c r="Y20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC20" t="s">
-        <v>190</v>
+        <v>484</v>
       </c>
       <c r="AD20" t="s">
         <v>55</v>
@@ -5520,7 +5458,7 @@
         <v>55</v>
       </c>
       <c r="AG20" t="s">
-        <v>195</v>
+        <v>489</v>
       </c>
       <c r="AH20" t="s">
         <v>55</v>
@@ -5529,37 +5467,37 @@
         <v>55</v>
       </c>
       <c r="AJ20" t="s">
-        <v>55</v>
+        <v>490</v>
       </c>
       <c r="AK20" t="s">
         <v>55</v>
       </c>
       <c r="AL20" t="s">
-        <v>196</v>
+        <v>490</v>
       </c>
       <c r="AM20" t="s">
-        <v>197</v>
+        <v>491</v>
       </c>
       <c r="AN20" t="s">
-        <v>198</v>
+        <v>492</v>
       </c>
       <c r="AO20" t="s">
-        <v>199</v>
+        <v>493</v>
       </c>
       <c r="AP20" t="s">
-        <v>55</v>
+        <v>494</v>
       </c>
       <c r="AQ20" t="s">
-        <v>55</v>
+        <v>495</v>
       </c>
       <c r="AR20" t="s">
-        <v>55</v>
+        <v>496</v>
       </c>
       <c r="AS20" t="s">
-        <v>55</v>
+        <v>497</v>
       </c>
       <c r="AT20" t="s">
-        <v>55</v>
+        <v>498</v>
       </c>
       <c r="AU20" t="s">
         <v>55</v>
@@ -5582,31 +5520,31 @@
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>469</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>470</v>
       </c>
       <c r="D21" t="s">
-        <v>200</v>
+        <v>471</v>
       </c>
       <c r="E21" t="s">
-        <v>201</v>
+        <v>472</v>
       </c>
       <c r="F21">
-        <v>1935</v>
+        <v>1811</v>
       </c>
       <c r="G21" t="s">
-        <v>202</v>
+        <v>473</v>
       </c>
       <c r="H21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I21">
-        <v>1199</v>
+        <v>1332</v>
       </c>
       <c r="J21" t="s">
         <v>55</v>
@@ -5633,10 +5571,10 @@
         <v>55</v>
       </c>
       <c r="R21" t="s">
-        <v>203</v>
+        <v>474</v>
       </c>
       <c r="S21" t="s">
-        <v>204</v>
+        <v>475</v>
       </c>
       <c r="T21" t="s">
         <v>55</v>
@@ -5654,19 +5592,19 @@
         <v>55</v>
       </c>
       <c r="Y21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC21" t="s">
-        <v>200</v>
+        <v>471</v>
       </c>
       <c r="AD21" t="s">
         <v>55</v>
@@ -5678,7 +5616,7 @@
         <v>55</v>
       </c>
       <c r="AG21" t="s">
-        <v>205</v>
+        <v>476</v>
       </c>
       <c r="AH21" t="s">
         <v>55</v>
@@ -5687,31 +5625,31 @@
         <v>55</v>
       </c>
       <c r="AJ21" t="s">
-        <v>55</v>
+        <v>477</v>
       </c>
       <c r="AK21" t="s">
         <v>55</v>
       </c>
       <c r="AL21" t="s">
-        <v>206</v>
+        <v>477</v>
       </c>
       <c r="AM21" t="s">
-        <v>207</v>
+        <v>478</v>
       </c>
       <c r="AN21" t="s">
-        <v>208</v>
+        <v>479</v>
       </c>
       <c r="AO21" t="s">
-        <v>209</v>
+        <v>480</v>
       </c>
       <c r="AP21" t="s">
-        <v>55</v>
+        <v>481</v>
       </c>
       <c r="AQ21" t="s">
-        <v>55</v>
+        <v>482</v>
       </c>
       <c r="AR21" t="s">
-        <v>55</v>
+        <v>483</v>
       </c>
       <c r="AS21" t="s">
         <v>55</v>
@@ -5740,31 +5678,31 @@
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="D22" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>212</v>
-      </c>
-      <c r="F22">
-        <v>1929</v>
+        <v>55</v>
+      </c>
+      <c r="F22" t="s">
+        <v>55</v>
       </c>
       <c r="G22" t="s">
-        <v>213</v>
+        <v>338</v>
       </c>
       <c r="H22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I22">
-        <v>1801</v>
+        <v>92</v>
       </c>
       <c r="J22" t="s">
         <v>55</v>
@@ -5791,10 +5729,10 @@
         <v>55</v>
       </c>
       <c r="R22" t="s">
-        <v>507</v>
+        <v>339</v>
       </c>
       <c r="S22" t="s">
-        <v>214</v>
+        <v>340</v>
       </c>
       <c r="T22" t="s">
         <v>55</v>
@@ -5812,31 +5750,31 @@
         <v>55</v>
       </c>
       <c r="Y22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC22" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
       <c r="AD22" t="s">
         <v>55</v>
       </c>
       <c r="AE22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF22" t="s">
         <v>55</v>
       </c>
       <c r="AG22" t="s">
-        <v>215</v>
+        <v>55</v>
       </c>
       <c r="AH22" t="s">
         <v>55</v>
@@ -5845,25 +5783,25 @@
         <v>55</v>
       </c>
       <c r="AJ22" t="s">
-        <v>55</v>
+        <v>341</v>
       </c>
       <c r="AK22" t="s">
         <v>55</v>
       </c>
       <c r="AL22" t="s">
-        <v>510</v>
+        <v>341</v>
       </c>
       <c r="AM22" t="s">
-        <v>216</v>
+        <v>290</v>
       </c>
       <c r="AN22" t="s">
-        <v>213</v>
+        <v>342</v>
       </c>
       <c r="AO22" t="s">
-        <v>55</v>
+        <v>343</v>
       </c>
       <c r="AP22" t="s">
-        <v>55</v>
+        <v>344</v>
       </c>
       <c r="AQ22" t="s">
         <v>55</v>
@@ -5898,31 +5836,31 @@
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>217</v>
+        <v>290</v>
       </c>
       <c r="D23" t="s">
-        <v>218</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>219</v>
-      </c>
-      <c r="F23">
-        <v>1976</v>
+        <v>55</v>
+      </c>
+      <c r="F23" t="s">
+        <v>55</v>
       </c>
       <c r="G23" t="s">
-        <v>220</v>
+        <v>338</v>
       </c>
       <c r="H23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I23">
-        <v>1852</v>
+        <v>92</v>
       </c>
       <c r="J23" t="s">
         <v>55</v>
@@ -5949,10 +5887,10 @@
         <v>55</v>
       </c>
       <c r="R23" t="s">
-        <v>221</v>
+        <v>419</v>
       </c>
       <c r="S23" t="s">
-        <v>222</v>
+        <v>340</v>
       </c>
       <c r="T23" t="s">
         <v>55</v>
@@ -5970,31 +5908,31 @@
         <v>55</v>
       </c>
       <c r="Y23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC23" t="s">
-        <v>218</v>
+        <v>55</v>
       </c>
       <c r="AD23" t="s">
         <v>55</v>
       </c>
       <c r="AE23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF23" t="s">
         <v>55</v>
       </c>
       <c r="AG23" t="s">
-        <v>223</v>
+        <v>55</v>
       </c>
       <c r="AH23" t="s">
         <v>55</v>
@@ -6003,25 +5941,25 @@
         <v>55</v>
       </c>
       <c r="AJ23" t="s">
-        <v>55</v>
+        <v>341</v>
       </c>
       <c r="AK23" t="s">
         <v>55</v>
       </c>
       <c r="AL23" t="s">
-        <v>224</v>
+        <v>341</v>
       </c>
       <c r="AM23" t="s">
-        <v>225</v>
+        <v>290</v>
       </c>
       <c r="AN23" t="s">
-        <v>220</v>
+        <v>342</v>
       </c>
       <c r="AO23" t="s">
-        <v>55</v>
+        <v>343</v>
       </c>
       <c r="AP23" t="s">
-        <v>55</v>
+        <v>344</v>
       </c>
       <c r="AQ23" t="s">
         <v>55</v>
@@ -6056,31 +5994,31 @@
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>226</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>227</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>228</v>
-      </c>
-      <c r="F24">
-        <v>1909</v>
+        <v>55</v>
+      </c>
+      <c r="F24" t="s">
+        <v>55</v>
       </c>
       <c r="G24" t="s">
-        <v>229</v>
+        <v>56</v>
       </c>
       <c r="H24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I24">
-        <v>1970</v>
+        <v>42</v>
       </c>
       <c r="J24" t="s">
         <v>55</v>
@@ -6107,10 +6045,10 @@
         <v>55</v>
       </c>
       <c r="R24" t="s">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="S24" t="s">
-        <v>231</v>
+        <v>59</v>
       </c>
       <c r="T24" t="s">
         <v>55</v>
@@ -6128,31 +6066,31 @@
         <v>55</v>
       </c>
       <c r="Y24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC24" t="s">
-        <v>227</v>
+        <v>55</v>
       </c>
       <c r="AD24" t="s">
         <v>55</v>
       </c>
       <c r="AE24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF24" t="s">
         <v>55</v>
       </c>
       <c r="AG24" t="s">
-        <v>232</v>
+        <v>55</v>
       </c>
       <c r="AH24" t="s">
         <v>55</v>
@@ -6161,22 +6099,19 @@
         <v>55</v>
       </c>
       <c r="AJ24" t="s">
-        <v>511</v>
+        <v>64</v>
       </c>
       <c r="AK24" t="s">
         <v>55</v>
       </c>
-      <c r="AL24" t="s">
-        <v>233</v>
-      </c>
       <c r="AM24" t="s">
-        <v>234</v>
+        <v>54</v>
       </c>
       <c r="AN24" t="s">
-        <v>235</v>
+        <v>56</v>
       </c>
       <c r="AO24" t="s">
-        <v>236</v>
+        <v>55</v>
       </c>
       <c r="AP24" t="s">
         <v>55</v>
@@ -6214,31 +6149,31 @@
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>237</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>238</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>239</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>240</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>241</v>
-      </c>
-      <c r="F25">
-        <v>1908</v>
+        <v>55</v>
+      </c>
+      <c r="F25" t="s">
+        <v>55</v>
       </c>
       <c r="G25" t="s">
-        <v>242</v>
+        <v>67</v>
       </c>
       <c r="H25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I25">
-        <v>2188</v>
+        <v>403</v>
       </c>
       <c r="J25" t="s">
         <v>55</v>
@@ -6265,10 +6200,10 @@
         <v>55</v>
       </c>
       <c r="R25" t="s">
-        <v>242</v>
+        <v>68</v>
       </c>
       <c r="S25" t="s">
-        <v>243</v>
+        <v>66</v>
       </c>
       <c r="T25" t="s">
         <v>55</v>
@@ -6286,31 +6221,31 @@
         <v>55</v>
       </c>
       <c r="Y25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC25" t="s">
-        <v>240</v>
+        <v>55</v>
       </c>
       <c r="AD25" t="s">
         <v>55</v>
       </c>
       <c r="AE25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF25" t="s">
         <v>55</v>
       </c>
       <c r="AG25" t="s">
-        <v>244</v>
+        <v>55</v>
       </c>
       <c r="AH25" t="s">
         <v>55</v>
@@ -6319,16 +6254,16 @@
         <v>55</v>
       </c>
       <c r="AJ25" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AK25" t="s">
         <v>55</v>
       </c>
       <c r="AM25" t="s">
-        <v>245</v>
+        <v>66</v>
       </c>
       <c r="AN25" t="s">
-        <v>242</v>
+        <v>67</v>
       </c>
       <c r="AO25" t="s">
         <v>55</v>
@@ -6369,31 +6304,31 @@
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>246</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>247</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F26">
-        <v>1922</v>
+        <v>55</v>
+      </c>
+      <c r="F26" t="s">
+        <v>55</v>
       </c>
       <c r="G26" t="s">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I26">
-        <v>2227</v>
+        <v>828</v>
       </c>
       <c r="J26" t="s">
         <v>55</v>
@@ -6420,10 +6355,10 @@
         <v>55</v>
       </c>
       <c r="R26" t="s">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="S26" t="s">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="T26" t="s">
         <v>55</v>
@@ -6441,31 +6376,31 @@
         <v>55</v>
       </c>
       <c r="Y26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC26" t="s">
-        <v>247</v>
+        <v>55</v>
       </c>
       <c r="AD26" t="s">
         <v>55</v>
       </c>
       <c r="AE26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF26" t="s">
         <v>55</v>
       </c>
       <c r="AG26" t="s">
-        <v>252</v>
+        <v>55</v>
       </c>
       <c r="AH26" t="s">
         <v>55</v>
@@ -6474,22 +6409,19 @@
         <v>55</v>
       </c>
       <c r="AJ26" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AK26" t="s">
         <v>55</v>
       </c>
-      <c r="AL26" t="s">
-        <v>253</v>
-      </c>
       <c r="AM26" t="s">
-        <v>254</v>
+        <v>75</v>
       </c>
       <c r="AN26" t="s">
-        <v>255</v>
+        <v>76</v>
       </c>
       <c r="AO26" t="s">
-        <v>256</v>
+        <v>55</v>
       </c>
       <c r="AP26" t="s">
         <v>55</v>
@@ -6527,62 +6459,62 @@
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27">
+        <v>1579</v>
+      </c>
+      <c r="J27" t="s">
+        <v>55</v>
+      </c>
+      <c r="K27" t="s">
+        <v>55</v>
+      </c>
+      <c r="L27" t="s">
+        <v>55</v>
+      </c>
+      <c r="M27" t="s">
+        <v>55</v>
+      </c>
+      <c r="N27" t="s">
+        <v>55</v>
+      </c>
+      <c r="O27" t="s">
+        <v>55</v>
+      </c>
+      <c r="P27" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>55</v>
+      </c>
+      <c r="R27" t="s">
+        <v>109</v>
+      </c>
+      <c r="S27" t="s">
         <v>110</v>
       </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" t="s">
-        <v>246</v>
-      </c>
-      <c r="D27" t="s">
-        <v>257</v>
-      </c>
-      <c r="E27" t="s">
-        <v>191</v>
-      </c>
-      <c r="F27">
-        <v>1904</v>
-      </c>
-      <c r="G27" t="s">
-        <v>258</v>
-      </c>
-      <c r="H27" t="s">
-        <v>55</v>
-      </c>
-      <c r="I27">
-        <v>2230</v>
-      </c>
-      <c r="J27" t="s">
-        <v>55</v>
-      </c>
-      <c r="K27" t="s">
-        <v>55</v>
-      </c>
-      <c r="L27" t="s">
-        <v>55</v>
-      </c>
-      <c r="M27" t="s">
-        <v>55</v>
-      </c>
-      <c r="N27" t="s">
-        <v>55</v>
-      </c>
-      <c r="O27" t="s">
-        <v>55</v>
-      </c>
-      <c r="P27" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>55</v>
-      </c>
-      <c r="R27" t="s">
-        <v>250</v>
-      </c>
-      <c r="S27" t="s">
-        <v>259</v>
-      </c>
       <c r="T27" t="s">
         <v>55</v>
       </c>
@@ -6599,31 +6531,31 @@
         <v>55</v>
       </c>
       <c r="Y27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC27" t="s">
-        <v>257</v>
+        <v>55</v>
       </c>
       <c r="AD27" t="s">
         <v>55</v>
       </c>
       <c r="AE27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF27" t="s">
         <v>55</v>
       </c>
       <c r="AG27" t="s">
-        <v>260</v>
+        <v>55</v>
       </c>
       <c r="AH27" t="s">
         <v>55</v>
@@ -6632,19 +6564,16 @@
         <v>55</v>
       </c>
       <c r="AJ27" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AK27" t="s">
         <v>55</v>
       </c>
-      <c r="AL27" t="s">
-        <v>261</v>
-      </c>
       <c r="AM27" t="s">
-        <v>262</v>
+        <v>107</v>
       </c>
       <c r="AN27" t="s">
-        <v>258</v>
+        <v>108</v>
       </c>
       <c r="AO27" t="s">
         <v>55</v>
@@ -6685,31 +6614,31 @@
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
-        <v>263</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>264</v>
+        <v>92</v>
       </c>
       <c r="D28" t="s">
-        <v>265</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>266</v>
-      </c>
-      <c r="F28">
-        <v>1902</v>
+        <v>55</v>
+      </c>
+      <c r="F28" t="s">
+        <v>55</v>
       </c>
       <c r="G28" t="s">
-        <v>267</v>
+        <v>93</v>
       </c>
       <c r="H28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I28">
-        <v>2420</v>
+        <v>1238</v>
       </c>
       <c r="J28" t="s">
         <v>55</v>
@@ -6736,10 +6665,10 @@
         <v>55</v>
       </c>
       <c r="R28" t="s">
-        <v>268</v>
+        <v>345</v>
       </c>
       <c r="S28" t="s">
-        <v>269</v>
+        <v>95</v>
       </c>
       <c r="T28" t="s">
         <v>55</v>
@@ -6757,31 +6686,31 @@
         <v>55</v>
       </c>
       <c r="Y28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC28" t="s">
-        <v>265</v>
+        <v>55</v>
       </c>
       <c r="AD28" t="s">
         <v>55</v>
       </c>
       <c r="AE28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF28" t="s">
         <v>55</v>
       </c>
       <c r="AG28" t="s">
-        <v>270</v>
+        <v>55</v>
       </c>
       <c r="AH28" t="s">
         <v>55</v>
@@ -6790,22 +6719,19 @@
         <v>55</v>
       </c>
       <c r="AJ28" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AK28" t="s">
         <v>55</v>
       </c>
-      <c r="AL28" t="s">
-        <v>271</v>
-      </c>
       <c r="AM28" t="s">
-        <v>272</v>
+        <v>92</v>
       </c>
       <c r="AN28" t="s">
-        <v>267</v>
+        <v>96</v>
       </c>
       <c r="AO28" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="AP28" t="s">
         <v>55</v>
@@ -6843,31 +6769,31 @@
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D29" t="s">
-        <v>273</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>191</v>
-      </c>
-      <c r="F29">
-        <v>1905</v>
+        <v>55</v>
+      </c>
+      <c r="F29" t="s">
+        <v>55</v>
       </c>
       <c r="G29" t="s">
-        <v>274</v>
+        <v>138</v>
       </c>
       <c r="H29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I29">
-        <v>2498</v>
+        <v>2552</v>
       </c>
       <c r="J29" t="s">
         <v>55</v>
@@ -6894,10 +6820,10 @@
         <v>55</v>
       </c>
       <c r="R29" t="s">
-        <v>278</v>
+        <v>139</v>
       </c>
       <c r="S29" t="s">
-        <v>275</v>
+        <v>140</v>
       </c>
       <c r="T29" t="s">
         <v>55</v>
@@ -6915,31 +6841,31 @@
         <v>55</v>
       </c>
       <c r="Y29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC29" t="s">
-        <v>273</v>
+        <v>55</v>
       </c>
       <c r="AD29" t="s">
         <v>55</v>
       </c>
       <c r="AE29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF29" t="s">
         <v>55</v>
       </c>
       <c r="AG29" t="s">
-        <v>276</v>
+        <v>55</v>
       </c>
       <c r="AH29" t="s">
         <v>55</v>
@@ -6948,25 +6874,28 @@
         <v>55</v>
       </c>
       <c r="AJ29" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="AK29" t="s">
         <v>55</v>
       </c>
+      <c r="AL29" t="s">
+        <v>141</v>
+      </c>
       <c r="AM29" t="s">
-        <v>277</v>
+        <v>137</v>
       </c>
       <c r="AN29" t="s">
-        <v>278</v>
+        <v>142</v>
       </c>
       <c r="AO29" t="s">
-        <v>279</v>
+        <v>143</v>
       </c>
       <c r="AP29" t="s">
-        <v>280</v>
+        <v>144</v>
       </c>
       <c r="AQ29" t="s">
-        <v>281</v>
+        <v>55</v>
       </c>
       <c r="AR29" t="s">
         <v>55</v>
@@ -6998,31 +6927,31 @@
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>169</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>282</v>
+        <v>99</v>
       </c>
       <c r="C30" t="s">
-        <v>283</v>
+        <v>137</v>
       </c>
       <c r="D30" t="s">
-        <v>284</v>
+        <v>55</v>
       </c>
       <c r="E30" t="s">
-        <v>148</v>
-      </c>
-      <c r="F30">
-        <v>1930</v>
+        <v>55</v>
+      </c>
+      <c r="F30" t="s">
+        <v>55</v>
       </c>
       <c r="G30" t="s">
-        <v>285</v>
+        <v>138</v>
       </c>
       <c r="H30" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I30">
-        <v>2672</v>
+        <v>2552</v>
       </c>
       <c r="J30" t="s">
         <v>55</v>
@@ -7049,10 +6978,10 @@
         <v>55</v>
       </c>
       <c r="R30" t="s">
-        <v>286</v>
+        <v>349</v>
       </c>
       <c r="S30" t="s">
-        <v>287</v>
+        <v>140</v>
       </c>
       <c r="T30" t="s">
         <v>55</v>
@@ -7070,31 +6999,31 @@
         <v>55</v>
       </c>
       <c r="Y30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC30" t="s">
-        <v>284</v>
+        <v>55</v>
       </c>
       <c r="AD30" t="s">
         <v>55</v>
       </c>
       <c r="AE30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF30" t="s">
         <v>55</v>
       </c>
       <c r="AG30" t="s">
-        <v>288</v>
+        <v>55</v>
       </c>
       <c r="AH30" t="s">
         <v>55</v>
@@ -7103,25 +7032,25 @@
         <v>55</v>
       </c>
       <c r="AJ30" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="AK30" t="s">
         <v>55</v>
       </c>
       <c r="AL30" t="s">
-        <v>289</v>
+        <v>141</v>
       </c>
       <c r="AM30" t="s">
-        <v>290</v>
+        <v>137</v>
       </c>
       <c r="AN30" t="s">
-        <v>285</v>
+        <v>142</v>
       </c>
       <c r="AO30" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="AP30" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="AQ30" t="s">
         <v>55</v>
@@ -7156,31 +7085,31 @@
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>291</v>
+        <v>137</v>
       </c>
       <c r="D31" t="s">
-        <v>292</v>
+        <v>55</v>
       </c>
       <c r="E31" t="s">
-        <v>293</v>
-      </c>
-      <c r="F31">
-        <v>1878</v>
+        <v>55</v>
+      </c>
+      <c r="F31" t="s">
+        <v>55</v>
       </c>
       <c r="G31" t="s">
-        <v>294</v>
+        <v>138</v>
       </c>
       <c r="H31" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I31">
-        <v>82</v>
+        <v>2552</v>
       </c>
       <c r="J31" t="s">
         <v>55</v>
@@ -7207,10 +7136,10 @@
         <v>55</v>
       </c>
       <c r="R31" t="s">
-        <v>295</v>
+        <v>421</v>
       </c>
       <c r="S31" t="s">
-        <v>296</v>
+        <v>140</v>
       </c>
       <c r="T31" t="s">
         <v>55</v>
@@ -7228,31 +7157,31 @@
         <v>55</v>
       </c>
       <c r="Y31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC31" t="s">
-        <v>297</v>
+        <v>55</v>
       </c>
       <c r="AD31" t="s">
-        <v>298</v>
+        <v>55</v>
       </c>
       <c r="AE31" t="s">
-        <v>299</v>
+        <v>2</v>
       </c>
       <c r="AF31" t="s">
         <v>55</v>
       </c>
       <c r="AG31" t="s">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="AH31" t="s">
         <v>55</v>
@@ -7261,25 +7190,25 @@
         <v>55</v>
       </c>
       <c r="AJ31" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="AK31" t="s">
         <v>55</v>
       </c>
       <c r="AL31" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="AM31" t="s">
-        <v>301</v>
+        <v>137</v>
       </c>
       <c r="AN31" t="s">
-        <v>294</v>
+        <v>142</v>
       </c>
       <c r="AO31" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="AP31" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="AQ31" t="s">
         <v>55</v>
@@ -7314,31 +7243,31 @@
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D32" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="E32" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="F32">
-        <v>1898</v>
+        <v>1955</v>
       </c>
       <c r="G32" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="H32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I32">
-        <v>150</v>
+        <v>328</v>
       </c>
       <c r="J32" t="s">
         <v>55</v>
@@ -7365,10 +7294,10 @@
         <v>55</v>
       </c>
       <c r="R32" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="S32" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="T32" t="s">
         <v>55</v>
@@ -7386,31 +7315,31 @@
         <v>55</v>
       </c>
       <c r="Y32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC32" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="AD32" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="AE32" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF32" t="s">
         <v>55</v>
       </c>
       <c r="AG32" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="AH32" t="s">
         <v>55</v>
@@ -7419,22 +7348,19 @@
         <v>55</v>
       </c>
       <c r="AJ32" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="AK32" t="s">
         <v>55</v>
       </c>
-      <c r="AL32" t="s">
-        <v>55</v>
-      </c>
       <c r="AM32" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="AN32" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AO32" t="s">
-        <v>312</v>
+        <v>55</v>
       </c>
       <c r="AP32" t="s">
         <v>55</v>
@@ -7472,31 +7398,31 @@
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>155</v>
+        <v>245</v>
       </c>
       <c r="D33" t="s">
-        <v>313</v>
+        <v>256</v>
       </c>
       <c r="E33" t="s">
-        <v>314</v>
+        <v>191</v>
       </c>
       <c r="F33">
-        <v>1955</v>
+        <v>1904</v>
       </c>
       <c r="G33" t="s">
-        <v>315</v>
+        <v>257</v>
       </c>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I33">
-        <v>322</v>
+        <v>2268</v>
       </c>
       <c r="J33" t="s">
         <v>55</v>
@@ -7523,10 +7449,10 @@
         <v>55</v>
       </c>
       <c r="R33" t="s">
-        <v>316</v>
+        <v>249</v>
       </c>
       <c r="S33" t="s">
-        <v>317</v>
+        <v>258</v>
       </c>
       <c r="T33" t="s">
         <v>55</v>
@@ -7544,31 +7470,31 @@
         <v>55</v>
       </c>
       <c r="Y33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC33" t="s">
-        <v>318</v>
+        <v>256</v>
       </c>
       <c r="AD33" t="s">
-        <v>319</v>
+        <v>55</v>
       </c>
       <c r="AE33" t="s">
-        <v>299</v>
+        <v>3</v>
       </c>
       <c r="AF33" t="s">
         <v>55</v>
       </c>
       <c r="AG33" t="s">
-        <v>320</v>
+        <v>259</v>
       </c>
       <c r="AH33" t="s">
         <v>55</v>
@@ -7577,19 +7503,19 @@
         <v>55</v>
       </c>
       <c r="AJ33" t="s">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="AK33" t="s">
         <v>55</v>
       </c>
       <c r="AL33" t="s">
-        <v>55</v>
+        <v>260</v>
       </c>
       <c r="AM33" t="s">
-        <v>321</v>
+        <v>261</v>
       </c>
       <c r="AN33" t="s">
-        <v>315</v>
+        <v>257</v>
       </c>
       <c r="AO33" t="s">
         <v>55</v>
@@ -7633,28 +7559,28 @@
         <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
         <v>217</v>
       </c>
       <c r="D34" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E34" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F34">
         <v>1975</v>
       </c>
       <c r="G34" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I34">
-        <v>1909</v>
+        <v>1947</v>
       </c>
       <c r="J34" t="s">
         <v>55</v>
@@ -7684,70 +7610,70 @@
         <v>221</v>
       </c>
       <c r="S34" t="s">
+        <v>323</v>
+      </c>
+      <c r="T34" t="s">
+        <v>55</v>
+      </c>
+      <c r="U34" t="s">
+        <v>55</v>
+      </c>
+      <c r="V34" t="s">
+        <v>55</v>
+      </c>
+      <c r="W34" t="s">
+        <v>55</v>
+      </c>
+      <c r="X34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>324</v>
+      </c>
+      <c r="AD34" t="s">
         <v>325</v>
       </c>
-      <c r="T34" t="s">
-        <v>55</v>
-      </c>
-      <c r="U34" t="s">
-        <v>55</v>
-      </c>
-      <c r="V34" t="s">
-        <v>55</v>
-      </c>
-      <c r="W34" t="s">
-        <v>55</v>
-      </c>
-      <c r="X34" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC34" t="s">
+      <c r="AE34" t="s">
+        <v>298</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG34" t="s">
         <v>326</v>
       </c>
-      <c r="AD34" t="s">
+      <c r="AH34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>260</v>
+      </c>
+      <c r="AM34" t="s">
         <v>327</v>
       </c>
-      <c r="AE34" t="s">
-        <v>299</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>328</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>329</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>330</v>
-      </c>
       <c r="AN34" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AO34" t="s">
         <v>55</v>
@@ -7788,31 +7714,31 @@
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>123</v>
+        <v>449</v>
       </c>
       <c r="D35" t="s">
-        <v>331</v>
+        <v>450</v>
       </c>
       <c r="E35" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="F35">
-        <v>1947</v>
+        <v>1902</v>
       </c>
       <c r="G35" t="s">
-        <v>333</v>
+        <v>451</v>
       </c>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I35">
-        <v>2285</v>
+        <v>447</v>
       </c>
       <c r="J35" t="s">
         <v>55</v>
@@ -7839,10 +7765,10 @@
         <v>55</v>
       </c>
       <c r="R35" t="s">
-        <v>334</v>
+        <v>193</v>
       </c>
       <c r="S35" t="s">
-        <v>335</v>
+        <v>452</v>
       </c>
       <c r="T35" t="s">
         <v>55</v>
@@ -7860,31 +7786,31 @@
         <v>55</v>
       </c>
       <c r="Y35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC35" t="s">
-        <v>336</v>
+        <v>453</v>
       </c>
       <c r="AD35" t="s">
-        <v>337</v>
+        <v>453</v>
       </c>
       <c r="AE35" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF35" t="s">
         <v>55</v>
       </c>
       <c r="AG35" t="s">
-        <v>338</v>
+        <v>454</v>
       </c>
       <c r="AH35" t="s">
         <v>55</v>
@@ -7899,19 +7825,19 @@
         <v>55</v>
       </c>
       <c r="AL35" t="s">
-        <v>339</v>
+        <v>455</v>
       </c>
       <c r="AM35" t="s">
-        <v>340</v>
+        <v>456</v>
       </c>
       <c r="AN35" t="s">
-        <v>333</v>
+        <v>457</v>
       </c>
       <c r="AO35" t="s">
-        <v>55</v>
+        <v>458</v>
       </c>
       <c r="AP35" t="s">
-        <v>55</v>
+        <v>459</v>
       </c>
       <c r="AQ35" t="s">
         <v>55</v>
@@ -7946,31 +7872,31 @@
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>291</v>
+        <v>370</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>371</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" t="s">
-        <v>55</v>
+        <v>372</v>
+      </c>
+      <c r="F36">
+        <v>1863</v>
       </c>
       <c r="G36" t="s">
-        <v>341</v>
+        <v>373</v>
       </c>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I36">
-        <v>2698</v>
+        <v>2523</v>
       </c>
       <c r="J36" t="s">
         <v>55</v>
@@ -7997,10 +7923,10 @@
         <v>55</v>
       </c>
       <c r="R36" t="s">
-        <v>342</v>
+        <v>374</v>
       </c>
       <c r="S36" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="T36" t="s">
         <v>55</v>
@@ -8018,31 +7944,31 @@
         <v>55</v>
       </c>
       <c r="Y36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC36" t="s">
-        <v>55</v>
+        <v>371</v>
       </c>
       <c r="AD36" t="s">
         <v>55</v>
       </c>
       <c r="AE36" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF36" t="s">
         <v>55</v>
       </c>
       <c r="AG36" t="s">
-        <v>55</v>
+        <v>376</v>
       </c>
       <c r="AH36" t="s">
         <v>55</v>
@@ -8051,25 +7977,25 @@
         <v>55</v>
       </c>
       <c r="AJ36" t="s">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="AK36" t="s">
         <v>55</v>
       </c>
       <c r="AL36" t="s">
-        <v>344</v>
+        <v>377</v>
       </c>
       <c r="AM36" t="s">
-        <v>291</v>
+        <v>378</v>
       </c>
       <c r="AN36" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="AO36" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="AP36" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="AQ36" t="s">
         <v>55</v>
@@ -8104,31 +8030,31 @@
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="D37" t="s">
-        <v>55</v>
+        <v>182</v>
       </c>
       <c r="E37" t="s">
-        <v>55</v>
-      </c>
-      <c r="F37" t="s">
-        <v>55</v>
+        <v>183</v>
+      </c>
+      <c r="F37">
+        <v>1981</v>
       </c>
       <c r="G37" t="s">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I37">
-        <v>2719</v>
+        <v>1080</v>
       </c>
       <c r="J37" t="s">
         <v>55</v>
@@ -8155,10 +8081,10 @@
         <v>55</v>
       </c>
       <c r="R37" t="s">
-        <v>348</v>
+        <v>185</v>
       </c>
       <c r="S37" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="T37" t="s">
         <v>55</v>
@@ -8176,31 +8102,31 @@
         <v>55</v>
       </c>
       <c r="Y37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC37" t="s">
-        <v>55</v>
+        <v>182</v>
       </c>
       <c r="AD37" t="s">
         <v>55</v>
       </c>
       <c r="AE37" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF37" t="s">
         <v>55</v>
       </c>
       <c r="AG37" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="AH37" t="s">
         <v>55</v>
@@ -8209,22 +8135,22 @@
         <v>55</v>
       </c>
       <c r="AJ37" t="s">
-        <v>63</v>
+        <v>503</v>
       </c>
       <c r="AK37" t="s">
         <v>55</v>
       </c>
       <c r="AL37" t="s">
-        <v>55</v>
+        <v>188</v>
       </c>
       <c r="AM37" t="s">
-        <v>91</v>
+        <v>189</v>
       </c>
       <c r="AN37" t="s">
-        <v>95</v>
+        <v>184</v>
       </c>
       <c r="AO37" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="AP37" t="s">
         <v>55</v>
@@ -8262,31 +8188,31 @@
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="C38" t="s">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>226</v>
       </c>
       <c r="E38" t="s">
-        <v>55</v>
-      </c>
-      <c r="F38" t="s">
-        <v>55</v>
+        <v>227</v>
+      </c>
+      <c r="F38">
+        <v>1909</v>
       </c>
       <c r="G38" t="s">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I38">
-        <v>2720</v>
+        <v>2008</v>
       </c>
       <c r="J38" t="s">
         <v>55</v>
@@ -8313,10 +8239,10 @@
         <v>55</v>
       </c>
       <c r="R38" t="s">
-        <v>349</v>
+        <v>229</v>
       </c>
       <c r="S38" t="s">
-        <v>102</v>
+        <v>230</v>
       </c>
       <c r="T38" t="s">
         <v>55</v>
@@ -8334,31 +8260,31 @@
         <v>55</v>
       </c>
       <c r="Y38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC38" t="s">
-        <v>55</v>
+        <v>226</v>
       </c>
       <c r="AD38" t="s">
         <v>55</v>
       </c>
       <c r="AE38" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF38" t="s">
         <v>55</v>
       </c>
       <c r="AG38" t="s">
-        <v>55</v>
+        <v>231</v>
       </c>
       <c r="AH38" t="s">
         <v>55</v>
@@ -8367,22 +8293,22 @@
         <v>55</v>
       </c>
       <c r="AJ38" t="s">
-        <v>55</v>
+        <v>502</v>
       </c>
       <c r="AK38" t="s">
         <v>55</v>
       </c>
       <c r="AL38" t="s">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="AM38" t="s">
-        <v>99</v>
+        <v>233</v>
       </c>
       <c r="AN38" t="s">
-        <v>104</v>
+        <v>234</v>
       </c>
       <c r="AO38" t="s">
-        <v>105</v>
+        <v>235</v>
       </c>
       <c r="AP38" t="s">
         <v>55</v>
@@ -8420,31 +8346,31 @@
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>382</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>383</v>
       </c>
       <c r="E39" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39" t="s">
-        <v>55</v>
+        <v>384</v>
+      </c>
+      <c r="F39">
+        <v>1936</v>
       </c>
       <c r="G39" t="s">
-        <v>116</v>
+        <v>385</v>
       </c>
       <c r="H39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I39">
-        <v>2729</v>
+        <v>19</v>
       </c>
       <c r="J39" t="s">
         <v>55</v>
@@ -8471,10 +8397,10 @@
         <v>55</v>
       </c>
       <c r="R39" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="S39" t="s">
-        <v>118</v>
+        <v>387</v>
       </c>
       <c r="T39" t="s">
         <v>55</v>
@@ -8492,31 +8418,31 @@
         <v>55</v>
       </c>
       <c r="Y39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC39" t="s">
-        <v>55</v>
+        <v>388</v>
       </c>
       <c r="AD39" t="s">
-        <v>55</v>
+        <v>388</v>
       </c>
       <c r="AE39" t="s">
-        <v>2</v>
+        <v>298</v>
       </c>
       <c r="AF39" t="s">
         <v>55</v>
       </c>
       <c r="AG39" t="s">
-        <v>55</v>
+        <v>389</v>
       </c>
       <c r="AH39" t="s">
         <v>55</v>
@@ -8528,22 +8454,22 @@
         <v>55</v>
       </c>
       <c r="AK39" t="s">
-        <v>55</v>
+        <v>504</v>
       </c>
       <c r="AL39" t="s">
-        <v>88</v>
+        <v>390</v>
       </c>
       <c r="AM39" t="s">
-        <v>115</v>
+        <v>391</v>
       </c>
       <c r="AN39" t="s">
-        <v>119</v>
+        <v>392</v>
       </c>
       <c r="AO39" t="s">
-        <v>120</v>
+        <v>393</v>
       </c>
       <c r="AP39" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="AQ39" t="s">
         <v>55</v>
@@ -8578,31 +8504,31 @@
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>281</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>282</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>283</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
-      </c>
-      <c r="F40" t="s">
-        <v>55</v>
+        <v>149</v>
+      </c>
+      <c r="F40">
+        <v>1930</v>
       </c>
       <c r="G40" t="s">
-        <v>124</v>
+        <v>284</v>
       </c>
       <c r="H40" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I40">
-        <v>2733</v>
+        <v>2718</v>
       </c>
       <c r="J40" t="s">
         <v>55</v>
@@ -8629,10 +8555,10 @@
         <v>55</v>
       </c>
       <c r="R40" t="s">
-        <v>351</v>
+        <v>285</v>
       </c>
       <c r="S40" t="s">
-        <v>126</v>
+        <v>286</v>
       </c>
       <c r="T40" t="s">
         <v>55</v>
@@ -8650,31 +8576,31 @@
         <v>55</v>
       </c>
       <c r="Y40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC40" t="s">
-        <v>55</v>
+        <v>283</v>
       </c>
       <c r="AD40" t="s">
         <v>55</v>
       </c>
       <c r="AE40" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF40" t="s">
         <v>55</v>
       </c>
       <c r="AG40" t="s">
-        <v>55</v>
+        <v>287</v>
       </c>
       <c r="AH40" t="s">
         <v>55</v>
@@ -8683,22 +8609,22 @@
         <v>55</v>
       </c>
       <c r="AJ40" t="s">
-        <v>508</v>
+        <v>55</v>
       </c>
       <c r="AK40" t="s">
         <v>55</v>
       </c>
       <c r="AL40" t="s">
-        <v>127</v>
+        <v>288</v>
       </c>
       <c r="AM40" t="s">
-        <v>123</v>
+        <v>289</v>
       </c>
       <c r="AN40" t="s">
-        <v>128</v>
+        <v>284</v>
       </c>
       <c r="AO40" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="AP40" t="s">
         <v>55</v>
@@ -8736,31 +8662,31 @@
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>406</v>
       </c>
       <c r="E41" t="s">
-        <v>55</v>
-      </c>
-      <c r="F41" t="s">
-        <v>55</v>
+        <v>407</v>
+      </c>
+      <c r="F41">
+        <v>1955</v>
       </c>
       <c r="G41" t="s">
-        <v>137</v>
+        <v>408</v>
       </c>
       <c r="H41" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I41">
-        <v>2738</v>
+        <v>553</v>
       </c>
       <c r="J41" t="s">
         <v>55</v>
@@ -8787,10 +8713,10 @@
         <v>55</v>
       </c>
       <c r="R41" t="s">
-        <v>352</v>
+        <v>409</v>
       </c>
       <c r="S41" t="s">
-        <v>139</v>
+        <v>410</v>
       </c>
       <c r="T41" t="s">
         <v>55</v>
@@ -8808,31 +8734,31 @@
         <v>55</v>
       </c>
       <c r="Y41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC41" t="s">
-        <v>55</v>
+        <v>411</v>
       </c>
       <c r="AD41" t="s">
-        <v>55</v>
+        <v>412</v>
       </c>
       <c r="AE41" t="s">
-        <v>2</v>
+        <v>298</v>
       </c>
       <c r="AF41" t="s">
         <v>55</v>
       </c>
       <c r="AG41" t="s">
-        <v>55</v>
+        <v>413</v>
       </c>
       <c r="AH41" t="s">
         <v>55</v>
@@ -8841,25 +8767,25 @@
         <v>55</v>
       </c>
       <c r="AJ41" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="AK41" t="s">
         <v>55</v>
       </c>
       <c r="AL41" t="s">
-        <v>140</v>
+        <v>414</v>
       </c>
       <c r="AM41" t="s">
-        <v>136</v>
+        <v>415</v>
       </c>
       <c r="AN41" t="s">
-        <v>141</v>
+        <v>416</v>
       </c>
       <c r="AO41" t="s">
-        <v>142</v>
+        <v>417</v>
       </c>
       <c r="AP41" t="s">
-        <v>143</v>
+        <v>418</v>
       </c>
       <c r="AQ41" t="s">
         <v>55</v>
@@ -8894,31 +8820,31 @@
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="D42" t="s">
-        <v>156</v>
+        <v>460</v>
       </c>
       <c r="E42" t="s">
-        <v>157</v>
+        <v>461</v>
       </c>
       <c r="F42">
-        <v>1826</v>
+        <v>1896</v>
       </c>
       <c r="G42" t="s">
-        <v>158</v>
+        <v>462</v>
       </c>
       <c r="H42" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I42">
-        <v>332</v>
+        <v>542</v>
       </c>
       <c r="J42" t="s">
         <v>55</v>
@@ -8945,10 +8871,10 @@
         <v>55</v>
       </c>
       <c r="R42" t="s">
-        <v>353</v>
+        <v>409</v>
       </c>
       <c r="S42" t="s">
-        <v>160</v>
+        <v>463</v>
       </c>
       <c r="T42" t="s">
         <v>55</v>
@@ -8966,31 +8892,31 @@
         <v>55</v>
       </c>
       <c r="Y42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC42" t="s">
-        <v>156</v>
+        <v>411</v>
       </c>
       <c r="AD42" t="s">
-        <v>55</v>
+        <v>411</v>
       </c>
       <c r="AE42" t="s">
-        <v>3</v>
+        <v>298</v>
       </c>
       <c r="AF42" t="s">
         <v>55</v>
       </c>
       <c r="AG42" t="s">
-        <v>161</v>
+        <v>464</v>
       </c>
       <c r="AH42" t="s">
         <v>55</v>
@@ -8999,34 +8925,34 @@
         <v>55</v>
       </c>
       <c r="AJ42" t="s">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="AK42" t="s">
         <v>55</v>
       </c>
       <c r="AL42" t="s">
-        <v>153</v>
+        <v>414</v>
       </c>
       <c r="AM42" t="s">
-        <v>162</v>
+        <v>465</v>
       </c>
       <c r="AN42" t="s">
-        <v>163</v>
+        <v>466</v>
       </c>
       <c r="AO42" t="s">
-        <v>164</v>
+        <v>467</v>
       </c>
       <c r="AP42" t="s">
-        <v>165</v>
+        <v>417</v>
       </c>
       <c r="AQ42" t="s">
-        <v>166</v>
+        <v>418</v>
       </c>
       <c r="AR42" t="s">
-        <v>167</v>
+        <v>55</v>
       </c>
       <c r="AS42" t="s">
-        <v>168</v>
+        <v>55</v>
       </c>
       <c r="AT42" t="s">
         <v>55</v>
@@ -9052,31 +8978,31 @@
     </row>
     <row r="43" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>169</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="C43" t="s">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="D43" t="s">
-        <v>172</v>
+        <v>406</v>
       </c>
       <c r="E43" t="s">
-        <v>157</v>
+        <v>407</v>
       </c>
       <c r="F43">
-        <v>1926</v>
+        <v>1955</v>
       </c>
       <c r="G43" t="s">
-        <v>173</v>
+        <v>408</v>
       </c>
       <c r="H43" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I43">
-        <v>508</v>
+        <v>553</v>
       </c>
       <c r="J43" t="s">
         <v>55</v>
@@ -9103,10 +9029,10 @@
         <v>55</v>
       </c>
       <c r="R43" t="s">
-        <v>354</v>
+        <v>468</v>
       </c>
       <c r="S43" t="s">
-        <v>175</v>
+        <v>410</v>
       </c>
       <c r="T43" t="s">
         <v>55</v>
@@ -9124,31 +9050,31 @@
         <v>55</v>
       </c>
       <c r="Y43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC43" t="s">
-        <v>172</v>
+        <v>411</v>
       </c>
       <c r="AD43" t="s">
-        <v>55</v>
+        <v>412</v>
       </c>
       <c r="AE43" t="s">
-        <v>3</v>
+        <v>298</v>
       </c>
       <c r="AF43" t="s">
         <v>55</v>
       </c>
       <c r="AG43" t="s">
-        <v>176</v>
+        <v>413</v>
       </c>
       <c r="AH43" t="s">
         <v>55</v>
@@ -9157,25 +9083,25 @@
         <v>55</v>
       </c>
       <c r="AJ43" t="s">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="AK43" t="s">
         <v>55</v>
       </c>
       <c r="AL43" t="s">
-        <v>153</v>
+        <v>414</v>
       </c>
       <c r="AM43" t="s">
-        <v>177</v>
+        <v>415</v>
       </c>
       <c r="AN43" t="s">
-        <v>178</v>
+        <v>416</v>
       </c>
       <c r="AO43" t="s">
-        <v>179</v>
+        <v>417</v>
       </c>
       <c r="AP43" t="s">
-        <v>180</v>
+        <v>418</v>
       </c>
       <c r="AQ43" t="s">
         <v>55</v>
@@ -9213,28 +9139,28 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="D44" t="s">
-        <v>355</v>
+        <v>460</v>
       </c>
       <c r="E44" t="s">
-        <v>191</v>
+        <v>461</v>
       </c>
       <c r="F44">
-        <v>1907</v>
+        <v>1896</v>
       </c>
       <c r="G44" t="s">
-        <v>356</v>
+        <v>462</v>
       </c>
       <c r="H44" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I44">
-        <v>2278</v>
+        <v>542</v>
       </c>
       <c r="J44" t="s">
         <v>55</v>
@@ -9261,10 +9187,10 @@
         <v>55</v>
       </c>
       <c r="R44" t="s">
-        <v>361</v>
+        <v>468</v>
       </c>
       <c r="S44" t="s">
-        <v>357</v>
+        <v>463</v>
       </c>
       <c r="T44" t="s">
         <v>55</v>
@@ -9282,31 +9208,31 @@
         <v>55</v>
       </c>
       <c r="Y44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC44" t="s">
-        <v>355</v>
+        <v>411</v>
       </c>
       <c r="AD44" t="s">
-        <v>55</v>
+        <v>411</v>
       </c>
       <c r="AE44" t="s">
-        <v>3</v>
+        <v>298</v>
       </c>
       <c r="AF44" t="s">
         <v>55</v>
       </c>
       <c r="AG44" t="s">
-        <v>358</v>
+        <v>464</v>
       </c>
       <c r="AH44" t="s">
         <v>55</v>
@@ -9320,20 +9246,23 @@
       <c r="AK44" t="s">
         <v>55</v>
       </c>
+      <c r="AL44" t="s">
+        <v>414</v>
+      </c>
       <c r="AM44" t="s">
-        <v>359</v>
+        <v>465</v>
       </c>
       <c r="AN44" t="s">
-        <v>360</v>
+        <v>466</v>
       </c>
       <c r="AO44" t="s">
-        <v>361</v>
+        <v>467</v>
       </c>
       <c r="AP44" t="s">
-        <v>55</v>
+        <v>417</v>
       </c>
       <c r="AQ44" t="s">
-        <v>55</v>
+        <v>418</v>
       </c>
       <c r="AR44" t="s">
         <v>55</v>
@@ -9365,31 +9294,31 @@
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>169</v>
+        <v>111</v>
       </c>
       <c r="B45" t="s">
-        <v>282</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>362</v>
+        <v>112</v>
       </c>
       <c r="D45" t="s">
-        <v>363</v>
+        <v>55</v>
       </c>
       <c r="E45" t="s">
-        <v>364</v>
-      </c>
-      <c r="F45">
-        <v>1880</v>
+        <v>55</v>
+      </c>
+      <c r="F45" t="s">
+        <v>55</v>
       </c>
       <c r="G45" t="s">
-        <v>365</v>
+        <v>113</v>
       </c>
       <c r="H45" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I45">
-        <v>2477</v>
+        <v>1770</v>
       </c>
       <c r="J45" t="s">
         <v>55</v>
@@ -9416,10 +9345,10 @@
         <v>55</v>
       </c>
       <c r="R45" t="s">
-        <v>366</v>
+        <v>114</v>
       </c>
       <c r="S45" t="s">
-        <v>367</v>
+        <v>112</v>
       </c>
       <c r="T45" t="s">
         <v>55</v>
@@ -9437,31 +9366,31 @@
         <v>55</v>
       </c>
       <c r="Y45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC45" t="s">
-        <v>363</v>
+        <v>55</v>
       </c>
       <c r="AD45" t="s">
         <v>55</v>
       </c>
       <c r="AE45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF45" t="s">
         <v>55</v>
       </c>
       <c r="AG45" t="s">
-        <v>368</v>
+        <v>55</v>
       </c>
       <c r="AH45" t="s">
         <v>55</v>
@@ -9476,16 +9405,16 @@
         <v>55</v>
       </c>
       <c r="AL45" t="s">
-        <v>369</v>
+        <v>115</v>
       </c>
       <c r="AM45" t="s">
-        <v>370</v>
+        <v>112</v>
       </c>
       <c r="AN45" t="s">
-        <v>371</v>
+        <v>113</v>
       </c>
       <c r="AO45" t="s">
-        <v>372</v>
+        <v>55</v>
       </c>
       <c r="AP45" t="s">
         <v>55</v>
@@ -9523,31 +9452,31 @@
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="D46" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="E46" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="F46">
-        <v>1863</v>
+        <v>1909</v>
       </c>
       <c r="G46" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="H46" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I46">
-        <v>2481</v>
+        <v>214</v>
       </c>
       <c r="J46" t="s">
         <v>55</v>
@@ -9574,10 +9503,10 @@
         <v>55</v>
       </c>
       <c r="R46" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="S46" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="T46" t="s">
         <v>55</v>
@@ -9595,31 +9524,31 @@
         <v>55</v>
       </c>
       <c r="Y46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC46" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="AD46" t="s">
-        <v>55</v>
+        <v>400</v>
       </c>
       <c r="AE46" t="s">
-        <v>3</v>
+        <v>298</v>
       </c>
       <c r="AF46" t="s">
         <v>55</v>
       </c>
       <c r="AG46" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="AH46" t="s">
         <v>55</v>
@@ -9634,19 +9563,19 @@
         <v>55</v>
       </c>
       <c r="AL46" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="AM46" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="AN46" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="AO46" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="AP46" t="s">
-        <v>384</v>
+        <v>55</v>
       </c>
       <c r="AQ46" t="s">
         <v>55</v>
@@ -9681,31 +9610,31 @@
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>262</v>
       </c>
       <c r="C47" t="s">
-        <v>385</v>
+        <v>263</v>
       </c>
       <c r="D47" t="s">
-        <v>386</v>
+        <v>264</v>
       </c>
       <c r="E47" t="s">
-        <v>387</v>
+        <v>265</v>
       </c>
       <c r="F47">
-        <v>1936</v>
+        <v>1902</v>
       </c>
       <c r="G47" t="s">
-        <v>388</v>
+        <v>266</v>
       </c>
       <c r="H47" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I47">
-        <v>19</v>
+        <v>2461</v>
       </c>
       <c r="J47" t="s">
         <v>55</v>
@@ -9732,10 +9661,10 @@
         <v>55</v>
       </c>
       <c r="R47" t="s">
-        <v>389</v>
+        <v>267</v>
       </c>
       <c r="S47" t="s">
-        <v>390</v>
+        <v>268</v>
       </c>
       <c r="T47" t="s">
         <v>55</v>
@@ -9753,31 +9682,31 @@
         <v>55</v>
       </c>
       <c r="Y47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC47" t="s">
-        <v>391</v>
+        <v>264</v>
       </c>
       <c r="AD47" t="s">
-        <v>392</v>
+        <v>55</v>
       </c>
       <c r="AE47" t="s">
-        <v>299</v>
+        <v>3</v>
       </c>
       <c r="AF47" t="s">
         <v>55</v>
       </c>
       <c r="AG47" t="s">
-        <v>393</v>
+        <v>269</v>
       </c>
       <c r="AH47" t="s">
         <v>55</v>
@@ -9789,19 +9718,19 @@
         <v>55</v>
       </c>
       <c r="AK47" t="s">
-        <v>512</v>
+        <v>55</v>
       </c>
       <c r="AL47" t="s">
-        <v>394</v>
+        <v>270</v>
       </c>
       <c r="AM47" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="AN47" t="s">
-        <v>396</v>
+        <v>266</v>
       </c>
       <c r="AO47" t="s">
-        <v>397</v>
+        <v>55</v>
       </c>
       <c r="AP47" t="s">
         <v>55</v>
@@ -9839,61 +9768,61 @@
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48" t="s">
+        <v>81</v>
+      </c>
+      <c r="H48" t="s">
+        <v>57</v>
+      </c>
+      <c r="I48">
+        <v>1122</v>
+      </c>
+      <c r="J48" t="s">
+        <v>55</v>
+      </c>
+      <c r="K48" t="s">
+        <v>55</v>
+      </c>
+      <c r="L48" t="s">
+        <v>55</v>
+      </c>
+      <c r="M48" t="s">
+        <v>55</v>
+      </c>
+      <c r="N48" t="s">
+        <v>55</v>
+      </c>
+      <c r="O48" t="s">
+        <v>55</v>
+      </c>
+      <c r="P48" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>55</v>
+      </c>
+      <c r="R48" t="s">
         <v>82</v>
       </c>
-      <c r="B48" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" t="s">
-        <v>398</v>
-      </c>
-      <c r="D48" t="s">
-        <v>399</v>
-      </c>
-      <c r="E48" t="s">
-        <v>400</v>
-      </c>
-      <c r="F48">
-        <v>1909</v>
-      </c>
-      <c r="G48" t="s">
-        <v>401</v>
-      </c>
-      <c r="H48" t="s">
-        <v>55</v>
-      </c>
-      <c r="I48">
-        <v>209</v>
-      </c>
-      <c r="J48" t="s">
-        <v>55</v>
-      </c>
-      <c r="K48" t="s">
-        <v>55</v>
-      </c>
-      <c r="L48" t="s">
-        <v>55</v>
-      </c>
-      <c r="M48" t="s">
-        <v>55</v>
-      </c>
-      <c r="N48" t="s">
-        <v>55</v>
-      </c>
-      <c r="O48" t="s">
-        <v>55</v>
-      </c>
-      <c r="P48" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>55</v>
-      </c>
-      <c r="R48" t="s">
-        <v>402</v>
-      </c>
       <c r="S48" t="s">
-        <v>403</v>
+        <v>80</v>
       </c>
       <c r="T48" t="s">
         <v>55</v>
@@ -9911,31 +9840,31 @@
         <v>55</v>
       </c>
       <c r="Y48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC48" t="s">
-        <v>404</v>
+        <v>55</v>
       </c>
       <c r="AD48" t="s">
-        <v>405</v>
+        <v>55</v>
       </c>
       <c r="AE48" t="s">
-        <v>299</v>
+        <v>1</v>
       </c>
       <c r="AF48" t="s">
         <v>55</v>
       </c>
       <c r="AG48" t="s">
-        <v>406</v>
+        <v>55</v>
       </c>
       <c r="AH48" t="s">
         <v>55</v>
@@ -9949,17 +9878,14 @@
       <c r="AK48" t="s">
         <v>55</v>
       </c>
-      <c r="AL48" t="s">
-        <v>407</v>
-      </c>
       <c r="AM48" t="s">
-        <v>408</v>
+        <v>80</v>
       </c>
       <c r="AN48" t="s">
-        <v>409</v>
+        <v>81</v>
       </c>
       <c r="AO48" t="s">
-        <v>410</v>
+        <v>55</v>
       </c>
       <c r="AP48" t="s">
         <v>55</v>
@@ -9997,31 +9923,31 @@
     </row>
     <row r="49" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="D49" t="s">
-        <v>411</v>
+        <v>55</v>
       </c>
       <c r="E49" t="s">
-        <v>412</v>
-      </c>
-      <c r="F49">
-        <v>1955</v>
+        <v>55</v>
+      </c>
+      <c r="F49" t="s">
+        <v>55</v>
       </c>
       <c r="G49" t="s">
-        <v>413</v>
+        <v>101</v>
       </c>
       <c r="H49" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I49">
-        <v>540</v>
+        <v>1256</v>
       </c>
       <c r="J49" t="s">
         <v>55</v>
@@ -10048,10 +9974,10 @@
         <v>55</v>
       </c>
       <c r="R49" t="s">
-        <v>414</v>
+        <v>346</v>
       </c>
       <c r="S49" t="s">
-        <v>415</v>
+        <v>103</v>
       </c>
       <c r="T49" t="s">
         <v>55</v>
@@ -10069,31 +9995,31 @@
         <v>55</v>
       </c>
       <c r="Y49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC49" t="s">
-        <v>416</v>
+        <v>55</v>
       </c>
       <c r="AD49" t="s">
-        <v>417</v>
+        <v>55</v>
       </c>
       <c r="AE49" t="s">
-        <v>299</v>
+        <v>1</v>
       </c>
       <c r="AF49" t="s">
         <v>55</v>
       </c>
       <c r="AG49" t="s">
-        <v>418</v>
+        <v>55</v>
       </c>
       <c r="AH49" t="s">
         <v>55</v>
@@ -10107,20 +10033,17 @@
       <c r="AK49" t="s">
         <v>55</v>
       </c>
-      <c r="AL49" t="s">
-        <v>419</v>
-      </c>
       <c r="AM49" t="s">
-        <v>420</v>
+        <v>100</v>
       </c>
       <c r="AN49" t="s">
-        <v>421</v>
+        <v>105</v>
       </c>
       <c r="AO49" t="s">
-        <v>422</v>
+        <v>106</v>
       </c>
       <c r="AP49" t="s">
-        <v>423</v>
+        <v>55</v>
       </c>
       <c r="AQ49" t="s">
         <v>55</v>
@@ -10155,13 +10078,13 @@
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>291</v>
+        <v>70</v>
       </c>
       <c r="D50" t="s">
         <v>55</v>
@@ -10173,13 +10096,13 @@
         <v>55</v>
       </c>
       <c r="G50" t="s">
-        <v>341</v>
+        <v>71</v>
       </c>
       <c r="H50" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I50">
-        <v>2698</v>
+        <v>493</v>
       </c>
       <c r="J50" t="s">
         <v>55</v>
@@ -10206,10 +10129,10 @@
         <v>55</v>
       </c>
       <c r="R50" t="s">
-        <v>424</v>
+        <v>72</v>
       </c>
       <c r="S50" t="s">
-        <v>343</v>
+        <v>70</v>
       </c>
       <c r="T50" t="s">
         <v>55</v>
@@ -10227,16 +10150,16 @@
         <v>55</v>
       </c>
       <c r="Y50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC50" t="s">
         <v>55</v>
@@ -10245,7 +10168,7 @@
         <v>55</v>
       </c>
       <c r="AE50" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF50" t="s">
         <v>55</v>
@@ -10260,25 +10183,25 @@
         <v>55</v>
       </c>
       <c r="AJ50" t="s">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="AK50" t="s">
         <v>55</v>
       </c>
       <c r="AL50" t="s">
-        <v>344</v>
+        <v>73</v>
       </c>
       <c r="AM50" t="s">
-        <v>291</v>
+        <v>70</v>
       </c>
       <c r="AN50" t="s">
-        <v>345</v>
+        <v>71</v>
       </c>
       <c r="AO50" t="s">
-        <v>346</v>
+        <v>55</v>
       </c>
       <c r="AP50" t="s">
-        <v>347</v>
+        <v>55</v>
       </c>
       <c r="AQ50" t="s">
         <v>55</v>
@@ -10313,13 +10236,13 @@
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C51" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D51" t="s">
         <v>55</v>
@@ -10331,13 +10254,13 @@
         <v>55</v>
       </c>
       <c r="G51" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="H51" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I51">
-        <v>2729</v>
+        <v>1256</v>
       </c>
       <c r="J51" t="s">
         <v>55</v>
@@ -10364,10 +10287,10 @@
         <v>55</v>
       </c>
       <c r="R51" t="s">
-        <v>425</v>
+        <v>102</v>
       </c>
       <c r="S51" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="T51" t="s">
         <v>55</v>
@@ -10385,16 +10308,16 @@
         <v>55</v>
       </c>
       <c r="Y51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC51" t="s">
         <v>55</v>
@@ -10403,7 +10326,7 @@
         <v>55</v>
       </c>
       <c r="AE51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF51" t="s">
         <v>55</v>
@@ -10424,19 +10347,19 @@
         <v>55</v>
       </c>
       <c r="AL51" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="AM51" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="AN51" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="AO51" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="AP51" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="AQ51" t="s">
         <v>55</v>
@@ -10471,130 +10394,130 @@
     </row>
     <row r="52" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="C52" t="s">
+        <v>132</v>
+      </c>
+      <c r="D52" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" t="s">
+        <v>55</v>
+      </c>
+      <c r="G52" t="s">
+        <v>133</v>
+      </c>
+      <c r="H52" t="s">
+        <v>57</v>
+      </c>
+      <c r="I52">
+        <v>2436</v>
+      </c>
+      <c r="J52" t="s">
+        <v>55</v>
+      </c>
+      <c r="K52" t="s">
+        <v>55</v>
+      </c>
+      <c r="L52" t="s">
+        <v>55</v>
+      </c>
+      <c r="M52" t="s">
+        <v>55</v>
+      </c>
+      <c r="N52" t="s">
+        <v>55</v>
+      </c>
+      <c r="O52" t="s">
+        <v>55</v>
+      </c>
+      <c r="P52" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>55</v>
+      </c>
+      <c r="R52" t="s">
+        <v>134</v>
+      </c>
+      <c r="S52" t="s">
+        <v>135</v>
+      </c>
+      <c r="T52" t="s">
+        <v>55</v>
+      </c>
+      <c r="U52" t="s">
+        <v>55</v>
+      </c>
+      <c r="V52" t="s">
+        <v>55</v>
+      </c>
+      <c r="W52" t="s">
+        <v>55</v>
+      </c>
+      <c r="X52" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL52" t="s">
         <v>136</v>
       </c>
-      <c r="D52" t="s">
-        <v>55</v>
-      </c>
-      <c r="E52" t="s">
-        <v>55</v>
-      </c>
-      <c r="F52" t="s">
-        <v>55</v>
-      </c>
-      <c r="G52" t="s">
-        <v>137</v>
-      </c>
-      <c r="H52" t="s">
-        <v>55</v>
-      </c>
-      <c r="I52">
-        <v>2738</v>
-      </c>
-      <c r="J52" t="s">
-        <v>55</v>
-      </c>
-      <c r="K52" t="s">
-        <v>55</v>
-      </c>
-      <c r="L52" t="s">
-        <v>55</v>
-      </c>
-      <c r="M52" t="s">
-        <v>55</v>
-      </c>
-      <c r="N52" t="s">
-        <v>55</v>
-      </c>
-      <c r="O52" t="s">
-        <v>55</v>
-      </c>
-      <c r="P52" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>55</v>
-      </c>
-      <c r="R52" t="s">
-        <v>426</v>
-      </c>
-      <c r="S52" t="s">
-        <v>139</v>
-      </c>
-      <c r="T52" t="s">
-        <v>55</v>
-      </c>
-      <c r="U52" t="s">
-        <v>55</v>
-      </c>
-      <c r="V52" t="s">
-        <v>55</v>
-      </c>
-      <c r="W52" t="s">
-        <v>55</v>
-      </c>
-      <c r="X52" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z52" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA52" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB52" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC52" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD52" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE52" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF52" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG52" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH52" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI52" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ52" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK52" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL52" t="s">
-        <v>140</v>
-      </c>
       <c r="AM52" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AN52" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="AO52" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="AP52" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="AQ52" t="s">
         <v>55</v>
@@ -10629,31 +10552,31 @@
     </row>
     <row r="53" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>427</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="C53" t="s">
-        <v>428</v>
+        <v>124</v>
       </c>
       <c r="D53" t="s">
-        <v>55</v>
+        <v>328</v>
       </c>
       <c r="E53" t="s">
-        <v>55</v>
-      </c>
-      <c r="F53" t="s">
-        <v>55</v>
+        <v>329</v>
+      </c>
+      <c r="F53">
+        <v>1947</v>
       </c>
       <c r="G53" t="s">
-        <v>429</v>
+        <v>330</v>
       </c>
       <c r="H53" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I53">
-        <v>2740</v>
+        <v>2323</v>
       </c>
       <c r="J53" t="s">
         <v>55</v>
@@ -10680,10 +10603,10 @@
         <v>55</v>
       </c>
       <c r="R53" t="s">
-        <v>430</v>
+        <v>331</v>
       </c>
       <c r="S53" t="s">
-        <v>428</v>
+        <v>332</v>
       </c>
       <c r="T53" t="s">
         <v>55</v>
@@ -10701,31 +10624,31 @@
         <v>55</v>
       </c>
       <c r="Y53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC53" t="s">
-        <v>55</v>
+        <v>333</v>
       </c>
       <c r="AD53" t="s">
-        <v>55</v>
+        <v>334</v>
       </c>
       <c r="AE53" t="s">
-        <v>2</v>
+        <v>298</v>
       </c>
       <c r="AF53" t="s">
         <v>55</v>
       </c>
       <c r="AG53" t="s">
-        <v>55</v>
+        <v>335</v>
       </c>
       <c r="AH53" t="s">
         <v>55</v>
@@ -10740,25 +10663,25 @@
         <v>55</v>
       </c>
       <c r="AL53" t="s">
-        <v>431</v>
+        <v>336</v>
       </c>
       <c r="AM53" t="s">
-        <v>428</v>
+        <v>337</v>
       </c>
       <c r="AN53" t="s">
-        <v>432</v>
+        <v>330</v>
       </c>
       <c r="AO53" t="s">
-        <v>433</v>
+        <v>55</v>
       </c>
       <c r="AP53" t="s">
-        <v>434</v>
+        <v>55</v>
       </c>
       <c r="AQ53" t="s">
-        <v>435</v>
+        <v>55</v>
       </c>
       <c r="AR53" t="s">
-        <v>436</v>
+        <v>55</v>
       </c>
       <c r="AS53" t="s">
         <v>55</v>
@@ -10787,31 +10710,31 @@
     </row>
     <row r="54" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="C54" t="s">
-        <v>437</v>
+        <v>124</v>
       </c>
       <c r="D54" t="s">
-        <v>438</v>
+        <v>55</v>
       </c>
       <c r="E54" t="s">
-        <v>303</v>
-      </c>
-      <c r="F54">
-        <v>1916</v>
+        <v>55</v>
+      </c>
+      <c r="F54" t="s">
+        <v>55</v>
       </c>
       <c r="G54" t="s">
-        <v>439</v>
+        <v>125</v>
       </c>
       <c r="H54" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I54">
-        <v>1702</v>
+        <v>2353</v>
       </c>
       <c r="J54" t="s">
         <v>55</v>
@@ -10838,10 +10761,10 @@
         <v>55</v>
       </c>
       <c r="R54" t="s">
-        <v>445</v>
+        <v>126</v>
       </c>
       <c r="S54" t="s">
-        <v>440</v>
+        <v>127</v>
       </c>
       <c r="T54" t="s">
         <v>55</v>
@@ -10859,31 +10782,31 @@
         <v>55</v>
       </c>
       <c r="Y54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC54" t="s">
-        <v>438</v>
+        <v>55</v>
       </c>
       <c r="AD54" t="s">
         <v>55</v>
       </c>
       <c r="AE54" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF54" t="s">
         <v>55</v>
       </c>
       <c r="AG54" t="s">
-        <v>441</v>
+        <v>55</v>
       </c>
       <c r="AH54" t="s">
         <v>55</v>
@@ -10892,25 +10815,28 @@
         <v>55</v>
       </c>
       <c r="AJ54" t="s">
-        <v>55</v>
+        <v>505</v>
       </c>
       <c r="AK54" t="s">
         <v>55</v>
       </c>
+      <c r="AL54" t="s">
+        <v>128</v>
+      </c>
       <c r="AM54" t="s">
-        <v>442</v>
+        <v>124</v>
       </c>
       <c r="AN54" t="s">
-        <v>443</v>
+        <v>129</v>
       </c>
       <c r="AO54" t="s">
-        <v>444</v>
+        <v>130</v>
       </c>
       <c r="AP54" t="s">
-        <v>445</v>
+        <v>55</v>
       </c>
       <c r="AQ54" t="s">
-        <v>446</v>
+        <v>55</v>
       </c>
       <c r="AR54" t="s">
         <v>55</v>
@@ -10942,31 +10868,31 @@
     </row>
     <row r="55" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="C55" t="s">
-        <v>447</v>
+        <v>124</v>
       </c>
       <c r="D55" t="s">
-        <v>448</v>
+        <v>55</v>
       </c>
       <c r="E55" t="s">
-        <v>449</v>
-      </c>
-      <c r="F55">
-        <v>1895</v>
+        <v>55</v>
+      </c>
+      <c r="F55" t="s">
+        <v>55</v>
       </c>
       <c r="G55" t="s">
-        <v>450</v>
+        <v>125</v>
       </c>
       <c r="H55" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I55">
-        <v>1830</v>
+        <v>2353</v>
       </c>
       <c r="J55" t="s">
         <v>55</v>
@@ -10993,10 +10919,10 @@
         <v>55</v>
       </c>
       <c r="R55" t="s">
-        <v>445</v>
+        <v>348</v>
       </c>
       <c r="S55" t="s">
-        <v>451</v>
+        <v>127</v>
       </c>
       <c r="T55" t="s">
         <v>55</v>
@@ -11014,31 +10940,31 @@
         <v>55</v>
       </c>
       <c r="Y55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC55" t="s">
-        <v>448</v>
+        <v>55</v>
       </c>
       <c r="AD55" t="s">
         <v>55</v>
       </c>
       <c r="AE55" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF55" t="s">
         <v>55</v>
       </c>
       <c r="AG55" t="s">
-        <v>452</v>
+        <v>55</v>
       </c>
       <c r="AH55" t="s">
         <v>55</v>
@@ -11047,22 +10973,25 @@
         <v>55</v>
       </c>
       <c r="AJ55" t="s">
-        <v>55</v>
+        <v>505</v>
       </c>
       <c r="AK55" t="s">
         <v>55</v>
       </c>
+      <c r="AL55" t="s">
+        <v>128</v>
+      </c>
       <c r="AM55" t="s">
-        <v>453</v>
+        <v>124</v>
       </c>
       <c r="AN55" t="s">
-        <v>443</v>
+        <v>129</v>
       </c>
       <c r="AO55" t="s">
-        <v>444</v>
+        <v>130</v>
       </c>
       <c r="AP55" t="s">
-        <v>445</v>
+        <v>55</v>
       </c>
       <c r="AQ55" t="s">
         <v>55</v>
@@ -11097,31 +11026,31 @@
     </row>
     <row r="56" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>454</v>
+        <v>85</v>
       </c>
       <c r="D56" t="s">
-        <v>455</v>
+        <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>303</v>
-      </c>
-      <c r="F56">
-        <v>1902</v>
+        <v>55</v>
+      </c>
+      <c r="F56" t="s">
+        <v>55</v>
       </c>
       <c r="G56" t="s">
-        <v>456</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I56">
-        <v>438</v>
+        <v>1201</v>
       </c>
       <c r="J56" t="s">
         <v>55</v>
@@ -11148,10 +11077,10 @@
         <v>55</v>
       </c>
       <c r="R56" t="s">
-        <v>457</v>
+        <v>87</v>
       </c>
       <c r="S56" t="s">
-        <v>458</v>
+        <v>88</v>
       </c>
       <c r="T56" t="s">
         <v>55</v>
@@ -11169,31 +11098,31 @@
         <v>55</v>
       </c>
       <c r="Y56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC56" t="s">
-        <v>459</v>
+        <v>55</v>
       </c>
       <c r="AD56" t="s">
-        <v>460</v>
+        <v>55</v>
       </c>
       <c r="AE56" t="s">
-        <v>299</v>
+        <v>1</v>
       </c>
       <c r="AF56" t="s">
         <v>55</v>
       </c>
       <c r="AG56" t="s">
-        <v>461</v>
+        <v>55</v>
       </c>
       <c r="AH56" t="s">
         <v>55</v>
@@ -11208,19 +11137,19 @@
         <v>55</v>
       </c>
       <c r="AL56" t="s">
-        <v>462</v>
+        <v>89</v>
       </c>
       <c r="AM56" t="s">
-        <v>463</v>
+        <v>85</v>
       </c>
       <c r="AN56" t="s">
-        <v>464</v>
+        <v>86</v>
       </c>
       <c r="AO56" t="s">
-        <v>465</v>
+        <v>55</v>
       </c>
       <c r="AP56" t="s">
-        <v>466</v>
+        <v>55</v>
       </c>
       <c r="AQ56" t="s">
         <v>55</v>
@@ -11255,31 +11184,31 @@
     </row>
     <row r="57" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="B57" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C57" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="D57" t="s">
-        <v>467</v>
+        <v>55</v>
       </c>
       <c r="E57" t="s">
-        <v>468</v>
-      </c>
-      <c r="F57">
-        <v>1896</v>
+        <v>55</v>
+      </c>
+      <c r="F57" t="s">
+        <v>55</v>
       </c>
       <c r="G57" t="s">
-        <v>469</v>
+        <v>93</v>
       </c>
       <c r="H57" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I57">
-        <v>529</v>
+        <v>1238</v>
       </c>
       <c r="J57" t="s">
         <v>55</v>
@@ -11306,10 +11235,10 @@
         <v>55</v>
       </c>
       <c r="R57" t="s">
-        <v>414</v>
+        <v>94</v>
       </c>
       <c r="S57" t="s">
-        <v>470</v>
+        <v>95</v>
       </c>
       <c r="T57" t="s">
         <v>55</v>
@@ -11327,31 +11256,31 @@
         <v>55</v>
       </c>
       <c r="Y57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC57" t="s">
-        <v>416</v>
+        <v>55</v>
       </c>
       <c r="AD57" t="s">
-        <v>471</v>
+        <v>55</v>
       </c>
       <c r="AE57" t="s">
-        <v>299</v>
+        <v>1</v>
       </c>
       <c r="AF57" t="s">
         <v>55</v>
       </c>
       <c r="AG57" t="s">
-        <v>472</v>
+        <v>55</v>
       </c>
       <c r="AH57" t="s">
         <v>55</v>
@@ -11366,22 +11295,22 @@
         <v>55</v>
       </c>
       <c r="AL57" t="s">
-        <v>419</v>
+        <v>89</v>
       </c>
       <c r="AM57" t="s">
-        <v>473</v>
+        <v>92</v>
       </c>
       <c r="AN57" t="s">
-        <v>474</v>
+        <v>96</v>
       </c>
       <c r="AO57" t="s">
-        <v>475</v>
+        <v>97</v>
       </c>
       <c r="AP57" t="s">
-        <v>422</v>
+        <v>55</v>
       </c>
       <c r="AQ57" t="s">
-        <v>423</v>
+        <v>55</v>
       </c>
       <c r="AR57" t="s">
         <v>55</v>
@@ -11413,31 +11342,31 @@
     </row>
     <row r="58" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="B58" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C58" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="D58" t="s">
-        <v>411</v>
+        <v>55</v>
       </c>
       <c r="E58" t="s">
-        <v>412</v>
-      </c>
-      <c r="F58">
-        <v>1955</v>
+        <v>55</v>
+      </c>
+      <c r="F58" t="s">
+        <v>55</v>
       </c>
       <c r="G58" t="s">
-        <v>413</v>
+        <v>117</v>
       </c>
       <c r="H58" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I58">
-        <v>540</v>
+        <v>1792</v>
       </c>
       <c r="J58" t="s">
         <v>55</v>
@@ -11464,10 +11393,10 @@
         <v>55</v>
       </c>
       <c r="R58" t="s">
-        <v>476</v>
+        <v>118</v>
       </c>
       <c r="S58" t="s">
-        <v>415</v>
+        <v>119</v>
       </c>
       <c r="T58" t="s">
         <v>55</v>
@@ -11485,31 +11414,31 @@
         <v>55</v>
       </c>
       <c r="Y58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC58" t="s">
-        <v>416</v>
+        <v>55</v>
       </c>
       <c r="AD58" t="s">
-        <v>417</v>
+        <v>55</v>
       </c>
       <c r="AE58" t="s">
-        <v>299</v>
+        <v>1</v>
       </c>
       <c r="AF58" t="s">
         <v>55</v>
       </c>
       <c r="AG58" t="s">
-        <v>418</v>
+        <v>55</v>
       </c>
       <c r="AH58" t="s">
         <v>55</v>
@@ -11524,19 +11453,19 @@
         <v>55</v>
       </c>
       <c r="AL58" t="s">
-        <v>419</v>
+        <v>89</v>
       </c>
       <c r="AM58" t="s">
-        <v>420</v>
+        <v>116</v>
       </c>
       <c r="AN58" t="s">
-        <v>421</v>
+        <v>120</v>
       </c>
       <c r="AO58" t="s">
-        <v>422</v>
+        <v>121</v>
       </c>
       <c r="AP58" t="s">
-        <v>423</v>
+        <v>122</v>
       </c>
       <c r="AQ58" t="s">
         <v>55</v>
@@ -11571,31 +11500,31 @@
     </row>
     <row r="59" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="B59" t="s">
-        <v>477</v>
+        <v>91</v>
       </c>
       <c r="C59" t="s">
-        <v>478</v>
+        <v>116</v>
       </c>
       <c r="D59" t="s">
-        <v>479</v>
+        <v>55</v>
       </c>
       <c r="E59" t="s">
-        <v>480</v>
-      </c>
-      <c r="F59">
-        <v>1811</v>
+        <v>55</v>
+      </c>
+      <c r="F59" t="s">
+        <v>55</v>
       </c>
       <c r="G59" t="s">
-        <v>481</v>
+        <v>117</v>
       </c>
       <c r="H59" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I59">
-        <v>1305</v>
+        <v>1792</v>
       </c>
       <c r="J59" t="s">
         <v>55</v>
@@ -11622,10 +11551,10 @@
         <v>55</v>
       </c>
       <c r="R59" t="s">
-        <v>482</v>
+        <v>347</v>
       </c>
       <c r="S59" t="s">
-        <v>483</v>
+        <v>119</v>
       </c>
       <c r="T59" t="s">
         <v>55</v>
@@ -11643,31 +11572,31 @@
         <v>55</v>
       </c>
       <c r="Y59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC59" t="s">
-        <v>479</v>
+        <v>55</v>
       </c>
       <c r="AD59" t="s">
         <v>55</v>
       </c>
       <c r="AE59" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF59" t="s">
         <v>55</v>
       </c>
       <c r="AG59" t="s">
-        <v>484</v>
+        <v>55</v>
       </c>
       <c r="AH59" t="s">
         <v>55</v>
@@ -11676,31 +11605,31 @@
         <v>55</v>
       </c>
       <c r="AJ59" t="s">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="AK59" t="s">
         <v>55</v>
       </c>
       <c r="AL59" t="s">
-        <v>485</v>
+        <v>89</v>
       </c>
       <c r="AM59" t="s">
-        <v>486</v>
+        <v>116</v>
       </c>
       <c r="AN59" t="s">
-        <v>487</v>
+        <v>120</v>
       </c>
       <c r="AO59" t="s">
-        <v>488</v>
+        <v>121</v>
       </c>
       <c r="AP59" t="s">
-        <v>489</v>
+        <v>122</v>
       </c>
       <c r="AQ59" t="s">
-        <v>490</v>
+        <v>55</v>
       </c>
       <c r="AR59" t="s">
-        <v>491</v>
+        <v>55</v>
       </c>
       <c r="AS59" t="s">
         <v>55</v>
@@ -11729,31 +11658,31 @@
     </row>
     <row r="60" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C60" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="D60" t="s">
-        <v>467</v>
+        <v>55</v>
       </c>
       <c r="E60" t="s">
-        <v>468</v>
-      </c>
-      <c r="F60">
-        <v>1896</v>
+        <v>55</v>
+      </c>
+      <c r="F60" t="s">
+        <v>55</v>
       </c>
       <c r="G60" t="s">
-        <v>469</v>
+        <v>117</v>
       </c>
       <c r="H60" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I60">
-        <v>529</v>
+        <v>1792</v>
       </c>
       <c r="J60" t="s">
         <v>55</v>
@@ -11780,10 +11709,10 @@
         <v>55</v>
       </c>
       <c r="R60" t="s">
-        <v>476</v>
+        <v>420</v>
       </c>
       <c r="S60" t="s">
-        <v>470</v>
+        <v>119</v>
       </c>
       <c r="T60" t="s">
         <v>55</v>
@@ -11801,31 +11730,31 @@
         <v>55</v>
       </c>
       <c r="Y60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC60" t="s">
-        <v>416</v>
+        <v>55</v>
       </c>
       <c r="AD60" t="s">
-        <v>471</v>
+        <v>55</v>
       </c>
       <c r="AE60" t="s">
-        <v>299</v>
+        <v>1</v>
       </c>
       <c r="AF60" t="s">
         <v>55</v>
       </c>
       <c r="AG60" t="s">
-        <v>472</v>
+        <v>55</v>
       </c>
       <c r="AH60" t="s">
         <v>55</v>
@@ -11840,22 +11769,22 @@
         <v>55</v>
       </c>
       <c r="AL60" t="s">
-        <v>419</v>
+        <v>89</v>
       </c>
       <c r="AM60" t="s">
-        <v>473</v>
+        <v>116</v>
       </c>
       <c r="AN60" t="s">
-        <v>474</v>
+        <v>120</v>
       </c>
       <c r="AO60" t="s">
-        <v>475</v>
+        <v>121</v>
       </c>
       <c r="AP60" t="s">
-        <v>422</v>
+        <v>122</v>
       </c>
       <c r="AQ60" t="s">
-        <v>423</v>
+        <v>55</v>
       </c>
       <c r="AR60" t="s">
         <v>55</v>
@@ -11887,31 +11816,31 @@
     </row>
     <row r="61" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B61" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="C61" t="s">
-        <v>437</v>
+        <v>124</v>
       </c>
       <c r="D61" t="s">
-        <v>492</v>
+        <v>352</v>
       </c>
       <c r="E61" t="s">
-        <v>493</v>
+        <v>191</v>
       </c>
       <c r="F61">
-        <v>1800</v>
+        <v>1907</v>
       </c>
       <c r="G61" t="s">
-        <v>494</v>
+        <v>353</v>
       </c>
       <c r="H61" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I61">
-        <v>1675</v>
+        <v>2316</v>
       </c>
       <c r="J61" t="s">
         <v>55</v>
@@ -11938,10 +11867,10 @@
         <v>55</v>
       </c>
       <c r="R61" t="s">
-        <v>495</v>
+        <v>358</v>
       </c>
       <c r="S61" t="s">
-        <v>496</v>
+        <v>354</v>
       </c>
       <c r="T61" t="s">
         <v>55</v>
@@ -11959,19 +11888,19 @@
         <v>55</v>
       </c>
       <c r="Y61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC61" t="s">
-        <v>492</v>
+        <v>352</v>
       </c>
       <c r="AD61" t="s">
         <v>55</v>
@@ -11983,7 +11912,7 @@
         <v>55</v>
       </c>
       <c r="AG61" t="s">
-        <v>497</v>
+        <v>355</v>
       </c>
       <c r="AH61" t="s">
         <v>55</v>
@@ -11992,37 +11921,34 @@
         <v>55</v>
       </c>
       <c r="AJ61" t="s">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="AK61" t="s">
         <v>55</v>
       </c>
-      <c r="AL61" t="s">
-        <v>498</v>
-      </c>
       <c r="AM61" t="s">
-        <v>499</v>
+        <v>356</v>
       </c>
       <c r="AN61" t="s">
-        <v>500</v>
+        <v>357</v>
       </c>
       <c r="AO61" t="s">
-        <v>501</v>
+        <v>358</v>
       </c>
       <c r="AP61" t="s">
-        <v>502</v>
+        <v>55</v>
       </c>
       <c r="AQ61" t="s">
-        <v>503</v>
+        <v>55</v>
       </c>
       <c r="AR61" t="s">
-        <v>504</v>
+        <v>55</v>
       </c>
       <c r="AS61" t="s">
-        <v>505</v>
+        <v>55</v>
       </c>
       <c r="AT61" t="s">
-        <v>506</v>
+        <v>55</v>
       </c>
       <c r="AU61" t="s">
         <v>55</v>
@@ -12044,9 +11970,9 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AZ61">
+    <sortCondition ref="AL2:AL61"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/input/reviewed_synonyms.xlsx
+++ b/input/reviewed_synonyms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18c1f91d246f9ff5/Documents/GitHub/tpt-siphonaptera/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AA5D283-96D9-40C6-B41C-4943F7186729}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ABBFA98-13E5-4B4A-AFA2-93E6BC2F5E6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3245" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3258" uniqueCount="565">
   <si>
     <t>family</t>
   </si>
@@ -850,6 +850,9 @@
     <t>Paradoxopsyllus cruvispinus (sic) Miyajima &amp; Koidzumi, 1909; Ceratophyllus subcaecatus Rothschild, 1912</t>
   </si>
   <si>
+    <t>Paradoxopsyllus cruvispinus  Miyajima &amp; Koidzumi, 1909</t>
+  </si>
+  <si>
     <t>Paradoxopsyllus curvispinus Miyajima &amp; Koidzumi, 1909</t>
   </si>
   <si>
@@ -1510,6 +1513,9 @@
     <t>Atyphloceras artius Jordan 1933; Atyphoceras (sic) Atyphloceras felix Jordan, 1933</t>
   </si>
   <si>
+    <t>Atyphoceras  Atyphloceras felix Jordan, 1933</t>
+  </si>
+  <si>
     <t>Atyphloceras multidentatus multidentatus (C. Fox, 1909)</t>
   </si>
   <si>
@@ -1708,40 +1714,7 @@
     <t>nomen novum</t>
   </si>
   <si>
-    <t>Migrastivalius</t>
-  </si>
-  <si>
-    <t>Pleochaetoides</t>
-  </si>
-  <si>
-    <t>Paracoptopsylla</t>
-  </si>
-  <si>
-    <t>Miochaeta</t>
-  </si>
-  <si>
-    <t>Hystroceras</t>
-  </si>
-  <si>
-    <t>Aneptescopsylla</t>
-  </si>
-  <si>
-    <t>Hirtopsylla</t>
-  </si>
-  <si>
-    <t>Dinycteridopsylla</t>
-  </si>
-  <si>
-    <t>Hexanycteropsylla</t>
-  </si>
-  <si>
     <t>misspelling</t>
-  </si>
-  <si>
-    <t>Atyphoceras felix Jordan, 1933</t>
-  </si>
-  <si>
-    <t>Paradoxopsyllus cruvispinus Miyajima &amp; Koidzumi, 1909</t>
   </si>
 </sst>
 </file>
@@ -2586,7 +2559,56 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="246.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="82.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="48.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="100.90625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="36.36328125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="123.90625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="89.26953125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="68" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="48.08984375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="33.6328125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="50" max="53" width="5.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -2751,25 +2773,25 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D2" t="s">
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F2">
         <v>1838</v>
       </c>
       <c r="G2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="H2" t="s">
         <v>59</v>
@@ -2802,10 +2824,10 @@
         <v>56</v>
       </c>
       <c r="R2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="S2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="T2" t="s">
         <v>56</v>
@@ -2850,7 +2872,7 @@
         <v>56</v>
       </c>
       <c r="AH2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AI2" t="s">
         <v>56</v>
@@ -2865,25 +2887,25 @@
         <v>56</v>
       </c>
       <c r="AM2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AN2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AO2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AP2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AQ2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AR2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="AS2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="AT2" t="s">
         <v>56</v>
@@ -2936,7 +2958,7 @@
         <v>59</v>
       </c>
       <c r="I3">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="J3" t="s">
         <v>56</v>
@@ -3097,7 +3119,7 @@
         <v>59</v>
       </c>
       <c r="I4">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="J4" t="s">
         <v>56</v>
@@ -3258,7 +3280,7 @@
         <v>59</v>
       </c>
       <c r="I5">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="J5" t="s">
         <v>56</v>
@@ -3348,7 +3370,7 @@
         <v>56</v>
       </c>
       <c r="AM5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN5" t="s">
         <v>271</v>
@@ -3401,10 +3423,10 @@
         <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E6" t="s">
         <v>79</v>
@@ -3413,7 +3435,7 @@
         <v>1922</v>
       </c>
       <c r="G6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H6" t="s">
         <v>59</v>
@@ -3446,10 +3468,10 @@
         <v>56</v>
       </c>
       <c r="R6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="T6" t="s">
         <v>56</v>
@@ -3482,7 +3504,7 @@
         <v>56</v>
       </c>
       <c r="AD6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AE6" t="s">
         <v>56</v>
@@ -3494,7 +3516,7 @@
         <v>56</v>
       </c>
       <c r="AH6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AI6" t="s">
         <v>56</v>
@@ -3509,16 +3531,16 @@
         <v>56</v>
       </c>
       <c r="AM6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AO6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AP6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AQ6" t="s">
         <v>56</v>
@@ -3565,22 +3587,22 @@
         <v>113</v>
       </c>
       <c r="D7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F7">
         <v>1898</v>
       </c>
       <c r="G7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H7" t="s">
         <v>59</v>
       </c>
       <c r="I7">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="J7" t="s">
         <v>56</v>
@@ -3607,10 +3629,10 @@
         <v>56</v>
       </c>
       <c r="R7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="S7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="T7" t="s">
         <v>56</v>
@@ -3643,7 +3665,7 @@
         <v>56</v>
       </c>
       <c r="AD7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AE7" t="s">
         <v>56</v>
@@ -3655,7 +3677,7 @@
         <v>56</v>
       </c>
       <c r="AH7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AI7" t="s">
         <v>56</v>
@@ -3670,16 +3692,16 @@
         <v>56</v>
       </c>
       <c r="AM7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AO7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AP7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AQ7" t="s">
         <v>56</v>
@@ -3726,22 +3748,22 @@
         <v>113</v>
       </c>
       <c r="D8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F8">
         <v>1935</v>
       </c>
       <c r="G8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H8" t="s">
         <v>59</v>
       </c>
       <c r="I8">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="J8" t="s">
         <v>56</v>
@@ -3768,10 +3790,10 @@
         <v>56</v>
       </c>
       <c r="R8" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="S8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="T8" t="s">
         <v>56</v>
@@ -3804,7 +3826,7 @@
         <v>56</v>
       </c>
       <c r="AD8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AE8" t="s">
         <v>56</v>
@@ -3816,7 +3838,7 @@
         <v>56</v>
       </c>
       <c r="AH8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AI8" t="s">
         <v>56</v>
@@ -3831,16 +3853,16 @@
         <v>56</v>
       </c>
       <c r="AM8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AN8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AO8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AP8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AQ8" t="s">
         <v>56</v>
@@ -3881,22 +3903,22 @@
         <v>195</v>
       </c>
       <c r="B9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C9" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D9" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E9" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F9">
         <v>1880</v>
       </c>
       <c r="G9" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H9" t="s">
         <v>59</v>
@@ -3929,10 +3951,10 @@
         <v>56</v>
       </c>
       <c r="R9" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="S9" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="T9" t="s">
         <v>56</v>
@@ -3965,7 +3987,7 @@
         <v>56</v>
       </c>
       <c r="AD9" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AE9" t="s">
         <v>56</v>
@@ -3977,7 +3999,7 @@
         <v>56</v>
       </c>
       <c r="AH9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AI9" t="s">
         <v>56</v>
@@ -3992,16 +4014,16 @@
         <v>56</v>
       </c>
       <c r="AM9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN9" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AO9" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AP9" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AQ9" t="s">
         <v>56</v>
@@ -4045,25 +4067,25 @@
         <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D10" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F10">
         <v>1895</v>
       </c>
       <c r="G10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H10" t="s">
         <v>59</v>
       </c>
       <c r="I10">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="J10" t="s">
         <v>56</v>
@@ -4090,10 +4112,10 @@
         <v>56</v>
       </c>
       <c r="R10" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="S10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="T10" t="s">
         <v>56</v>
@@ -4126,7 +4148,7 @@
         <v>56</v>
       </c>
       <c r="AD10" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AE10" t="s">
         <v>56</v>
@@ -4138,7 +4160,7 @@
         <v>56</v>
       </c>
       <c r="AH10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AI10" t="s">
         <v>56</v>
@@ -4153,16 +4175,16 @@
         <v>56</v>
       </c>
       <c r="AN10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AO10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AP10" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AQ10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AR10" t="s">
         <v>56</v>
@@ -4206,22 +4228,22 @@
         <v>242</v>
       </c>
       <c r="D11" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F11">
         <v>1916</v>
       </c>
       <c r="G11" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="H11" t="s">
         <v>59</v>
       </c>
       <c r="I11">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="J11" t="s">
         <v>56</v>
@@ -4248,10 +4270,10 @@
         <v>56</v>
       </c>
       <c r="R11" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="S11" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="T11" t="s">
         <v>56</v>
@@ -4284,7 +4306,7 @@
         <v>56</v>
       </c>
       <c r="AD11" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="AE11" t="s">
         <v>56</v>
@@ -4296,7 +4318,7 @@
         <v>56</v>
       </c>
       <c r="AH11" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="AI11" t="s">
         <v>56</v>
@@ -4311,19 +4333,19 @@
         <v>56</v>
       </c>
       <c r="AN11" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AO11" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AP11" t="s">
+        <v>462</v>
+      </c>
+      <c r="AQ11" t="s">
         <v>461</v>
       </c>
-      <c r="AQ11" t="s">
-        <v>460</v>
-      </c>
       <c r="AR11" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AS11" t="s">
         <v>56</v>
@@ -4379,7 +4401,7 @@
         <v>59</v>
       </c>
       <c r="I12">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="J12" t="s">
         <v>56</v>
@@ -4406,7 +4428,7 @@
         <v>56</v>
       </c>
       <c r="R12" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="S12" t="s">
         <v>262</v>
@@ -4469,7 +4491,7 @@
         <v>56</v>
       </c>
       <c r="AM12" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AN12" t="s">
         <v>264</v>
@@ -4525,16 +4547,16 @@
         <v>160</v>
       </c>
       <c r="D13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F13">
         <v>1905</v>
       </c>
       <c r="G13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H13" t="s">
         <v>59</v>
@@ -4567,10 +4589,10 @@
         <v>56</v>
       </c>
       <c r="R13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="S13" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="T13" t="s">
         <v>56</v>
@@ -4603,7 +4625,7 @@
         <v>56</v>
       </c>
       <c r="AD13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AE13" t="s">
         <v>56</v>
@@ -4615,7 +4637,7 @@
         <v>56</v>
       </c>
       <c r="AH13" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AI13" t="s">
         <v>56</v>
@@ -4630,19 +4652,19 @@
         <v>56</v>
       </c>
       <c r="AN13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AO13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AP13" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AQ13" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AR13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AS13" t="s">
         <v>56</v>
@@ -4677,13 +4699,13 @@
         <v>207</v>
       </c>
       <c r="B14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C14" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D14" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E14" t="s">
         <v>226</v>
@@ -4692,7 +4714,7 @@
         <v>1908</v>
       </c>
       <c r="G14" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H14" t="s">
         <v>59</v>
@@ -4725,10 +4747,10 @@
         <v>56</v>
       </c>
       <c r="R14" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="S14" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="T14" t="s">
         <v>56</v>
@@ -4761,7 +4783,7 @@
         <v>56</v>
       </c>
       <c r="AD14" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AE14" t="s">
         <v>56</v>
@@ -4773,7 +4795,7 @@
         <v>56</v>
       </c>
       <c r="AH14" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AI14" t="s">
         <v>56</v>
@@ -4788,10 +4810,10 @@
         <v>56</v>
       </c>
       <c r="AN14" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO14" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AP14" t="s">
         <v>56</v>
@@ -4945,6 +4967,9 @@
       <c r="AL15" t="s">
         <v>56</v>
       </c>
+      <c r="AM15" t="s">
+        <v>179</v>
+      </c>
       <c r="AN15" t="s">
         <v>180</v>
       </c>
@@ -5014,7 +5039,7 @@
         <v>59</v>
       </c>
       <c r="I16">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J16" t="s">
         <v>56</v>
@@ -5102,6 +5127,9 @@
       </c>
       <c r="AL16" t="s">
         <v>56</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>179</v>
       </c>
       <c r="AN16" t="s">
         <v>188</v>
@@ -5172,7 +5200,7 @@
         <v>59</v>
       </c>
       <c r="I17">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="J17" t="s">
         <v>56</v>
@@ -5260,6 +5288,9 @@
       </c>
       <c r="AL17" t="s">
         <v>56</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>179</v>
       </c>
       <c r="AN17" t="s">
         <v>203</v>
@@ -5312,19 +5343,19 @@
         <v>123</v>
       </c>
       <c r="C18" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D18" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E18" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F18">
         <v>1878</v>
       </c>
       <c r="G18" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H18" t="s">
         <v>59</v>
@@ -5357,10 +5388,10 @@
         <v>56</v>
       </c>
       <c r="R18" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="S18" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="T18" t="s">
         <v>56</v>
@@ -5393,19 +5424,19 @@
         <v>56</v>
       </c>
       <c r="AD18" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AE18" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF18" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG18" t="s">
         <v>56</v>
       </c>
       <c r="AH18" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AI18" t="s">
         <v>56</v>
@@ -5419,11 +5450,14 @@
       <c r="AL18" t="s">
         <v>56</v>
       </c>
+      <c r="AM18" t="s">
+        <v>179</v>
+      </c>
       <c r="AN18" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AO18" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AP18" t="s">
         <v>56</v>
@@ -5473,16 +5507,16 @@
         <v>172</v>
       </c>
       <c r="D19" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E19" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F19">
         <v>1898</v>
       </c>
       <c r="G19" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H19" t="s">
         <v>59</v>
@@ -5515,10 +5549,10 @@
         <v>56</v>
       </c>
       <c r="R19" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="S19" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="T19" t="s">
         <v>56</v>
@@ -5551,19 +5585,19 @@
         <v>56</v>
       </c>
       <c r="AD19" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AE19" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF19" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG19" t="s">
         <v>56</v>
       </c>
       <c r="AH19" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AI19" t="s">
         <v>56</v>
@@ -5577,14 +5611,17 @@
       <c r="AL19" t="s">
         <v>56</v>
       </c>
+      <c r="AM19" t="s">
+        <v>179</v>
+      </c>
       <c r="AN19" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AO19" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AP19" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AQ19" t="s">
         <v>56</v>
@@ -5631,22 +5668,22 @@
         <v>181</v>
       </c>
       <c r="D20" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E20" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F20">
         <v>1955</v>
       </c>
       <c r="G20" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H20" t="s">
         <v>59</v>
       </c>
       <c r="I20">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J20" t="s">
         <v>56</v>
@@ -5673,10 +5710,10 @@
         <v>56</v>
       </c>
       <c r="R20" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="S20" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="T20" t="s">
         <v>56</v>
@@ -5709,19 +5746,19 @@
         <v>56</v>
       </c>
       <c r="AD20" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AE20" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF20" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG20" t="s">
         <v>56</v>
       </c>
       <c r="AH20" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AI20" t="s">
         <v>56</v>
@@ -5735,11 +5772,14 @@
       <c r="AL20" t="s">
         <v>56</v>
       </c>
+      <c r="AM20" t="s">
+        <v>179</v>
+      </c>
       <c r="AN20" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AO20" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AP20" t="s">
         <v>56</v>
@@ -5804,7 +5844,7 @@
         <v>59</v>
       </c>
       <c r="I21">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J21" t="s">
         <v>56</v>
@@ -5831,7 +5871,7 @@
         <v>56</v>
       </c>
       <c r="R21" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="S21" t="s">
         <v>186</v>
@@ -5892,6 +5932,9 @@
       </c>
       <c r="AL21" t="s">
         <v>56</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>179</v>
       </c>
       <c r="AN21" t="s">
         <v>188</v>
@@ -5962,7 +6005,7 @@
         <v>59</v>
       </c>
       <c r="I22">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="J22" t="s">
         <v>56</v>
@@ -5989,7 +6032,7 @@
         <v>56</v>
       </c>
       <c r="R22" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="S22" t="s">
         <v>201</v>
@@ -6050,6 +6093,9 @@
       </c>
       <c r="AL22" t="s">
         <v>56</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>179</v>
       </c>
       <c r="AN22" t="s">
         <v>203</v>
@@ -6260,28 +6306,28 @@
         <v>170</v>
       </c>
       <c r="B24" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C24" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D24" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E24" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F24">
         <v>1811</v>
       </c>
       <c r="G24" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H24" t="s">
         <v>59</v>
       </c>
       <c r="I24">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="J24" t="s">
         <v>56</v>
@@ -6308,10 +6354,10 @@
         <v>56</v>
       </c>
       <c r="R24" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="S24" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="T24" t="s">
         <v>56</v>
@@ -6344,7 +6390,7 @@
         <v>56</v>
       </c>
       <c r="AD24" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AE24" t="s">
         <v>56</v>
@@ -6356,7 +6402,7 @@
         <v>56</v>
       </c>
       <c r="AH24" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AI24" t="s">
         <v>56</v>
@@ -6371,25 +6417,25 @@
         <v>56</v>
       </c>
       <c r="AM24" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN24" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AO24" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AP24" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AQ24" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AR24" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AS24" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AT24" t="s">
         <v>56</v>
@@ -6424,7 +6470,7 @@
         <v>123</v>
       </c>
       <c r="C25" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D25" t="s">
         <v>56</v>
@@ -6436,7 +6482,7 @@
         <v>1936</v>
       </c>
       <c r="G25" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H25" t="s">
         <v>59</v>
@@ -6469,10 +6515,10 @@
         <v>56</v>
       </c>
       <c r="R25" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="S25" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="T25" t="s">
         <v>56</v>
@@ -6517,7 +6563,7 @@
         <v>56</v>
       </c>
       <c r="AH25" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AI25" t="s">
         <v>56</v>
@@ -6532,19 +6578,19 @@
         <v>56</v>
       </c>
       <c r="AM25" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AN25" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO25" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AP25" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AQ25" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AR25" t="s">
         <v>56</v>
@@ -6585,7 +6631,7 @@
         <v>123</v>
       </c>
       <c r="C26" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D26" t="s">
         <v>56</v>
@@ -6597,7 +6643,7 @@
         <v>1936</v>
       </c>
       <c r="G26" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H26" t="s">
         <v>59</v>
@@ -6630,10 +6676,10 @@
         <v>56</v>
       </c>
       <c r="R26" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="S26" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="T26" t="s">
         <v>56</v>
@@ -6678,7 +6724,7 @@
         <v>56</v>
       </c>
       <c r="AH26" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AI26" t="s">
         <v>56</v>
@@ -6693,19 +6739,19 @@
         <v>56</v>
       </c>
       <c r="AM26" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AN26" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO26" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AP26" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AQ26" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AR26" t="s">
         <v>56</v>
@@ -6853,6 +6899,9 @@
       <c r="AL27" t="s">
         <v>56</v>
       </c>
+      <c r="AM27" t="s">
+        <v>67</v>
+      </c>
       <c r="AN27" t="s">
         <v>55</v>
       </c>
@@ -6922,7 +6971,7 @@
         <v>59</v>
       </c>
       <c r="I28">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J28" t="s">
         <v>56</v>
@@ -7010,6 +7059,9 @@
       </c>
       <c r="AL28" t="s">
         <v>56</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>67</v>
       </c>
       <c r="AN28" t="s">
         <v>69</v>
@@ -7080,7 +7132,7 @@
         <v>59</v>
       </c>
       <c r="I29">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="J29" t="s">
         <v>56</v>
@@ -7168,6 +7220,9 @@
       </c>
       <c r="AL29" t="s">
         <v>56</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>67</v>
       </c>
       <c r="AN29" t="s">
         <v>89</v>
@@ -7238,7 +7293,7 @@
         <v>59</v>
       </c>
       <c r="I30">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="J30" t="s">
         <v>56</v>
@@ -7326,6 +7381,9 @@
       </c>
       <c r="AL30" t="s">
         <v>56</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>67</v>
       </c>
       <c r="AN30" t="s">
         <v>113</v>
@@ -7396,7 +7454,7 @@
         <v>59</v>
       </c>
       <c r="I31">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="J31" t="s">
         <v>56</v>
@@ -7484,6 +7542,9 @@
       </c>
       <c r="AL31" t="s">
         <v>56</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>67</v>
       </c>
       <c r="AN31" t="s">
         <v>131</v>
@@ -7742,7 +7803,7 @@
         <v>56</v>
       </c>
       <c r="R33" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="S33" t="s">
         <v>164</v>
@@ -7903,7 +7964,7 @@
         <v>56</v>
       </c>
       <c r="R34" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="S34" t="s">
         <v>164</v>
@@ -8019,19 +8080,19 @@
         <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D35" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E35" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F35">
         <v>1904</v>
       </c>
       <c r="G35" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H35" t="s">
         <v>59</v>
@@ -8064,10 +8125,10 @@
         <v>56</v>
       </c>
       <c r="R35" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S35" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="T35" t="s">
         <v>56</v>
@@ -8100,7 +8161,7 @@
         <v>56</v>
       </c>
       <c r="AD35" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AE35" t="s">
         <v>56</v>
@@ -8112,7 +8173,7 @@
         <v>56</v>
       </c>
       <c r="AH35" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AI35" t="s">
         <v>56</v>
@@ -8127,13 +8188,13 @@
         <v>56</v>
       </c>
       <c r="AM35" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AN35" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AO35" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AP35" t="s">
         <v>56</v>
@@ -8183,22 +8244,22 @@
         <v>265</v>
       </c>
       <c r="D36" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E36" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F36">
         <v>1975</v>
       </c>
       <c r="G36" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H36" t="s">
         <v>59</v>
       </c>
       <c r="I36">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="J36" t="s">
         <v>56</v>
@@ -8228,7 +8289,7 @@
         <v>268</v>
       </c>
       <c r="S36" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="T36" t="s">
         <v>56</v>
@@ -8261,19 +8322,19 @@
         <v>56</v>
       </c>
       <c r="AD36" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AE36" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF36" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG36" t="s">
         <v>56</v>
       </c>
       <c r="AH36" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AI36" t="s">
         <v>56</v>
@@ -8288,13 +8349,13 @@
         <v>56</v>
       </c>
       <c r="AM36" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AN36" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AO36" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AP36" t="s">
         <v>56</v>
@@ -8341,25 +8402,25 @@
         <v>123</v>
       </c>
       <c r="C37" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D37" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E37" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F37">
         <v>1902</v>
       </c>
       <c r="G37" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="H37" t="s">
         <v>59</v>
       </c>
       <c r="I37">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J37" t="s">
         <v>56</v>
@@ -8386,10 +8447,10 @@
         <v>56</v>
       </c>
       <c r="R37" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="S37" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="T37" t="s">
         <v>56</v>
@@ -8422,19 +8483,19 @@
         <v>56</v>
       </c>
       <c r="AD37" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AE37" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AF37" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG37" t="s">
         <v>56</v>
       </c>
       <c r="AH37" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="AI37" t="s">
         <v>56</v>
@@ -8449,19 +8510,19 @@
         <v>56</v>
       </c>
       <c r="AM37" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="AN37" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="AO37" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AP37" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AQ37" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AR37" t="s">
         <v>56</v>
@@ -8502,19 +8563,19 @@
         <v>123</v>
       </c>
       <c r="C38" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D38" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E38" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F38">
         <v>1863</v>
       </c>
       <c r="G38" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="H38" t="s">
         <v>59</v>
@@ -8547,10 +8608,10 @@
         <v>56</v>
       </c>
       <c r="R38" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="S38" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="T38" t="s">
         <v>56</v>
@@ -8583,7 +8644,7 @@
         <v>56</v>
       </c>
       <c r="AD38" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="AE38" t="s">
         <v>56</v>
@@ -8595,7 +8656,7 @@
         <v>56</v>
       </c>
       <c r="AH38" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AI38" t="s">
         <v>56</v>
@@ -8610,19 +8671,19 @@
         <v>56</v>
       </c>
       <c r="AM38" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AN38" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AO38" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AP38" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="AQ38" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="AR38" t="s">
         <v>56</v>
@@ -8681,7 +8742,7 @@
         <v>59</v>
       </c>
       <c r="I39">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="J39" t="s">
         <v>56</v>
@@ -8765,7 +8826,7 @@
         <v>56</v>
       </c>
       <c r="AK39" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AL39" t="s">
         <v>56</v>
@@ -8824,19 +8885,19 @@
         <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D40" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E40" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F40">
         <v>1936</v>
       </c>
       <c r="G40" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H40" t="s">
         <v>59</v>
@@ -8869,10 +8930,10 @@
         <v>56</v>
       </c>
       <c r="R40" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="S40" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="T40" t="s">
         <v>56</v>
@@ -8905,19 +8966,19 @@
         <v>56</v>
       </c>
       <c r="AD40" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AE40" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF40" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG40" t="s">
         <v>56</v>
       </c>
       <c r="AH40" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AI40" t="s">
         <v>56</v>
@@ -8929,19 +8990,19 @@
         <v>56</v>
       </c>
       <c r="AL40" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AM40" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN40" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AO40" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AP40" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AQ40" t="s">
         <v>56</v>
@@ -8982,13 +9043,13 @@
         <v>195</v>
       </c>
       <c r="B41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D41" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E41" t="s">
         <v>174</v>
@@ -8997,7 +9058,7 @@
         <v>1930</v>
       </c>
       <c r="G41" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H41" t="s">
         <v>59</v>
@@ -9030,10 +9091,10 @@
         <v>56</v>
       </c>
       <c r="R41" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="S41" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="T41" t="s">
         <v>56</v>
@@ -9066,7 +9127,7 @@
         <v>56</v>
       </c>
       <c r="AD41" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AE41" t="s">
         <v>56</v>
@@ -9078,7 +9139,7 @@
         <v>56</v>
       </c>
       <c r="AH41" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AI41" t="s">
         <v>56</v>
@@ -9093,13 +9154,13 @@
         <v>56</v>
       </c>
       <c r="AM41" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN41" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AO41" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AP41" t="s">
         <v>56</v>
@@ -9149,22 +9210,22 @@
         <v>89</v>
       </c>
       <c r="D42" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E42" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F42">
         <v>1955</v>
       </c>
       <c r="G42" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H42" t="s">
         <v>59</v>
       </c>
       <c r="I42">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J42" t="s">
         <v>56</v>
@@ -9191,10 +9252,10 @@
         <v>56</v>
       </c>
       <c r="R42" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="S42" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="T42" t="s">
         <v>56</v>
@@ -9227,19 +9288,19 @@
         <v>56</v>
       </c>
       <c r="AD42" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AE42" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF42" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG42" t="s">
         <v>56</v>
       </c>
       <c r="AH42" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AI42" t="s">
         <v>56</v>
@@ -9254,19 +9315,19 @@
         <v>56</v>
       </c>
       <c r="AM42" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN42" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AO42" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AP42" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AQ42" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AR42" t="s">
         <v>56</v>
@@ -9310,22 +9371,22 @@
         <v>89</v>
       </c>
       <c r="D43" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E43" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F43">
         <v>1955</v>
       </c>
       <c r="G43" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H43" t="s">
         <v>59</v>
       </c>
       <c r="I43">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J43" t="s">
         <v>56</v>
@@ -9352,10 +9413,10 @@
         <v>56</v>
       </c>
       <c r="R43" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="S43" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="T43" t="s">
         <v>56</v>
@@ -9388,19 +9449,19 @@
         <v>56</v>
       </c>
       <c r="AD43" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AE43" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF43" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG43" t="s">
         <v>56</v>
       </c>
       <c r="AH43" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AI43" t="s">
         <v>56</v>
@@ -9415,19 +9476,19 @@
         <v>56</v>
       </c>
       <c r="AM43" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN43" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AO43" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AP43" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AQ43" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AR43" t="s">
         <v>56</v>
@@ -9471,22 +9532,22 @@
         <v>89</v>
       </c>
       <c r="D44" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E44" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="F44">
         <v>1896</v>
       </c>
       <c r="G44" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="H44" t="s">
         <v>59</v>
       </c>
       <c r="I44">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="J44" t="s">
         <v>56</v>
@@ -9513,10 +9574,10 @@
         <v>56</v>
       </c>
       <c r="R44" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="S44" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="T44" t="s">
         <v>56</v>
@@ -9549,19 +9610,19 @@
         <v>56</v>
       </c>
       <c r="AD44" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AE44" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF44" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG44" t="s">
         <v>56</v>
       </c>
       <c r="AH44" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AI44" t="s">
         <v>56</v>
@@ -9576,22 +9637,22 @@
         <v>56</v>
       </c>
       <c r="AM44" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN44" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="AO44" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AP44" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="AQ44" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AR44" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AS44" t="s">
         <v>56</v>
@@ -9632,22 +9693,22 @@
         <v>89</v>
       </c>
       <c r="D45" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E45" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="F45">
         <v>1896</v>
       </c>
       <c r="G45" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="H45" t="s">
         <v>59</v>
       </c>
       <c r="I45">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="J45" t="s">
         <v>56</v>
@@ -9674,10 +9735,10 @@
         <v>56</v>
       </c>
       <c r="R45" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="S45" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="T45" t="s">
         <v>56</v>
@@ -9710,19 +9771,19 @@
         <v>56</v>
       </c>
       <c r="AD45" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AE45" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF45" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG45" t="s">
         <v>56</v>
       </c>
       <c r="AH45" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AI45" t="s">
         <v>56</v>
@@ -9737,22 +9798,22 @@
         <v>56</v>
       </c>
       <c r="AM45" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN45" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="AO45" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AP45" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="AQ45" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AR45" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AS45" t="s">
         <v>56</v>
@@ -9808,7 +9869,7 @@
         <v>59</v>
       </c>
       <c r="I46">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="J46" t="s">
         <v>56</v>
@@ -9969,7 +10030,7 @@
         <v>59</v>
       </c>
       <c r="I47">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="J47" t="s">
         <v>56</v>
@@ -10109,22 +10170,22 @@
         <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C48" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D48" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E48" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F48">
         <v>1902</v>
       </c>
       <c r="G48" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H48" t="s">
         <v>59</v>
@@ -10157,10 +10218,10 @@
         <v>56</v>
       </c>
       <c r="R48" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="S48" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="T48" t="s">
         <v>56</v>
@@ -10193,7 +10254,7 @@
         <v>56</v>
       </c>
       <c r="AD48" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AE48" t="s">
         <v>56</v>
@@ -10205,7 +10266,7 @@
         <v>56</v>
       </c>
       <c r="AH48" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AI48" t="s">
         <v>56</v>
@@ -10220,13 +10281,13 @@
         <v>56</v>
       </c>
       <c r="AM48" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO48" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AP48" t="s">
         <v>56</v>
@@ -10291,7 +10352,7 @@
         <v>59</v>
       </c>
       <c r="I49">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="J49" t="s">
         <v>56</v>
@@ -10318,10 +10379,10 @@
         <v>56</v>
       </c>
       <c r="R49" t="s">
-        <v>573</v>
+        <v>276</v>
       </c>
       <c r="S49" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="T49" t="s">
         <v>56</v>
@@ -10366,7 +10427,7 @@
         <v>56</v>
       </c>
       <c r="AH49" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AI49" t="s">
         <v>56</v>
@@ -10375,22 +10436,22 @@
         <v>56</v>
       </c>
       <c r="AK49" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="AL49" t="s">
         <v>56</v>
       </c>
       <c r="AM49" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN49" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AO49" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AP49" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AQ49" t="s">
         <v>56</v>
@@ -10434,19 +10495,19 @@
         <v>103</v>
       </c>
       <c r="C50" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D50" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E50" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F50">
         <v>1909</v>
       </c>
       <c r="G50" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H50" t="s">
         <v>59</v>
@@ -10479,10 +10540,10 @@
         <v>56</v>
       </c>
       <c r="R50" t="s">
-        <v>572</v>
+        <v>497</v>
       </c>
       <c r="S50" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="T50" t="s">
         <v>56</v>
@@ -10515,19 +10576,19 @@
         <v>56</v>
       </c>
       <c r="AD50" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AE50" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AF50" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG50" t="s">
         <v>56</v>
       </c>
       <c r="AH50" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AI50" t="s">
         <v>56</v>
@@ -10536,22 +10597,22 @@
         <v>56</v>
       </c>
       <c r="AK50" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="AL50" t="s">
         <v>56</v>
       </c>
       <c r="AM50" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN50" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AO50" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="AP50" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AQ50" t="s">
         <v>56</v>
@@ -10613,7 +10674,7 @@
         <v>59</v>
       </c>
       <c r="I51">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="J51" t="s">
         <v>56</v>
@@ -10673,7 +10734,7 @@
         <v>65</v>
       </c>
       <c r="AC51" t="s">
-        <v>562</v>
+        <v>56</v>
       </c>
       <c r="AD51" t="s">
         <v>56</v>
@@ -10771,7 +10832,7 @@
         <v>59</v>
       </c>
       <c r="I52">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="J52" t="s">
         <v>56</v>
@@ -10831,7 +10892,7 @@
         <v>65</v>
       </c>
       <c r="AC52" t="s">
-        <v>563</v>
+        <v>56</v>
       </c>
       <c r="AD52" t="s">
         <v>56</v>
@@ -10929,7 +10990,7 @@
         <v>59</v>
       </c>
       <c r="I53">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="J53" t="s">
         <v>56</v>
@@ -10956,7 +11017,7 @@
         <v>56</v>
       </c>
       <c r="R53" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="S53" t="s">
         <v>127</v>
@@ -10989,7 +11050,7 @@
         <v>65</v>
       </c>
       <c r="AC53" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="AD53" t="s">
         <v>56</v>
@@ -11087,7 +11148,7 @@
         <v>59</v>
       </c>
       <c r="I54">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="J54" t="s">
         <v>56</v>
@@ -11147,7 +11208,7 @@
         <v>65</v>
       </c>
       <c r="AC54" t="s">
-        <v>564</v>
+        <v>56</v>
       </c>
       <c r="AD54" t="s">
         <v>56</v>
@@ -11308,7 +11369,7 @@
         <v>65</v>
       </c>
       <c r="AC55" t="s">
-        <v>565</v>
+        <v>56</v>
       </c>
       <c r="AD55" t="s">
         <v>56</v>
@@ -11394,16 +11455,16 @@
         <v>144</v>
       </c>
       <c r="D56" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E56" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F56">
         <v>1947</v>
       </c>
       <c r="G56" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H56" t="s">
         <v>59</v>
@@ -11436,10 +11497,10 @@
         <v>56</v>
       </c>
       <c r="R56" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="S56" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="T56" t="s">
         <v>56</v>
@@ -11472,19 +11533,19 @@
         <v>56</v>
       </c>
       <c r="AD56" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AE56" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF56" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG56" t="s">
         <v>56</v>
       </c>
       <c r="AH56" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AI56" t="s">
         <v>56</v>
@@ -11499,13 +11560,13 @@
         <v>56</v>
       </c>
       <c r="AM56" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN56" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AO56" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AP56" t="s">
         <v>56</v>
@@ -11758,7 +11819,7 @@
         <v>56</v>
       </c>
       <c r="R58" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="S58" t="s">
         <v>147</v>
@@ -11892,7 +11953,7 @@
         <v>59</v>
       </c>
       <c r="I59">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="J59" t="s">
         <v>56</v>
@@ -11952,7 +12013,7 @@
         <v>65</v>
       </c>
       <c r="AC59" t="s">
-        <v>566</v>
+        <v>56</v>
       </c>
       <c r="AD59" t="s">
         <v>56</v>
@@ -12035,25 +12096,25 @@
         <v>112</v>
       </c>
       <c r="C60" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D60" t="s">
         <v>56</v>
       </c>
       <c r="E60" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F60">
         <v>1906</v>
       </c>
       <c r="G60" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H60" t="s">
         <v>59</v>
       </c>
       <c r="I60">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="J60" t="s">
         <v>56</v>
@@ -12080,10 +12141,10 @@
         <v>56</v>
       </c>
       <c r="R60" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S60" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="T60" t="s">
         <v>56</v>
@@ -12113,7 +12174,7 @@
         <v>65</v>
       </c>
       <c r="AC60" t="s">
-        <v>567</v>
+        <v>56</v>
       </c>
       <c r="AD60" t="s">
         <v>56</v>
@@ -12128,7 +12189,7 @@
         <v>56</v>
       </c>
       <c r="AH60" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AI60" t="s">
         <v>56</v>
@@ -12146,19 +12207,19 @@
         <v>110</v>
       </c>
       <c r="AN60" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AO60" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AP60" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AQ60" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AR60" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AS60" t="s">
         <v>56</v>
@@ -12214,7 +12275,7 @@
         <v>59</v>
       </c>
       <c r="I61">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="J61" t="s">
         <v>56</v>
@@ -12241,7 +12302,7 @@
         <v>56</v>
       </c>
       <c r="R61" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="S61" t="s">
         <v>117</v>
@@ -12274,7 +12335,7 @@
         <v>65</v>
       </c>
       <c r="AC61" t="s">
-        <v>568</v>
+        <v>56</v>
       </c>
       <c r="AD61" t="s">
         <v>56</v>
@@ -12357,25 +12418,25 @@
         <v>112</v>
       </c>
       <c r="C62" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D62" t="s">
         <v>56</v>
       </c>
       <c r="E62" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F62">
         <v>1906</v>
       </c>
       <c r="G62" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H62" t="s">
         <v>59</v>
       </c>
       <c r="I62">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="J62" t="s">
         <v>56</v>
@@ -12402,10 +12463,10 @@
         <v>56</v>
       </c>
       <c r="R62" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="S62" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="T62" t="s">
         <v>56</v>
@@ -12435,7 +12496,7 @@
         <v>65</v>
       </c>
       <c r="AC62" t="s">
-        <v>569</v>
+        <v>56</v>
       </c>
       <c r="AD62" t="s">
         <v>56</v>
@@ -12450,7 +12511,7 @@
         <v>56</v>
       </c>
       <c r="AH62" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AI62" t="s">
         <v>56</v>
@@ -12468,19 +12529,19 @@
         <v>110</v>
       </c>
       <c r="AN62" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AO62" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AP62" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AQ62" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AR62" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AS62" t="s">
         <v>56</v>
@@ -12518,25 +12579,25 @@
         <v>112</v>
       </c>
       <c r="C63" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D63" t="s">
         <v>56</v>
       </c>
       <c r="E63" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F63">
         <v>1906</v>
       </c>
       <c r="G63" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H63" t="s">
         <v>59</v>
       </c>
       <c r="I63">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="J63" t="s">
         <v>56</v>
@@ -12563,10 +12624,10 @@
         <v>56</v>
       </c>
       <c r="R63" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="S63" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="T63" t="s">
         <v>56</v>
@@ -12596,7 +12657,7 @@
         <v>65</v>
       </c>
       <c r="AC63" t="s">
-        <v>570</v>
+        <v>56</v>
       </c>
       <c r="AD63" t="s">
         <v>56</v>
@@ -12611,7 +12672,7 @@
         <v>56</v>
       </c>
       <c r="AH63" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AI63" t="s">
         <v>56</v>
@@ -12629,19 +12690,19 @@
         <v>110</v>
       </c>
       <c r="AN63" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AO63" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AP63" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AQ63" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AR63" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AS63" t="s">
         <v>56</v>
@@ -12682,16 +12743,16 @@
         <v>144</v>
       </c>
       <c r="D64" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E64" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F64">
         <v>1907</v>
       </c>
       <c r="G64" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H64" t="s">
         <v>59</v>
@@ -12724,10 +12785,10 @@
         <v>56</v>
       </c>
       <c r="R64" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="S64" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="T64" t="s">
         <v>56</v>
@@ -12760,7 +12821,7 @@
         <v>56</v>
       </c>
       <c r="AD64" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AE64" t="s">
         <v>56</v>
@@ -12772,7 +12833,7 @@
         <v>56</v>
       </c>
       <c r="AH64" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AI64" t="s">
         <v>56</v>
@@ -12787,13 +12848,13 @@
         <v>56</v>
       </c>
       <c r="AN64" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AO64" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AP64" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AQ64" t="s">
         <v>56</v>

--- a/input/reviewed_synonyms.xlsx
+++ b/input/reviewed_synonyms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18c1f91d246f9ff5/Documents/GitHub/tpt-siphonaptera/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ABBFA98-13E5-4B4A-AFA2-93E6BC2F5E6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23E2AFE8-0F49-40DB-99C5-821551C06AC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3258" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="550">
   <si>
     <t>family</t>
   </si>
@@ -202,7 +202,7 @@
     <t>Lewis</t>
   </si>
   <si>
-    <t xml:space="preserve">Spalacopsylla Pinto, 1930 </t>
+    <t>Spalacopsylla Pinto, 1930</t>
   </si>
   <si>
     <t>Adoratopsylla Ewing, 1925</t>
@@ -238,7 +238,7 @@
     <t>Oncopsylla Wahlgren, 1903 (junior synonym); Achaetopsylla Argyropulo, 1948</t>
   </si>
   <si>
-    <t xml:space="preserve">Oncopsylla Wahlgren, 1903 </t>
+    <t>Oncopsylla Wahlgren, 1903</t>
   </si>
   <si>
     <t>Chaetopsylla Kohaut, 1903</t>
@@ -265,7 +265,7 @@
     <t>Paracoptopsylla Argyropulo, 1938 (subgenus of Coptopsylla); Macocoptopsylla Ioff, 1953; Neocoptopsylla Wagner, 1932</t>
   </si>
   <si>
-    <t xml:space="preserve">Paracoptopsylla Argyropulo, 1938 </t>
+    <t>Paracoptopsylla Argyropulo, 1938</t>
   </si>
   <si>
     <t>Coptopsylla Jordan &amp; Rothschild, 1908</t>
@@ -298,7 +298,7 @@
     <t>Spalacopsylla Kolenati, 1856 (junior synonym)</t>
   </si>
   <si>
-    <t xml:space="preserve">Spalacopsylla Kolenati, 1856 </t>
+    <t>Spalacopsylla Kolenati, 1856</t>
   </si>
   <si>
     <t>Ctenophthalmus Kolenati, 1856</t>
@@ -319,7 +319,7 @@
     <t>Migrastivalius Traub, 1980 (subgenus)</t>
   </si>
   <si>
-    <t xml:space="preserve">Migrastivalius Traub, 1980 </t>
+    <t>Migrastivalius Traub, 1980</t>
   </si>
   <si>
     <t>Gryphopsylla Traub, 1957</t>
@@ -343,7 +343,7 @@
     <t>Hystroceras Ioff &amp; Scalon, 1950 (unrecognized subgenus)</t>
   </si>
   <si>
-    <t xml:space="preserve">Hystroceras Ioff &amp; Scalon, 1950 </t>
+    <t>Hystroceras Ioff &amp; Scalon, 1950</t>
   </si>
   <si>
     <t>Hystrichopsylla Taschenberg, 1880</t>
@@ -355,22 +355,835 @@
     <t>unrecognized subgenus</t>
   </si>
   <si>
+    <t>Ceratophyllidae</t>
+  </si>
+  <si>
+    <t>Ceratophyllinae</t>
+  </si>
+  <si>
+    <t>Jellisonia</t>
+  </si>
+  <si>
+    <t>Pleochaetoides Augustson, 1944 (subgenus); Jellisonia Traub, 1944 (subgenus)</t>
+  </si>
+  <si>
+    <t>Pleochaetoides Augustson, 1944</t>
+  </si>
+  <si>
+    <t>Jellisonia Traub, 1944</t>
+  </si>
+  <si>
+    <t>Traub, 1944</t>
+  </si>
+  <si>
+    <t>Pleochaetoides Augustson, 1944 (subgenus)</t>
+  </si>
+  <si>
+    <t>Jellisonia Traub, 1944 (subgenus)</t>
+  </si>
+  <si>
     <t>Ischnopsyllidae</t>
   </si>
   <si>
     <t>Ischnopsyllinae</t>
   </si>
   <si>
+    <t>Myodopsylla</t>
+  </si>
+  <si>
+    <t>Myodopsylloides Augustson, 1941 (junior synonym)</t>
+  </si>
+  <si>
+    <t>Myodopsylloides Augustson, 1941</t>
+  </si>
+  <si>
+    <t>Myodopsylla Jordan &amp; Rothschild, 1911</t>
+  </si>
+  <si>
+    <t>Jordan &amp; Rothschild, 1911</t>
+  </si>
+  <si>
+    <t>Pygiopsyllidae</t>
+  </si>
+  <si>
+    <t>Notiopsylla</t>
+  </si>
+  <si>
+    <t>Goniopsyllus Baker, 1906 (preoccupied as genus of Crestacea, Jordan &amp; Rothschild, 1914 proposed Notiopsylla as nomen novum for Goniopsyllus)</t>
+  </si>
+  <si>
+    <t>Goniopsyllus Baker, 1906</t>
+  </si>
+  <si>
+    <t>Notiopsylla Jordan &amp; Rothschild, 1914</t>
+  </si>
+  <si>
+    <t>Jordan &amp; Rothschild, 1914</t>
+  </si>
+  <si>
+    <t>preoccupied as genus of Crestacea, Jordan &amp; Rothschild, 1914 proposed Notiopsylla as nomen novum for Goniopsyllus</t>
+  </si>
+  <si>
+    <t>Rhadinopsyllinae</t>
+  </si>
+  <si>
+    <t>Rhadinopsylla</t>
+  </si>
+  <si>
+    <t>Rectofrontia Wagner, 1930 (synonym of subgenus Actenophthalmus); Rangulpsylla Darskaya, 1949 (synonym of subgenus Actenophthalmus)</t>
+  </si>
+  <si>
+    <t>Rectofrontia Wagner, 1930</t>
+  </si>
+  <si>
+    <t>Rhadinopsylla Jordan &amp; Rothschild, 1912</t>
+  </si>
+  <si>
+    <t>Jordan &amp; Rothschild, 1912</t>
+  </si>
+  <si>
+    <t>synonym of subgenus Actenophthalmus</t>
+  </si>
+  <si>
+    <t>Rectofrontia Wagner, 1930 (synonym of subgenus Actenophthalmus)</t>
+  </si>
+  <si>
+    <t>Rangulpsylla Darskaya, 1949 (synonym of subgenus Actenophthalmus)</t>
+  </si>
+  <si>
+    <t>Anomiopsyllinae</t>
+  </si>
+  <si>
+    <t>Stenistomera</t>
+  </si>
+  <si>
+    <t>Rothschild</t>
+  </si>
+  <si>
+    <t>Miochaeta Good, 1942 (sunken subgenus)</t>
+  </si>
+  <si>
+    <t>Miochaeta Good, 1942</t>
+  </si>
+  <si>
+    <t>Stenistomera Rothschild, 1915</t>
+  </si>
+  <si>
+    <t>Rothschild, 1915</t>
+  </si>
+  <si>
+    <t>sunken subgenus</t>
+  </si>
+  <si>
+    <t>Thrassis</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Nomadopsylla Stark, 1970 (junior synonym of Thrassis); Pandoropsylla Stark, 1970 (junior synonym of Thrassis); Thrassoides Stark, 1970 (junior synonym of Thrassis)</t>
+  </si>
+  <si>
+    <t>Nomadopsylla Stark, 1970</t>
+  </si>
+  <si>
+    <t>Thrassis Jordan, 1933</t>
+  </si>
+  <si>
+    <t>Jordan, 1933</t>
+  </si>
+  <si>
+    <t>junior synonym of Thrassis</t>
+  </si>
+  <si>
+    <t>Nomadopsylla Stark, 1970 (junior synonym of Thrassis)</t>
+  </si>
+  <si>
+    <t>Pandoropsylla Stark, 1970 (junior synonym of Thrassis)</t>
+  </si>
+  <si>
+    <t>Thrassoides Stark, 1970 (junior synonym of Thrassis)</t>
+  </si>
+  <si>
+    <t>Leptopsyllidae</t>
+  </si>
+  <si>
+    <t>Amphipsyllinae</t>
+  </si>
+  <si>
+    <t>Amphipsylla</t>
+  </si>
+  <si>
+    <t>transcaucasica</t>
+  </si>
+  <si>
+    <t>Ioff</t>
+  </si>
+  <si>
+    <t>Amphipsylla kuznetzovi transcaucasica Goncharov, 1973 (junior homonym)</t>
+  </si>
+  <si>
+    <t>Amphipsylla kuznetzovi transcaucasica Goncharov, 1973</t>
+  </si>
+  <si>
+    <t>Amphipsylla transcaucasica Ioff, 1953</t>
+  </si>
+  <si>
+    <t>Ioff, 1953</t>
+  </si>
+  <si>
+    <t>junior homonym</t>
+  </si>
+  <si>
+    <t>Amphipsylla transcaucasica</t>
+  </si>
+  <si>
+    <t>Ceratophyllus</t>
+  </si>
+  <si>
+    <t>hirundinis</t>
+  </si>
+  <si>
+    <t>(Curtis)</t>
+  </si>
+  <si>
+    <t>Pulex hirundinis Köhler, 1832 (junior homonym); Ceratophyllus hirundinis Chao, 1947 (junior homonym); Ceratophyllus hirundinis oiticus Peus, 1954; Ceratophyllus phaulius Rothschild, 1909; Ceratophyllus pinnatus Wagner, 1898; Ceratophyllus troglodytes Dampf, 1908</t>
+  </si>
+  <si>
+    <t>Pulex hirundinis Köhler, 1832</t>
+  </si>
+  <si>
+    <t>Ceratophyllus hirundinis (Curtis, 1826)</t>
+  </si>
+  <si>
+    <t>(Curtis, 1826)</t>
+  </si>
+  <si>
+    <t>Ceratophyllus hirundinis</t>
+  </si>
+  <si>
+    <t>Pulex hirundinis Köhler, 1832 (junior homonym)</t>
+  </si>
+  <si>
+    <t>Ceratophyllus hirundinis Chao, 1947 (junior homonym)</t>
+  </si>
+  <si>
+    <t>Ceratophyllus hirundinis oiticus Peus, 1954</t>
+  </si>
+  <si>
+    <t>Ceratophyllus phaulius Rothschild, 1909</t>
+  </si>
+  <si>
+    <t>Ceratophyllus pinnatus Wagner, 1898</t>
+  </si>
+  <si>
+    <t>Ceratophyllus troglodytes Dampf, 1908</t>
+  </si>
+  <si>
+    <t>Pulicidae</t>
+  </si>
+  <si>
+    <t>Archaeopsyllinae</t>
+  </si>
+  <si>
+    <t>Ctenocephalides</t>
+  </si>
+  <si>
+    <t>canis</t>
+  </si>
+  <si>
+    <t>Pulex canis Curtis, 1826 (junior homonym); Pulex canis Dugès, 1832 (junior homonym); Ctenocephalus novemdentatus Kolenati, 1859</t>
+  </si>
+  <si>
+    <t>Pulex canis Curtis, 1826</t>
+  </si>
+  <si>
+    <t>Ctenocephalides canis (Curtis, 1926)</t>
+  </si>
+  <si>
+    <t>(Curtis, 1926)</t>
+  </si>
+  <si>
+    <t>Ctenocephalides canis</t>
+  </si>
+  <si>
+    <t>Pulex canis Curtis, 1826 (junior homonym)</t>
+  </si>
+  <si>
+    <t>Pulex canis Dugès, 1832 (junior homonym)</t>
+  </si>
+  <si>
+    <t>Ctenocephalus novemdentatus Kolenati, 1859</t>
+  </si>
+  <si>
+    <t>Rhopalopsyllidae</t>
+  </si>
+  <si>
+    <t>Parapsyllinae</t>
+  </si>
+  <si>
+    <t>Ectinorus</t>
+  </si>
+  <si>
+    <t>angularis</t>
+  </si>
+  <si>
+    <t>Smit &amp; Rosicky</t>
+  </si>
+  <si>
+    <t>Ectinorus onychius angularis Smit &amp; Rosicky, 1987 (elevated to specific status by Hastriter &amp; Sage 2011)</t>
+  </si>
+  <si>
+    <t>Ectinorus onychius angularis Smit &amp; Rosicky, 1987</t>
+  </si>
+  <si>
+    <t>Ectinorus angularis Smit &amp; Rosicky, 1972</t>
+  </si>
+  <si>
+    <t>Smit &amp; Rosicky, 1972</t>
+  </si>
+  <si>
+    <t>elevated to specific status by Hastriter &amp; Sage 2011</t>
+  </si>
+  <si>
+    <t>Ectinorus angularis</t>
+  </si>
+  <si>
+    <t>deplexus</t>
+  </si>
+  <si>
+    <t>Smit</t>
+  </si>
+  <si>
+    <t>Ectinorus onychius deplexus Smit, 1987 (elevated to specific status by Hastriter &amp; Sage 2011)</t>
+  </si>
+  <si>
+    <t>Ectinorus onychius deplexus Smit, 1987</t>
+  </si>
+  <si>
+    <t>Ectinorus deplexus Smit, 1987</t>
+  </si>
+  <si>
+    <t>Smit, 1987</t>
+  </si>
+  <si>
+    <t>Ectinorus deplexus</t>
+  </si>
+  <si>
+    <t>onychius</t>
+  </si>
+  <si>
+    <t>(Jordan &amp; Rothschild)</t>
+  </si>
+  <si>
+    <t>Ectinorus onychius fueginus Jordan, 1942 (placed as synonyn by Hastriter and Sage 2011)</t>
+  </si>
+  <si>
+    <t>Ectinorus onychius fueginus Jordan, 1942</t>
+  </si>
+  <si>
+    <t>Ectinorus onychius (Jordan &amp; Rothschild, 1923)</t>
+  </si>
+  <si>
+    <t>(Jordan &amp; Rothschild, 1923)</t>
+  </si>
+  <si>
+    <t>placed as synonyn by Hastriter and Sage 2011</t>
+  </si>
+  <si>
+    <t>Ectinorus onychius</t>
+  </si>
+  <si>
+    <t>Frontopsylla</t>
+  </si>
+  <si>
+    <t>tuoliensis</t>
+  </si>
+  <si>
+    <t>Yu &amp; Zhang</t>
+  </si>
+  <si>
+    <t>Frontopsylla tuoli Yu &amp; Zhang, 1981 (misapplication of F. tuoliensis)</t>
+  </si>
+  <si>
+    <t>Frontopsylla tuoli Yu &amp; Zhang, 1981</t>
+  </si>
+  <si>
+    <t>Frontopsylla tuoliensis Yu &amp; Zhang, 1981</t>
+  </si>
+  <si>
+    <t>Yu &amp; Zhang, 1981</t>
+  </si>
+  <si>
+    <t>misapplication of F. tuoliensis</t>
+  </si>
+  <si>
+    <t>Frontopsylla tuoliensis</t>
+  </si>
+  <si>
+    <t>Nosopsyllus</t>
+  </si>
+  <si>
+    <t>fasciatus</t>
+  </si>
+  <si>
+    <t>(Bosc)</t>
+  </si>
+  <si>
+    <t>Pulex talpae Bouche, 1835 (junior homonym of Pulex fasciatus Bosc, 1800); Pulex furoris Dale, 1878; Ceratophyllus canadensis Baker, 1904; Ceratophyllus californicus Baker, 1904; Ceratophyllus endymionis Rothschild, 1904; Ceratophyllus oculatus Baker, 1904; Nosopsyllus paganus Peus, 1949</t>
+  </si>
+  <si>
+    <t>Pulex talpae Bouche, 1835</t>
+  </si>
+  <si>
+    <t>Nosopsyllus fasciatus (Bosc, 1800)</t>
+  </si>
+  <si>
+    <t>(Bosc, 1800)</t>
+  </si>
+  <si>
+    <t>junior homonym of Pulex fasciatus Bosc, 1800</t>
+  </si>
+  <si>
+    <t>Nosopsyllus fasciatus</t>
+  </si>
+  <si>
+    <t>Pulex talpae Bouche, 1835 (junior homonym of Pulex fasciatus Bosc, 1800)</t>
+  </si>
+  <si>
+    <t>Pulex furoris Dale, 1878</t>
+  </si>
+  <si>
+    <t>Ceratophyllus canadensis Baker, 1904</t>
+  </si>
+  <si>
+    <t>Ceratophyllus californicus Baker, 1904</t>
+  </si>
+  <si>
+    <t>Ceratophyllus endymionis Rothschild, 1904</t>
+  </si>
+  <si>
+    <t>Ceratophyllus oculatus Baker, 1904</t>
+  </si>
+  <si>
+    <t>Nosopsyllus paganus Peus, 1949</t>
+  </si>
+  <si>
+    <t>Opisodasys</t>
+  </si>
+  <si>
+    <t>vesperalis</t>
+  </si>
+  <si>
+    <t>(Jordan)</t>
+  </si>
+  <si>
+    <t>Opisodasys jellisoni I. Fox, 1941 [female Opisodasys vesperalis (Jordan, 1929)]</t>
+  </si>
+  <si>
+    <t>Opisodasys vesperalis (Jordan, 1929)</t>
+  </si>
+  <si>
+    <t>(Jordan, 1929)</t>
+  </si>
+  <si>
+    <t>Opisodasys vesperalis</t>
+  </si>
+  <si>
+    <t>Palaeopsylla</t>
+  </si>
+  <si>
+    <t>aporema</t>
+  </si>
+  <si>
+    <t>Palaeopsylla makaluensis Brelih, 1975 (Female)</t>
+  </si>
+  <si>
+    <t>Palaeopsylla makaluensis Brelih, 1975</t>
+  </si>
+  <si>
+    <t>Palaeopsylla aporema Smit &amp; Rosicky, 1976</t>
+  </si>
+  <si>
+    <t>Smit &amp; Rosicky, 1976</t>
+  </si>
+  <si>
+    <t>Palaeopsylla aporema</t>
+  </si>
+  <si>
+    <t>Paradoxopsyllus</t>
+  </si>
+  <si>
+    <t>curvispinus</t>
+  </si>
+  <si>
+    <t>Miyajima &amp; Koidzumi</t>
+  </si>
+  <si>
+    <t>Paradoxopsyllus cruvispinus (sic) Miyajima &amp; Koidzumi, 1909; Ceratophyllus subcaecatus Rothschild, 1912</t>
+  </si>
+  <si>
+    <t>Paradoxopsyllus cruvispinus  Miyajima &amp; Koidzumi, 1909</t>
+  </si>
+  <si>
+    <t>Paradoxopsyllus curvispinus Miyajima &amp; Koidzumi, 1909</t>
+  </si>
+  <si>
+    <t>Miyajima &amp; Koidzumi, 1909</t>
+  </si>
+  <si>
+    <t>sic</t>
+  </si>
+  <si>
+    <t>Paradoxopsyllus curvispinus</t>
+  </si>
+  <si>
+    <t>Paradoxopsyllus cruvispinus (sic) Miyajima &amp; Koidzumi, 1909</t>
+  </si>
+  <si>
+    <t>Ceratophyllus subcaecatus Rothschild, 1912</t>
+  </si>
+  <si>
+    <t>Rhopalopsyllinae</t>
+  </si>
+  <si>
+    <t>Polygenis</t>
+  </si>
+  <si>
+    <t>platensis</t>
+  </si>
+  <si>
+    <t>Polygenis platensis cisandinus (Jordan, 1939)</t>
+  </si>
+  <si>
+    <t>Polygenis platensis (Jordan &amp; Rothschild, 1908)</t>
+  </si>
+  <si>
+    <t>(Jordan &amp; Rothschild, 1908)</t>
+  </si>
+  <si>
+    <t>Polygenis platensis</t>
+  </si>
+  <si>
+    <t>Pygiopsylla</t>
+  </si>
+  <si>
+    <t>hoplia</t>
+  </si>
+  <si>
+    <t>Pygiopsylla congrua Jordan &amp; Rothschild, 1922 (female); Pygiopsylla spinata Holland, 1969</t>
+  </si>
+  <si>
+    <t>Pygiopsylla congrua Jordan &amp; Rothschild, 1922</t>
+  </si>
+  <si>
+    <t>Pygiopsylla hoplia Jordan &amp; Rothschild, 1922</t>
+  </si>
+  <si>
+    <t>Jordan &amp; Rothschild, 1922</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Pygiopsylla hoplia</t>
+  </si>
+  <si>
+    <t>Pygiopsylla congrua Jordan &amp; Rothschild, 1922 (female)</t>
+  </si>
+  <si>
+    <t>Pygiopsylla spinata Holland, 1969</t>
+  </si>
+  <si>
+    <t>zethi</t>
+  </si>
+  <si>
+    <t>(Rothschild)</t>
+  </si>
+  <si>
+    <t>Pygiopsylla congrua Jordan &amp; Rothschild, 1922 (male)</t>
+  </si>
+  <si>
+    <t>Pygiopsylla zethi (Rothschild, 1904)</t>
+  </si>
+  <si>
+    <t>(Rothschild, 1904)</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>Pygiopsylla zethi</t>
+  </si>
+  <si>
+    <t>Stenoponiinae</t>
+  </si>
+  <si>
+    <t>Stenoponia</t>
+  </si>
+  <si>
+    <t>tripectinata</t>
+  </si>
+  <si>
+    <t>(Tiraboschi)</t>
+  </si>
+  <si>
+    <t>Stenoponia tripectinata ssp. barcana, blanda, irakana, medialis, separata spinellosa Jordan, 1958 (see Beaucournu, 2013)</t>
+  </si>
+  <si>
+    <t>Stenoponia tripectinata ssp. barcana, blanda, irakana, medialis, separata spinellosa Jordan, 1958</t>
+  </si>
+  <si>
+    <t>Stenoponia tripectinata (Tiraboschi, 1902)</t>
+  </si>
+  <si>
+    <t>(Tiraboschi, 1902)</t>
+  </si>
+  <si>
+    <t>see Beaucournu, 2013</t>
+  </si>
+  <si>
+    <t>Stenoponia tripectinata</t>
+  </si>
+  <si>
+    <t>acamantis</t>
+  </si>
+  <si>
+    <t>Thrassis howelli (Jordan, 1933); Thrassis acamantis Stark, 1970; Thrassis pristinus Stark, 1957; Thrassis utahensis Wagner, 1936</t>
+  </si>
+  <si>
+    <t>Thrassis acamantis (Rothschild, 1905)</t>
+  </si>
+  <si>
+    <t>(Rothschild, 1905)</t>
+  </si>
+  <si>
+    <t>Thrassis acamantis</t>
+  </si>
+  <si>
+    <t>Thrassis howelli (Jordan, 1933)</t>
+  </si>
+  <si>
+    <t>Thrassis acamantis Stark, 1970</t>
+  </si>
+  <si>
+    <t>Thrassis pristinus Stark, 1957</t>
+  </si>
+  <si>
+    <t>Thrassis utahensis Wagner, 1936</t>
+  </si>
+  <si>
+    <t>Xenopsyllinae</t>
+  </si>
+  <si>
+    <t>Xenopsylla</t>
+  </si>
+  <si>
+    <t>skrjabini</t>
+  </si>
+  <si>
+    <t>Xenopsylla skrjabini Ioff, 1928 (only later 1930 did Ioff describe)</t>
+  </si>
+  <si>
+    <t>Xenopsylla skrjabini Ioff, 1928</t>
+  </si>
+  <si>
+    <t>Xenopsylla skrjabini Ioff, 1930</t>
+  </si>
+  <si>
+    <t>Ioff, 1930</t>
+  </si>
+  <si>
+    <t>only later 1930 did Ioff describe</t>
+  </si>
+  <si>
+    <t>Xenopsylla skrjabini</t>
+  </si>
+  <si>
+    <t>Amalaraeus</t>
+  </si>
+  <si>
+    <t>penicilliger mustelae</t>
+  </si>
+  <si>
+    <t>(Dale)</t>
+  </si>
+  <si>
+    <t>Ceratophyllus mustelae Wagner, 1898 (junior homonym)</t>
+  </si>
+  <si>
+    <t>Ceratophyllus mustelae Wagner, 1898</t>
+  </si>
+  <si>
+    <t>Amalaraeus penicilliger mustelae (Dale, 1878)</t>
+  </si>
+  <si>
+    <t>subspecies</t>
+  </si>
+  <si>
+    <t>(Dale, 1878)</t>
+  </si>
+  <si>
+    <t>Amalaraeus penicilliger mustelae</t>
+  </si>
+  <si>
+    <t>sibirica sibirica</t>
+  </si>
+  <si>
+    <t>(Wagner)</t>
+  </si>
+  <si>
+    <t>Typhlopsylla sibirica Wagner, 1901 (junior homonym); Ceratophyllus thoracicus Rothschild, 1911</t>
+  </si>
+  <si>
+    <t>Typhlopsylla sibirica Wagner, 1901</t>
+  </si>
+  <si>
+    <t>Amphipsylla sibirica sibirica (Wagner, 1898)</t>
+  </si>
+  <si>
+    <t>(Wagner, 1898)</t>
+  </si>
+  <si>
+    <t>Amphipsylla sibirica sibirica</t>
+  </si>
+  <si>
+    <t>Typhlopsylla sibirica Wagner, 1901 (junior homonym)</t>
+  </si>
+  <si>
+    <t>Ceratophyllus thoracicus Rothschild, 1911</t>
+  </si>
+  <si>
+    <t>farreni chaoi</t>
+  </si>
+  <si>
+    <t>Smit &amp; Allan</t>
+  </si>
+  <si>
+    <t>Ceratophyllus chaoi Wang, 1957 (junior homonym)</t>
+  </si>
+  <si>
+    <t>Ceratophyllus chaoi Wang, 1957</t>
+  </si>
+  <si>
+    <t>Ceratophyllus farreni chaoi Smit &amp; Allan, 1955</t>
+  </si>
+  <si>
+    <t>Smit &amp; Allan, 1955</t>
+  </si>
+  <si>
+    <t>Ceratophyllus farreni chaoi</t>
+  </si>
+  <si>
+    <t>agyrtes peusianus</t>
+  </si>
+  <si>
+    <t>Rosicky</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus agyrtes slovacicus Rosicky, 1951 (partim); Ctenophthalmus orphilus tatricus Rosicky, 1951 (partim); Ctenophthalmus agyrtes obenbergeri Rosicky, 1957</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus agyrtes slovacicus Rosicky, 1951</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus agyrtes peusianus Rosicky, 1955</t>
+  </si>
+  <si>
+    <t>Rosicky, 1955</t>
+  </si>
+  <si>
+    <t>partim</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus agyrtes peusianus</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus agyrtes slovacicus Rosicky, 1951 (partim)</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus orphilus tatricus Rosicky, 1951 (partim)</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus agyrtes obenbergeri Rosicky, 1957</t>
+  </si>
+  <si>
+    <t>tauberi makaluensis</t>
+  </si>
+  <si>
+    <t>Brelih</t>
+  </si>
+  <si>
+    <t>Palaeopsylla makaluensis Brelih, 1975 (Male)</t>
+  </si>
+  <si>
+    <t>Palaeopsylla tauberi makaluensis Brelih, 1975</t>
+  </si>
+  <si>
+    <t>Brelih, 1975</t>
+  </si>
+  <si>
+    <t>Palaeopsylla tauberi makaluensis</t>
+  </si>
+  <si>
+    <t>li transbaikalica</t>
+  </si>
+  <si>
+    <t>Ioff &amp; Tiflov</t>
+  </si>
+  <si>
+    <t>Rhadinopsylla acuminata Ioff &amp; Tiflov, 1946 (suppressed by ICZN)</t>
+  </si>
+  <si>
+    <t>Rhadinopsylla acuminata Ioff &amp; Tiflov, 1946</t>
+  </si>
+  <si>
+    <t>Rhadinopsylla li transbaikalica Ioff &amp; Tiflov, 1947</t>
+  </si>
+  <si>
+    <t>Ioff &amp; Tiflov, 1947</t>
+  </si>
+  <si>
+    <t>suppressed by ICZN</t>
+  </si>
+  <si>
+    <t>Rhadinopsylla li transbaikalica</t>
+  </si>
+  <si>
+    <t>Trichopsylla Kolenati, 1863; Trichopsylla Jordan &amp; Rothschild, 1920 (junior homonym of Trichopsylla Kolenati, 1863); Trichopsylla Ewing &amp; Fox, 1943 (junior homonym of Trichopsylla Kolenati, 1863)</t>
+  </si>
+  <si>
+    <t>Trichopsylla Jordan &amp; Rothschild, 1920</t>
+  </si>
+  <si>
+    <t>Amalaraeus Ioff, 1936</t>
+  </si>
+  <si>
+    <t>Ioff, 1936</t>
+  </si>
+  <si>
+    <t>junior homonym of Trichopsylla Kolenati, 1863</t>
+  </si>
+  <si>
+    <t>Trichopsylla Kolenati, 1863</t>
+  </si>
+  <si>
+    <t>Trichopsylla Jordan &amp; Rothschild, 1920 (junior homonym of Trichopsylla Kolenati, 1863)</t>
+  </si>
+  <si>
+    <t>Trichopsylla Ewing &amp; Fox, 1943 (junior homonym of Trichopsylla Kolenati, 1863)</t>
+  </si>
+  <si>
     <t>Ischnopsyllus</t>
   </si>
   <si>
     <t>Westwood</t>
   </si>
   <si>
-    <t>Ceratopsylla Wagner, 1988? Spalacopsylla Oudemans, 1906 (junior synonym)Nychopsyllus Eysell, 1913; Nycteridiphilis K. Dalla Torre, 1914; Hirtopsylla Argyropulo, 1948 (unrecognized subgenus)</t>
-  </si>
-  <si>
-    <t>Ceratopsylla Wagner, 1988? Spalacopsylla Oudemans, 1906 Nychopsyllus Eysell, 1913</t>
+    <t>Ceratopsylla Wagner, 1988??; Spalacopsylla Oudemans, 1906 (junior synonym)Nychopsyllus Eysell, 1913; Nycteridiphilis K. Dalla Torre, 1914; Hirtopsylla Argyropulo, 1948 (unrecognized subgenus)</t>
+  </si>
+  <si>
+    <t>Spalacopsylla Oudemans, 1906 Nychopsyllus Eysell, 1913</t>
   </si>
   <si>
     <t>Ischnopsyllus Westwood, 1833</t>
@@ -379,7 +1192,10 @@
     <t>Westwood, 1833</t>
   </si>
   <si>
-    <t>Ceratopsylla Wagner, 1988? Spalacopsylla Oudemans, 1906 (junior synonym)Nychopsyllus Eysell, 1913</t>
+    <t>Ceratopsylla Wagner, 1988??</t>
+  </si>
+  <si>
+    <t>Spalacopsylla Oudemans, 1906 (junior synonym)Nychopsyllus Eysell, 1913</t>
   </si>
   <si>
     <t>Nycteridiphilis K. Dalla Torre, 1914</t>
@@ -388,855 +1204,6 @@
     <t>Hirtopsylla Argyropulo, 1948 (unrecognized subgenus)</t>
   </si>
   <si>
-    <t>Ceratophyllidae</t>
-  </si>
-  <si>
-    <t>Ceratophyllinae</t>
-  </si>
-  <si>
-    <t>Jellisonia</t>
-  </si>
-  <si>
-    <t>Pleochaetoides Augustson, 1944 (subgenus); Jellisonia Traub, 1944 (subgenus)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pleochaetoides Augustson, 1944 </t>
-  </si>
-  <si>
-    <t>Jellisonia Traub, 1944</t>
-  </si>
-  <si>
-    <t>Traub, 1944</t>
-  </si>
-  <si>
-    <t>Pleochaetoides Augustson, 1944 (subgenus)</t>
-  </si>
-  <si>
-    <t>Jellisonia Traub, 1944 (subgenus)</t>
-  </si>
-  <si>
-    <t>Myodopsylla</t>
-  </si>
-  <si>
-    <t>Myodopsylloides Augustson, 1941 (junior synonym)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myodopsylloides Augustson, 1941 </t>
-  </si>
-  <si>
-    <t>Myodopsylla Jordan &amp; Rothschild, 1911</t>
-  </si>
-  <si>
-    <t>Jordan &amp; Rothschild, 1911</t>
-  </si>
-  <si>
-    <t>Pygiopsyllidae</t>
-  </si>
-  <si>
-    <t>Notiopsylla</t>
-  </si>
-  <si>
-    <t>Goniopsyllus Baker, 1906 (preoccupied as genus of Crestacea, Jordan &amp; Rothschild, 1914 proposed Notiopsylla as nomen novum for Goniopsyllus)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goniopsyllus Baker, 1906 </t>
-  </si>
-  <si>
-    <t>Notiopsylla Jordan &amp; Rothschild, 1914</t>
-  </si>
-  <si>
-    <t>Jordan &amp; Rothschild, 1914</t>
-  </si>
-  <si>
-    <t>preoccupied as genus of Crestacea, Jordan &amp; Rothschild, 1914 proposed Notiopsylla as nomen novum for Goniopsyllus</t>
-  </si>
-  <si>
-    <t>Rhadinopsyllinae</t>
-  </si>
-  <si>
-    <t>Rhadinopsylla</t>
-  </si>
-  <si>
-    <t>Rectofrontia Wagner, 1930 (synonym of subgenus Actenophthalmus); Rangulpsylla Darskaya, 1949 (synonym of subgenus Actenophthalmus)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rectofrontia Wagner, 1930 </t>
-  </si>
-  <si>
-    <t>Rhadinopsylla Jordan &amp; Rothschild, 1912</t>
-  </si>
-  <si>
-    <t>Jordan &amp; Rothschild, 1912</t>
-  </si>
-  <si>
-    <t>synonym of subgenus Actenophthalmus</t>
-  </si>
-  <si>
-    <t>Rectofrontia Wagner, 1930 (synonym of subgenus Actenophthalmus)</t>
-  </si>
-  <si>
-    <t>Rangulpsylla Darskaya, 1949 (synonym of subgenus Actenophthalmus)</t>
-  </si>
-  <si>
-    <t>Anomiopsyllinae</t>
-  </si>
-  <si>
-    <t>Stenistomera</t>
-  </si>
-  <si>
-    <t>Rothschild</t>
-  </si>
-  <si>
-    <t>Miochaeta Good, 1942 (sunken subgenus)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miochaeta Good, 1942 </t>
-  </si>
-  <si>
-    <t>Stenistomera Rothschild, 1915</t>
-  </si>
-  <si>
-    <t>Rothschild, 1915</t>
-  </si>
-  <si>
-    <t>sunken subgenus</t>
-  </si>
-  <si>
-    <t>Thrassis</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Nomadopsylla Stark, 1970 (junior synonym of Thrassis); Pandoropsylla Stark, 1970 (junior synonym of Thrassis); Thrassoides Stark, 1970 (junior synonym of Thrassis)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nomadopsylla Stark, 1970 </t>
-  </si>
-  <si>
-    <t>Thrassis Jordan, 1933</t>
-  </si>
-  <si>
-    <t>Jordan, 1933</t>
-  </si>
-  <si>
-    <t>junior synonym of Thrassis</t>
-  </si>
-  <si>
-    <t>Nomadopsylla Stark, 1970 (junior synonym of Thrassis)</t>
-  </si>
-  <si>
-    <t>Pandoropsylla Stark, 1970 (junior synonym of Thrassis)</t>
-  </si>
-  <si>
-    <t>Thrassoides Stark, 1970 (junior synonym of Thrassis)</t>
-  </si>
-  <si>
-    <t>Leptopsyllidae</t>
-  </si>
-  <si>
-    <t>Amphipsyllinae</t>
-  </si>
-  <si>
-    <t>Amphipsylla</t>
-  </si>
-  <si>
-    <t>transcaucasica</t>
-  </si>
-  <si>
-    <t>Ioff</t>
-  </si>
-  <si>
-    <t>Amphipsylla kuznetzovi transcaucasica Goncharov, 1973 (junior homonym)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amphipsylla kuznetzovi transcaucasica Goncharov, 1973 </t>
-  </si>
-  <si>
-    <t>Amphipsylla transcaucasica Ioff, 1953</t>
-  </si>
-  <si>
-    <t>Ioff, 1953</t>
-  </si>
-  <si>
-    <t>junior homonym</t>
-  </si>
-  <si>
-    <t>Amphipsylla transcaucasica</t>
-  </si>
-  <si>
-    <t>Ceratophyllus</t>
-  </si>
-  <si>
-    <t>hirundinis</t>
-  </si>
-  <si>
-    <t>(Curtis)</t>
-  </si>
-  <si>
-    <t>Pulex hirundinis Köhler, 1832 (junior homonym); Ceratophyllus hirundinis Chao, 1947 (junior homonym); Ceratophyllus hirundinis oiticus Peus, 1954; Ceratophyllus phaulius Rothschild, 1909; Ceratophyllus pinnatus Wagner, 1898; Ceratophyllus troglodytes Dampf, 1908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulex hirundinis Köhler, 1832 </t>
-  </si>
-  <si>
-    <t>Ceratophyllus hirundinis (Curtis, 1826)</t>
-  </si>
-  <si>
-    <t>(Curtis, 1826)</t>
-  </si>
-  <si>
-    <t>Ceratophyllus hirundinis</t>
-  </si>
-  <si>
-    <t>Pulex hirundinis Köhler, 1832 (junior homonym)</t>
-  </si>
-  <si>
-    <t>Ceratophyllus hirundinis Chao, 1947 (junior homonym)</t>
-  </si>
-  <si>
-    <t>Ceratophyllus hirundinis oiticus Peus, 1954</t>
-  </si>
-  <si>
-    <t>Ceratophyllus phaulius Rothschild, 1909</t>
-  </si>
-  <si>
-    <t>Ceratophyllus pinnatus Wagner, 1898</t>
-  </si>
-  <si>
-    <t>Ceratophyllus troglodytes Dampf, 1908</t>
-  </si>
-  <si>
-    <t>Pulicidae</t>
-  </si>
-  <si>
-    <t>Archaeopsyllinae</t>
-  </si>
-  <si>
-    <t>Ctenocephalides</t>
-  </si>
-  <si>
-    <t>canis</t>
-  </si>
-  <si>
-    <t>Pulex canis Curtis, 1826 (junior homonym); Pulex canis Dugès, 1832 (junior homonym); Ctenocephalus novemdentatus Kolenati, 1859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulex canis Curtis, 1826 </t>
-  </si>
-  <si>
-    <t>Ctenocephalides canis (Curtis, 1926)</t>
-  </si>
-  <si>
-    <t>(Curtis, 1926)</t>
-  </si>
-  <si>
-    <t>Ctenocephalides canis</t>
-  </si>
-  <si>
-    <t>Pulex canis Curtis, 1826 (junior homonym)</t>
-  </si>
-  <si>
-    <t>Pulex canis Dugès, 1832 (junior homonym)</t>
-  </si>
-  <si>
-    <t>Ctenocephalus novemdentatus Kolenati, 1859</t>
-  </si>
-  <si>
-    <t>Rhopalopsyllidae</t>
-  </si>
-  <si>
-    <t>Parapsyllinae</t>
-  </si>
-  <si>
-    <t>Ectinorus</t>
-  </si>
-  <si>
-    <t>angularis</t>
-  </si>
-  <si>
-    <t>Smit &amp; Rosicky</t>
-  </si>
-  <si>
-    <t>Ectinorus onychius angularis Smit &amp; Rosicky, 1987 (elevated to specific status by Hastriter &amp; Sage 2011)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ectinorus onychius angularis Smit &amp; Rosicky, 1987 </t>
-  </si>
-  <si>
-    <t>Ectinorus angularis Smit &amp; Rosicky, 1972</t>
-  </si>
-  <si>
-    <t>Smit &amp; Rosicky, 1972</t>
-  </si>
-  <si>
-    <t>elevated to specific status by Hastriter &amp; Sage 2011</t>
-  </si>
-  <si>
-    <t>Ectinorus angularis</t>
-  </si>
-  <si>
-    <t>deplexus</t>
-  </si>
-  <si>
-    <t>Smit</t>
-  </si>
-  <si>
-    <t>Ectinorus onychius deplexus Smit, 1987 (elevated to specific status by Hastriter &amp; Sage 2011)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ectinorus onychius deplexus Smit, 1987 </t>
-  </si>
-  <si>
-    <t>Ectinorus deplexus Smit, 1987</t>
-  </si>
-  <si>
-    <t>Smit, 1987</t>
-  </si>
-  <si>
-    <t>Ectinorus deplexus</t>
-  </si>
-  <si>
-    <t>onychius</t>
-  </si>
-  <si>
-    <t>(Jordan &amp; Rothschild)</t>
-  </si>
-  <si>
-    <t>Ectinorus onychius fueginus Jordan, 1942 (placed as synonyn by Hastriter and Sage 2011)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ectinorus onychius fueginus Jordan, 1942 </t>
-  </si>
-  <si>
-    <t>Ectinorus onychius (Jordan &amp; Rothschild, 1923)</t>
-  </si>
-  <si>
-    <t>(Jordan &amp; Rothschild, 1923)</t>
-  </si>
-  <si>
-    <t>placed as synonyn by Hastriter and Sage 2011</t>
-  </si>
-  <si>
-    <t>Ectinorus onychius</t>
-  </si>
-  <si>
-    <t>Frontopsylla</t>
-  </si>
-  <si>
-    <t>tuoliensis</t>
-  </si>
-  <si>
-    <t>Yu &amp; Zhang</t>
-  </si>
-  <si>
-    <t>Frontopsylla tuoli Yu &amp; Zhang, 1981 (misapplication of F. tuoliensis)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frontopsylla tuoli Yu &amp; Zhang, 1981 </t>
-  </si>
-  <si>
-    <t>Frontopsylla tuoliensis Yu &amp; Zhang, 1981</t>
-  </si>
-  <si>
-    <t>Yu &amp; Zhang, 1981</t>
-  </si>
-  <si>
-    <t>misapplication of F. tuoliensis</t>
-  </si>
-  <si>
-    <t>Frontopsylla tuoliensis</t>
-  </si>
-  <si>
-    <t>Nosopsyllus</t>
-  </si>
-  <si>
-    <t>fasciatus</t>
-  </si>
-  <si>
-    <t>(Bosc)</t>
-  </si>
-  <si>
-    <t>Pulex talpae Bouche, 1835 (junior homonym of Pulex fasciatus Bosc, 1800); Pulex furoris Dale, 1878; Ceratophyllus canadensis Baker, 1904; Ceratophyllus californicus Baker, 1904; Ceratophyllus endymionis Rothschild, 1904; Ceratophyllus oculatus Baker, 1904; Nosopsyllus paganus Peus, 1949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulex talpae Bouche, 1835 </t>
-  </si>
-  <si>
-    <t>Nosopsyllus fasciatus (Bosc, 1800)</t>
-  </si>
-  <si>
-    <t>(Bosc, 1800)</t>
-  </si>
-  <si>
-    <t>junior homonym of Pulex fasciatus Bosc, 1800</t>
-  </si>
-  <si>
-    <t>Nosopsyllus fasciatus</t>
-  </si>
-  <si>
-    <t>Pulex talpae Bouche, 1835 (junior homonym of Pulex fasciatus Bosc, 1800)</t>
-  </si>
-  <si>
-    <t>Pulex furoris Dale, 1878</t>
-  </si>
-  <si>
-    <t>Ceratophyllus canadensis Baker, 1904</t>
-  </si>
-  <si>
-    <t>Ceratophyllus californicus Baker, 1904</t>
-  </si>
-  <si>
-    <t>Ceratophyllus endymionis Rothschild, 1904</t>
-  </si>
-  <si>
-    <t>Ceratophyllus oculatus Baker, 1904</t>
-  </si>
-  <si>
-    <t>Nosopsyllus paganus Peus, 1949</t>
-  </si>
-  <si>
-    <t>Opisodasys</t>
-  </si>
-  <si>
-    <t>vesperalis</t>
-  </si>
-  <si>
-    <t>(Jordan)</t>
-  </si>
-  <si>
-    <t>Opisodasys jellisoni I. Fox, 1941 [female Opisodasys vesperalis (Jordan, 1929)]</t>
-  </si>
-  <si>
-    <t>Opisodasys vesperalis (Jordan, 1929)</t>
-  </si>
-  <si>
-    <t>(Jordan, 1929)</t>
-  </si>
-  <si>
-    <t>Opisodasys vesperalis</t>
-  </si>
-  <si>
-    <t>Palaeopsylla</t>
-  </si>
-  <si>
-    <t>aporema</t>
-  </si>
-  <si>
-    <t>Palaeopsylla makaluensis Brelih, 1975 (Female)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palaeopsylla makaluensis Brelih, 1975 </t>
-  </si>
-  <si>
-    <t>Palaeopsylla aporema Smit &amp; Rosicky, 1976</t>
-  </si>
-  <si>
-    <t>Smit &amp; Rosicky, 1976</t>
-  </si>
-  <si>
-    <t>Palaeopsylla aporema</t>
-  </si>
-  <si>
-    <t>Paradoxopsyllus</t>
-  </si>
-  <si>
-    <t>curvispinus</t>
-  </si>
-  <si>
-    <t>Miyajima &amp; Koidzumi</t>
-  </si>
-  <si>
-    <t>Paradoxopsyllus cruvispinus (sic) Miyajima &amp; Koidzumi, 1909; Ceratophyllus subcaecatus Rothschild, 1912</t>
-  </si>
-  <si>
-    <t>Paradoxopsyllus cruvispinus  Miyajima &amp; Koidzumi, 1909</t>
-  </si>
-  <si>
-    <t>Paradoxopsyllus curvispinus Miyajima &amp; Koidzumi, 1909</t>
-  </si>
-  <si>
-    <t>Miyajima &amp; Koidzumi, 1909</t>
-  </si>
-  <si>
-    <t>sic</t>
-  </si>
-  <si>
-    <t>Paradoxopsyllus curvispinus</t>
-  </si>
-  <si>
-    <t>Paradoxopsyllus cruvispinus (sic) Miyajima &amp; Koidzumi, 1909</t>
-  </si>
-  <si>
-    <t>Ceratophyllus subcaecatus Rothschild, 1912</t>
-  </si>
-  <si>
-    <t>Rhopalopsyllinae</t>
-  </si>
-  <si>
-    <t>Polygenis</t>
-  </si>
-  <si>
-    <t>platensis</t>
-  </si>
-  <si>
-    <t>Polygenis platensis cisandinus (Jordan, 1939)</t>
-  </si>
-  <si>
-    <t>Polygenis platensis (Jordan &amp; Rothschild, 1908)</t>
-  </si>
-  <si>
-    <t>(Jordan &amp; Rothschild, 1908)</t>
-  </si>
-  <si>
-    <t>Polygenis platensis</t>
-  </si>
-  <si>
-    <t>Pygiopsylla</t>
-  </si>
-  <si>
-    <t>hoplia</t>
-  </si>
-  <si>
-    <t>Pygiopsylla congrua Jordan &amp; Rothschild, 1922 (female); Pygiopsylla spinata Holland, 1969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pygiopsylla congrua Jordan &amp; Rothschild, 1922 </t>
-  </si>
-  <si>
-    <t>Pygiopsylla hoplia Jordan &amp; Rothschild, 1922</t>
-  </si>
-  <si>
-    <t>Jordan &amp; Rothschild, 1922</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>Pygiopsylla hoplia</t>
-  </si>
-  <si>
-    <t>Pygiopsylla congrua Jordan &amp; Rothschild, 1922 (female)</t>
-  </si>
-  <si>
-    <t>Pygiopsylla spinata Holland, 1969</t>
-  </si>
-  <si>
-    <t>zethi</t>
-  </si>
-  <si>
-    <t>(Rothschild)</t>
-  </si>
-  <si>
-    <t>Pygiopsylla congrua Jordan &amp; Rothschild, 1922 (male)</t>
-  </si>
-  <si>
-    <t>Pygiopsylla zethi (Rothschild, 1904)</t>
-  </si>
-  <si>
-    <t>(Rothschild, 1904)</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>Pygiopsylla zethi</t>
-  </si>
-  <si>
-    <t>Stenoponiinae</t>
-  </si>
-  <si>
-    <t>Stenoponia</t>
-  </si>
-  <si>
-    <t>tripectinata</t>
-  </si>
-  <si>
-    <t>(Tiraboschi)</t>
-  </si>
-  <si>
-    <t>Stenoponia tripectinata ssp. barcana, blanda, irakana, medialis, separata spinellosa Jordan, 1958 (see Beaucournu, 2013)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stenoponia tripectinata ssp. barcana, blanda, irakana, medialis, separata spinellosa Jordan, 1958 </t>
-  </si>
-  <si>
-    <t>Stenoponia tripectinata (Tiraboschi, 1902)</t>
-  </si>
-  <si>
-    <t>(Tiraboschi, 1902)</t>
-  </si>
-  <si>
-    <t>see Beaucournu, 2013</t>
-  </si>
-  <si>
-    <t>Stenoponia tripectinata</t>
-  </si>
-  <si>
-    <t>acamantis</t>
-  </si>
-  <si>
-    <t>Thrassis howelli (Jordan, 1933); Thrassis acamantis Stark, 1970; Thrassis pristinus Stark, 1957; Thrassis utahensis Wagner, 1936</t>
-  </si>
-  <si>
-    <t>Thrassis acamantis (Rothschild, 1905)</t>
-  </si>
-  <si>
-    <t>(Rothschild, 1905)</t>
-  </si>
-  <si>
-    <t>Thrassis acamantis</t>
-  </si>
-  <si>
-    <t>Thrassis howelli (Jordan, 1933)</t>
-  </si>
-  <si>
-    <t>Thrassis acamantis Stark, 1970</t>
-  </si>
-  <si>
-    <t>Thrassis pristinus Stark, 1957</t>
-  </si>
-  <si>
-    <t>Thrassis utahensis Wagner, 1936</t>
-  </si>
-  <si>
-    <t>Xenopsyllinae</t>
-  </si>
-  <si>
-    <t>Xenopsylla</t>
-  </si>
-  <si>
-    <t>skrjabini</t>
-  </si>
-  <si>
-    <t>Xenopsylla skrjabini Ioff, 1928 (only later 1930 did Ioff describe)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xenopsylla skrjabini Ioff, 1928 </t>
-  </si>
-  <si>
-    <t>Xenopsylla skrjabini Ioff, 1930</t>
-  </si>
-  <si>
-    <t>Ioff, 1930</t>
-  </si>
-  <si>
-    <t>only later 1930 did Ioff describe</t>
-  </si>
-  <si>
-    <t>Xenopsylla skrjabini</t>
-  </si>
-  <si>
-    <t>Amalaraeus</t>
-  </si>
-  <si>
-    <t>penicilliger mustelae</t>
-  </si>
-  <si>
-    <t>(Dale)</t>
-  </si>
-  <si>
-    <t>Ceratophyllus mustelae Wagner, 1898 (junior homonym)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceratophyllus mustelae Wagner, 1898 </t>
-  </si>
-  <si>
-    <t>Amalaraeus penicilliger mustelae (Dale, 1878)</t>
-  </si>
-  <si>
-    <t>penicilliger</t>
-  </si>
-  <si>
-    <t>mustelae</t>
-  </si>
-  <si>
-    <t>subspecies</t>
-  </si>
-  <si>
-    <t>(Dale, 1878)</t>
-  </si>
-  <si>
-    <t>Amalaraeus penicilliger mustelae</t>
-  </si>
-  <si>
-    <t>sibirica sibirica</t>
-  </si>
-  <si>
-    <t>(Wagner)</t>
-  </si>
-  <si>
-    <t>Typhlopsylla sibirica Wagner, 1901 (junior homonym); Ceratophyllus thoracicus Rothschild, 1911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Typhlopsylla sibirica Wagner, 1901 </t>
-  </si>
-  <si>
-    <t>Amphipsylla sibirica sibirica (Wagner, 1898)</t>
-  </si>
-  <si>
-    <t>sibirica</t>
-  </si>
-  <si>
-    <t>(Wagner, 1898)</t>
-  </si>
-  <si>
-    <t>Amphipsylla sibirica sibirica</t>
-  </si>
-  <si>
-    <t>Typhlopsylla sibirica Wagner, 1901 (junior homonym)</t>
-  </si>
-  <si>
-    <t>Ceratophyllus thoracicus Rothschild, 1911</t>
-  </si>
-  <si>
-    <t>farreni chaoi</t>
-  </si>
-  <si>
-    <t>Smit &amp; Allan</t>
-  </si>
-  <si>
-    <t>Ceratophyllus chaoi Wang, 1957 (junior homonym)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceratophyllus chaoi Wang, 1957 </t>
-  </si>
-  <si>
-    <t>Ceratophyllus farreni chaoi Smit &amp; Allan, 1955</t>
-  </si>
-  <si>
-    <t>farreni</t>
-  </si>
-  <si>
-    <t>chaoi</t>
-  </si>
-  <si>
-    <t>Smit &amp; Allan, 1955</t>
-  </si>
-  <si>
-    <t>Ceratophyllus farreni chaoi</t>
-  </si>
-  <si>
-    <t>agyrtes peusianus</t>
-  </si>
-  <si>
-    <t>Rosicky</t>
-  </si>
-  <si>
-    <t>Ctenophthalmus agyrtes slovacicus Rosicky, 1951 (partim); Ctenophthalmus orphilus tatricus Rosicky, 1951 (partim); Ctenophthalmus agyrtes obenbergeri Rosicky, 1957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ctenophthalmus agyrtes slovacicus Rosicky, 1951 </t>
-  </si>
-  <si>
-    <t>Ctenophthalmus agyrtes peusianus Rosicky, 1955</t>
-  </si>
-  <si>
-    <t>agyrtes</t>
-  </si>
-  <si>
-    <t>peusianus</t>
-  </si>
-  <si>
-    <t>Rosicky, 1955</t>
-  </si>
-  <si>
-    <t>partim</t>
-  </si>
-  <si>
-    <t>Ctenophthalmus agyrtes peusianus</t>
-  </si>
-  <si>
-    <t>Ctenophthalmus agyrtes slovacicus Rosicky, 1951 (partim)</t>
-  </si>
-  <si>
-    <t>Ctenophthalmus orphilus tatricus Rosicky, 1951 (partim)</t>
-  </si>
-  <si>
-    <t>Ctenophthalmus agyrtes obenbergeri Rosicky, 1957</t>
-  </si>
-  <si>
-    <t>tauberi makaluensis</t>
-  </si>
-  <si>
-    <t>Brelih</t>
-  </si>
-  <si>
-    <t>Palaeopsylla makaluensis Brelih, 1975 (Male)</t>
-  </si>
-  <si>
-    <t>Palaeopsylla tauberi makaluensis Brelih, 1975</t>
-  </si>
-  <si>
-    <t>tauberi</t>
-  </si>
-  <si>
-    <t>makaluensis</t>
-  </si>
-  <si>
-    <t>Brelih, 1975</t>
-  </si>
-  <si>
-    <t>Palaeopsylla tauberi makaluensis</t>
-  </si>
-  <si>
-    <t>li transbaikalica</t>
-  </si>
-  <si>
-    <t>Ioff &amp; Tiflov</t>
-  </si>
-  <si>
-    <t>Rhadinopsylla acuminata Ioff &amp; Tiflov, 1946 (suppressed by ICZN)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhadinopsylla acuminata Ioff &amp; Tiflov, 1946 </t>
-  </si>
-  <si>
-    <t>Rhadinopsylla li transbaikalica Ioff &amp; Tiflov, 1947</t>
-  </si>
-  <si>
-    <t>li</t>
-  </si>
-  <si>
-    <t>transbaikalica</t>
-  </si>
-  <si>
-    <t>Ioff &amp; Tiflov, 1947</t>
-  </si>
-  <si>
-    <t>suppressed by ICZN</t>
-  </si>
-  <si>
-    <t>Rhadinopsylla li transbaikalica</t>
-  </si>
-  <si>
-    <t>Trichopsylla Kolenati, 1863; Trichopsylla Jordan &amp; Rothschild, 1920 (junior homonym of Trichopsylla Kolenati, 1863); Trichopsylla Ewing &amp; Fox, 1943 (junior homonym of Trichopsylla Kolenati, 1863)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trichopsylla Jordan &amp; Rothschild, 1920 </t>
-  </si>
-  <si>
-    <t>Amalaraeus Ioff, 1936</t>
-  </si>
-  <si>
-    <t>Ioff, 1936</t>
-  </si>
-  <si>
-    <t>junior homonym of Trichopsylla Kolenati, 1863</t>
-  </si>
-  <si>
-    <t>Trichopsylla Kolenati, 1863</t>
-  </si>
-  <si>
-    <t>Trichopsylla Jordan &amp; Rothschild, 1920 (junior homonym of Trichopsylla Kolenati, 1863)</t>
-  </si>
-  <si>
-    <t>Trichopsylla Ewing &amp; Fox, 1943 (junior homonym of Trichopsylla Kolenati, 1863)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jellisonia Traub, 1944 </t>
-  </si>
-  <si>
     <t>Nycteridopsylla</t>
   </si>
   <si>
@@ -1246,7 +1213,7 @@
     <t>Eptescopsylla I. Fox, 1940; Aneptescopsylla Ioff, 1953 (unrecognized subgenus); Dinycteridopsylla Ioff, 1953 (unrecognized subgenus); Hexanycteropsylla Ioff, 1953 (unrecognized subgenus)</t>
   </si>
   <si>
-    <t xml:space="preserve">Aneptescopsylla Ioff, 1953 </t>
+    <t>Aneptescopsylla Ioff, 1953</t>
   </si>
   <si>
     <t>Nycteridopsylla Oudemans, 1906</t>
@@ -1267,16 +1234,16 @@
     <t>Hexanycteropsylla Ioff, 1953 (unrecognized subgenus)</t>
   </si>
   <si>
-    <t xml:space="preserve">Rangulpsylla Darskaya, 1949 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pandoropsylla Stark, 1970 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceratophyllus hirundinis Chao, 1947 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulex canis Dugès, 1832 </t>
+    <t>Rangulpsylla Darskaya, 1949</t>
+  </si>
+  <si>
+    <t>Pandoropsylla Stark, 1970</t>
+  </si>
+  <si>
+    <t>Ceratophyllus hirundinis Chao, 1947</t>
+  </si>
+  <si>
+    <t>Pulex canis Dugès, 1832</t>
   </si>
   <si>
     <t>intermedius</t>
@@ -1285,7 +1252,7 @@
     <t>Ceratopsylla wagneri Kohaut, 1903; Ischnopsyllus schmitzi Oudemans, 1909 (female Ischnopsyllus intermedius)</t>
   </si>
   <si>
-    <t xml:space="preserve">Ischnopsyllus schmitzi Oudemans, 1909 </t>
+    <t>Ischnopsyllus schmitzi Oudemans, 1909</t>
   </si>
   <si>
     <t>Ischnopsyllus intermedius (Rothschild, 1898)</t>
@@ -1315,7 +1282,7 @@
     <t>Ischnopsyllus wassilii Scalon 1935; Ischnopsyllus vasilii Skalon (in Argyropulo, 1948)</t>
   </si>
   <si>
-    <t xml:space="preserve">Ischnopsyllus vasilii Skalon </t>
+    <t>Ischnopsyllus vasilii Skalon</t>
   </si>
   <si>
     <t>Ischnopsyllus needhami Hsu, 1935</t>
@@ -1351,7 +1318,7 @@
     <t>Pulex musculi Dugès, 1832; Pulex musculi Bouché, 1835 (junior homonym of Pulex musculi Dugès, 1832); Ctenophthalmus quadridentatus Kolenati, 1859; Ctenophthalmus bisbidentatus Kolenati, 1859;Typhlopsylla mexicana Baker, 1896;</t>
   </si>
   <si>
-    <t xml:space="preserve">Pulex musculi Bouché, 1835 </t>
+    <t>Pulex musculi Bouché, 1835</t>
   </si>
   <si>
     <t>Leptopsylla segnis (Schönherr, 1811)</t>
@@ -1444,7 +1411,7 @@
     <t>Synosternus pallidus infestus Wagner, 1933; Pulex witherbyi Rothschild (in: Witherby, 1902)</t>
   </si>
   <si>
-    <t xml:space="preserve">Pulex witherbyi Rothschild </t>
+    <t>Pulex witherbyi Rothschild</t>
   </si>
   <si>
     <t>Synosternus pallidus (Taschenberg, 1880)</t>
@@ -1477,15 +1444,12 @@
     <t>Glauertia scintilla M. Rothschild, 1936; Glauertidos M. Rothschild, 1937 (nomen novum for Glauertia = Acanthopsylla Jordan &amp; Rothschild, 1922)</t>
   </si>
   <si>
-    <t xml:space="preserve">Glauertidos M. Rothschild, 1937 </t>
+    <t>Glauertidos M. Rothschild, 1937</t>
   </si>
   <si>
     <t>Acanthopsylla scintilla scintilla (M. Rothschild, 1936)</t>
   </si>
   <si>
-    <t>scintilla</t>
-  </si>
-  <si>
     <t>(M. Rothschild, 1936)</t>
   </si>
   <si>
@@ -1519,9 +1483,6 @@
     <t>Atyphloceras multidentatus multidentatus (C. Fox, 1909)</t>
   </si>
   <si>
-    <t>multidentatus</t>
-  </si>
-  <si>
     <t>(C. Fox, 1909)</t>
   </si>
   <si>
@@ -1534,19 +1495,16 @@
     <t>Atyphoceras (sic) Atyphloceras felix Jordan, 1933</t>
   </si>
   <si>
-    <t xml:space="preserve">Ctenophthalmus orphilus tatricus Rosicky, 1951 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trichopsylla Ewing &amp; Fox, 1943 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hirtopsylla Argyropulo, 1948 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinycteridopsylla Ioff, 1953 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thrassoides Stark, 1970 </t>
+    <t>Ctenophthalmus orphilus tatricus Rosicky, 1951</t>
+  </si>
+  <si>
+    <t>Trichopsylla Ewing &amp; Fox, 1943</t>
+  </si>
+  <si>
+    <t>Dinycteridopsylla Ioff, 1953</t>
+  </si>
+  <si>
+    <t>Thrassoides Stark, 1970</t>
   </si>
   <si>
     <t>Tungidae</t>
@@ -1561,7 +1519,7 @@
     <t>Dermatophilus Guérin, 1840; Dermatophylus Lucas, 1839; Psammodes Gistel 1850 (1847?); Rhynchoprion Karsten, 1864; Sarcophaga Westwood, 1840</t>
   </si>
   <si>
-    <t xml:space="preserve">Psammodes Gistel 1850 </t>
+    <t>Psammodes Gistel 1850</t>
   </si>
   <si>
     <t>Tunga Jarocki, 1838</t>
@@ -1618,7 +1576,7 @@
     <t>Ceratophyllus uralensis Wagner, 1898; Ctenonotus octodecimdentata octodecimdentata Kolenati 1863; Opisodasys jellisoni I. Fox, 1941 (male Tarsopsylla octodecimdentata)</t>
   </si>
   <si>
-    <t xml:space="preserve">Opisodasys jellisoni I. Fox, 1941 </t>
+    <t>Opisodasys jellisoni I. Fox, 1941</t>
   </si>
   <si>
     <t>Tarsopsylla octodecimdentata (Kolenati, 1863)</t>
@@ -1654,9 +1612,6 @@
     <t>Citellophilus simplex simplex (Wagner, 1902)</t>
   </si>
   <si>
-    <t>simplex</t>
-  </si>
-  <si>
     <t>(Wagner, 1902)</t>
   </si>
   <si>
@@ -1699,10 +1654,10 @@
     <t>Ctenophthalmus agyrtes hanzaki Rosicky, 1951</t>
   </si>
   <si>
-    <t xml:space="preserve">Hexanycteropsylla Ioff, 1953 </t>
-  </si>
-  <si>
-    <t>Opisodasys jellisoni I. Fox, 1941</t>
+    <t>Hirtopsylla Argyropulo, 1948</t>
+  </si>
+  <si>
+    <t>Hexanycteropsylla Ioff, 1953</t>
   </si>
   <si>
     <t>female Opisodasys vesperalis (Jordan, 1929)</t>
@@ -2557,58 +2512,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="R1" sqref="R1"/>
+      <selection pane="topRight" activeCell="T1" sqref="T1"/>
+      <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
+      <selection pane="bottomRight" activeCell="AN2" sqref="AN2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="246.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="82.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="48.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="100.90625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="36.36328125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="123.90625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="89.26953125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="68" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="48.08984375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="36.90625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="33.6328125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="50" max="53" width="5.6328125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="28" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -2773,25 +2685,25 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="D2" t="s">
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="F2">
         <v>1838</v>
       </c>
       <c r="G2" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="H2" t="s">
         <v>59</v>
@@ -2824,10 +2736,10 @@
         <v>56</v>
       </c>
       <c r="R2" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="S2" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="T2" t="s">
         <v>56</v>
@@ -2872,7 +2784,7 @@
         <v>56</v>
       </c>
       <c r="AH2" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="AI2" t="s">
         <v>56</v>
@@ -2887,25 +2799,25 @@
         <v>56</v>
       </c>
       <c r="AM2" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="AN2" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="AO2" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="AP2" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="AQ2" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="AR2" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="AS2" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="AT2" t="s">
         <v>56</v>
@@ -2934,25 +2846,25 @@
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C3" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E3" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F3">
         <v>1972</v>
       </c>
       <c r="G3" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="H3" t="s">
         <v>59</v>
@@ -2985,10 +2897,10 @@
         <v>56</v>
       </c>
       <c r="R3" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="S3" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="T3" t="s">
         <v>56</v>
@@ -3021,7 +2933,7 @@
         <v>56</v>
       </c>
       <c r="AD3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="AE3" t="s">
         <v>56</v>
@@ -3033,7 +2945,7 @@
         <v>56</v>
       </c>
       <c r="AH3" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="AI3" t="s">
         <v>56</v>
@@ -3048,13 +2960,13 @@
         <v>56</v>
       </c>
       <c r="AM3" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="AN3" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="AO3" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="AP3" t="s">
         <v>56</v>
@@ -3095,25 +3007,25 @@
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" t="s">
         <v>209</v>
       </c>
-      <c r="D4" t="s">
-        <v>218</v>
-      </c>
       <c r="E4" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="F4">
         <v>1987</v>
       </c>
       <c r="G4" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="H4" t="s">
         <v>59</v>
@@ -3146,10 +3058,10 @@
         <v>56</v>
       </c>
       <c r="R4" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="S4" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="T4" t="s">
         <v>56</v>
@@ -3182,7 +3094,7 @@
         <v>56</v>
       </c>
       <c r="AD4" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="AE4" t="s">
         <v>56</v>
@@ -3194,7 +3106,7 @@
         <v>56</v>
       </c>
       <c r="AH4" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="AI4" t="s">
         <v>56</v>
@@ -3209,13 +3121,13 @@
         <v>56</v>
       </c>
       <c r="AM4" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="AN4" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="AO4" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="AP4" t="s">
         <v>56</v>
@@ -3262,19 +3174,19 @@
         <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D5" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E5" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F5">
         <v>1976</v>
       </c>
       <c r="G5" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="H5" t="s">
         <v>59</v>
@@ -3307,10 +3219,10 @@
         <v>56</v>
       </c>
       <c r="R5" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="S5" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="T5" t="s">
         <v>56</v>
@@ -3343,7 +3255,7 @@
         <v>56</v>
       </c>
       <c r="AD5" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AE5" t="s">
         <v>56</v>
@@ -3355,7 +3267,7 @@
         <v>56</v>
       </c>
       <c r="AH5" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="AI5" t="s">
         <v>56</v>
@@ -3370,13 +3282,13 @@
         <v>56</v>
       </c>
       <c r="AM5" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="AN5" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="AO5" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="AP5" t="s">
         <v>56</v>
@@ -3417,16 +3329,16 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="D6" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="E6" t="s">
         <v>79</v>
@@ -3435,7 +3347,7 @@
         <v>1922</v>
       </c>
       <c r="G6" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="H6" t="s">
         <v>59</v>
@@ -3468,10 +3380,10 @@
         <v>56</v>
       </c>
       <c r="R6" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="S6" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="T6" t="s">
         <v>56</v>
@@ -3504,7 +3416,7 @@
         <v>56</v>
       </c>
       <c r="AD6" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="AE6" t="s">
         <v>56</v>
@@ -3516,7 +3428,7 @@
         <v>56</v>
       </c>
       <c r="AH6" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="AI6" t="s">
         <v>56</v>
@@ -3531,16 +3443,16 @@
         <v>56</v>
       </c>
       <c r="AM6" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="AN6" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="AO6" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="AP6" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="AQ6" t="s">
         <v>56</v>
@@ -3578,25 +3490,25 @@
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>384</v>
       </c>
       <c r="D7" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="E7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F7">
         <v>1898</v>
       </c>
       <c r="G7" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="H7" t="s">
         <v>59</v>
@@ -3629,10 +3541,10 @@
         <v>56</v>
       </c>
       <c r="R7" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="S7" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="T7" t="s">
         <v>56</v>
@@ -3665,7 +3577,7 @@
         <v>56</v>
       </c>
       <c r="AD7" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="AE7" t="s">
         <v>56</v>
@@ -3677,7 +3589,7 @@
         <v>56</v>
       </c>
       <c r="AH7" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="AI7" t="s">
         <v>56</v>
@@ -3692,16 +3604,16 @@
         <v>56</v>
       </c>
       <c r="AM7" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="AN7" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="AO7" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="AP7" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="AQ7" t="s">
         <v>56</v>
@@ -3739,25 +3651,25 @@
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>384</v>
       </c>
       <c r="D8" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="E8" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="F8">
         <v>1935</v>
       </c>
       <c r="G8" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="H8" t="s">
         <v>59</v>
@@ -3790,10 +3702,10 @@
         <v>56</v>
       </c>
       <c r="R8" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="S8" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="T8" t="s">
         <v>56</v>
@@ -3826,7 +3738,7 @@
         <v>56</v>
       </c>
       <c r="AD8" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="AE8" t="s">
         <v>56</v>
@@ -3838,7 +3750,7 @@
         <v>56</v>
       </c>
       <c r="AH8" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="AI8" t="s">
         <v>56</v>
@@ -3853,16 +3765,16 @@
         <v>56</v>
       </c>
       <c r="AM8" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="AN8" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="AO8" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="AP8" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="AQ8" t="s">
         <v>56</v>
@@ -3900,25 +3812,25 @@
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B9" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C9" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="D9" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="E9" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="F9">
         <v>1880</v>
       </c>
       <c r="G9" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="H9" t="s">
         <v>59</v>
@@ -3951,10 +3863,10 @@
         <v>56</v>
       </c>
       <c r="R9" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="S9" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="T9" t="s">
         <v>56</v>
@@ -3987,7 +3899,7 @@
         <v>56</v>
       </c>
       <c r="AD9" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="AE9" t="s">
         <v>56</v>
@@ -3999,7 +3911,7 @@
         <v>56</v>
       </c>
       <c r="AH9" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="AI9" t="s">
         <v>56</v>
@@ -4014,16 +3926,16 @@
         <v>56</v>
       </c>
       <c r="AM9" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="AN9" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="AO9" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="AP9" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="AQ9" t="s">
         <v>56</v>
@@ -4061,25 +3973,25 @@
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="D10" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E10" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="F10">
         <v>1895</v>
       </c>
       <c r="G10" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="H10" t="s">
         <v>59</v>
@@ -4112,10 +4024,10 @@
         <v>56</v>
       </c>
       <c r="R10" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="S10" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="T10" t="s">
         <v>56</v>
@@ -4148,7 +4060,7 @@
         <v>56</v>
       </c>
       <c r="AD10" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="AE10" t="s">
         <v>56</v>
@@ -4160,7 +4072,7 @@
         <v>56</v>
       </c>
       <c r="AH10" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="AI10" t="s">
         <v>56</v>
@@ -4175,16 +4087,16 @@
         <v>56</v>
       </c>
       <c r="AN10" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="AO10" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="AP10" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="AQ10" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="AR10" t="s">
         <v>56</v>
@@ -4219,25 +4131,25 @@
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D11" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="E11" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="F11">
         <v>1916</v>
       </c>
       <c r="G11" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="H11" t="s">
         <v>59</v>
@@ -4270,10 +4182,10 @@
         <v>56</v>
       </c>
       <c r="R11" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="S11" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="T11" t="s">
         <v>56</v>
@@ -4306,7 +4218,7 @@
         <v>56</v>
       </c>
       <c r="AD11" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="AE11" t="s">
         <v>56</v>
@@ -4318,7 +4230,7 @@
         <v>56</v>
       </c>
       <c r="AH11" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="AI11" t="s">
         <v>56</v>
@@ -4333,19 +4245,19 @@
         <v>56</v>
       </c>
       <c r="AN11" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="AO11" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="AP11" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="AQ11" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="AR11" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="AS11" t="s">
         <v>56</v>
@@ -4377,25 +4289,25 @@
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D12" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E12" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="F12">
         <v>1929</v>
       </c>
       <c r="G12" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="H12" t="s">
         <v>59</v>
@@ -4428,10 +4340,10 @@
         <v>56</v>
       </c>
       <c r="R12" t="s">
-        <v>560</v>
+        <v>518</v>
       </c>
       <c r="S12" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="T12" t="s">
         <v>56</v>
@@ -4464,7 +4376,7 @@
         <v>56</v>
       </c>
       <c r="AD12" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="AE12" t="s">
         <v>56</v>
@@ -4476,7 +4388,7 @@
         <v>56</v>
       </c>
       <c r="AH12" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="AI12" t="s">
         <v>56</v>
@@ -4491,13 +4403,13 @@
         <v>56</v>
       </c>
       <c r="AM12" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="AN12" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="AO12" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="AP12" t="s">
         <v>56</v>
@@ -4538,25 +4450,25 @@
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D13" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="E13" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F13">
         <v>1905</v>
       </c>
       <c r="G13" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="H13" t="s">
         <v>59</v>
@@ -4589,10 +4501,10 @@
         <v>56</v>
       </c>
       <c r="R13" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="S13" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="T13" t="s">
         <v>56</v>
@@ -4625,7 +4537,7 @@
         <v>56</v>
       </c>
       <c r="AD13" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="AE13" t="s">
         <v>56</v>
@@ -4637,7 +4549,7 @@
         <v>56</v>
       </c>
       <c r="AH13" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="AI13" t="s">
         <v>56</v>
@@ -4652,19 +4564,19 @@
         <v>56</v>
       </c>
       <c r="AN13" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="AO13" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="AP13" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="AQ13" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="AR13" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="AS13" t="s">
         <v>56</v>
@@ -4696,25 +4608,25 @@
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B14" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C14" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D14" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="E14" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F14">
         <v>1908</v>
       </c>
       <c r="G14" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="H14" t="s">
         <v>59</v>
@@ -4747,10 +4659,10 @@
         <v>56</v>
       </c>
       <c r="R14" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="S14" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="T14" t="s">
         <v>56</v>
@@ -4783,7 +4695,7 @@
         <v>56</v>
       </c>
       <c r="AD14" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="AE14" t="s">
         <v>56</v>
@@ -4795,7 +4707,7 @@
         <v>56</v>
       </c>
       <c r="AH14" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="AI14" t="s">
         <v>56</v>
@@ -4810,10 +4722,10 @@
         <v>56</v>
       </c>
       <c r="AN14" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="AO14" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="AP14" t="s">
         <v>56</v>
@@ -4854,25 +4766,25 @@
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C15" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E15" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F15">
         <v>1953</v>
       </c>
       <c r="G15" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="H15" t="s">
         <v>59</v>
@@ -4905,10 +4817,10 @@
         <v>56</v>
       </c>
       <c r="R15" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="S15" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="T15" t="s">
         <v>56</v>
@@ -4941,7 +4853,7 @@
         <v>56</v>
       </c>
       <c r="AD15" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="AE15" t="s">
         <v>56</v>
@@ -4953,7 +4865,7 @@
         <v>56</v>
       </c>
       <c r="AH15" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="AI15" t="s">
         <v>56</v>
@@ -4962,19 +4874,16 @@
         <v>56</v>
       </c>
       <c r="AK15" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="AL15" t="s">
         <v>56</v>
       </c>
-      <c r="AM15" t="s">
-        <v>179</v>
-      </c>
       <c r="AN15" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="AO15" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="AP15" t="s">
         <v>56</v>
@@ -5015,25 +4924,25 @@
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D16" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E16" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F16">
         <v>1826</v>
       </c>
       <c r="G16" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="H16" t="s">
         <v>59</v>
@@ -5066,10 +4975,10 @@
         <v>56</v>
       </c>
       <c r="R16" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="S16" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="T16" t="s">
         <v>56</v>
@@ -5102,7 +5011,7 @@
         <v>56</v>
       </c>
       <c r="AD16" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="AE16" t="s">
         <v>56</v>
@@ -5114,7 +5023,7 @@
         <v>56</v>
       </c>
       <c r="AH16" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="AI16" t="s">
         <v>56</v>
@@ -5123,34 +5032,31 @@
         <v>56</v>
       </c>
       <c r="AK16" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN16" t="s">
         <v>179</v>
       </c>
-      <c r="AL16" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>179</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>188</v>
-      </c>
       <c r="AO16" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="AP16" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="AQ16" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="AR16" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="AS16" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="AT16" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="AU16" t="s">
         <v>56</v>
@@ -5176,25 +5082,25 @@
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C17" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D17" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E17" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F17">
         <v>1926</v>
       </c>
       <c r="G17" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H17" t="s">
         <v>59</v>
@@ -5227,10 +5133,10 @@
         <v>56</v>
       </c>
       <c r="R17" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="S17" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="T17" t="s">
         <v>56</v>
@@ -5263,7 +5169,7 @@
         <v>56</v>
       </c>
       <c r="AD17" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="AE17" t="s">
         <v>56</v>
@@ -5275,7 +5181,7 @@
         <v>56</v>
       </c>
       <c r="AH17" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="AI17" t="s">
         <v>56</v>
@@ -5284,25 +5190,22 @@
         <v>56</v>
       </c>
       <c r="AK17" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="AL17" t="s">
         <v>56</v>
       </c>
-      <c r="AM17" t="s">
-        <v>179</v>
-      </c>
       <c r="AN17" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="AO17" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="AP17" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="AQ17" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="AR17" t="s">
         <v>56</v>
@@ -5337,25 +5240,25 @@
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D18" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="E18" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="F18">
         <v>1878</v>
       </c>
       <c r="G18" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="H18" t="s">
         <v>59</v>
@@ -5388,10 +5291,10 @@
         <v>56</v>
       </c>
       <c r="R18" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="S18" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="T18" t="s">
         <v>56</v>
@@ -5423,20 +5326,17 @@
       <c r="AC18" t="s">
         <v>56</v>
       </c>
-      <c r="AD18" t="s">
-        <v>341</v>
-      </c>
       <c r="AE18" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="AF18" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="AG18" t="s">
         <v>56</v>
       </c>
       <c r="AH18" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="AI18" t="s">
         <v>56</v>
@@ -5445,19 +5345,16 @@
         <v>56</v>
       </c>
       <c r="AK18" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="AL18" t="s">
         <v>56</v>
       </c>
-      <c r="AM18" t="s">
-        <v>179</v>
-      </c>
       <c r="AN18" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="AO18" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="AP18" t="s">
         <v>56</v>
@@ -5498,25 +5395,25 @@
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C19" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D19" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="E19" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="F19">
         <v>1898</v>
       </c>
       <c r="G19" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H19" t="s">
         <v>59</v>
@@ -5549,10 +5446,10 @@
         <v>56</v>
       </c>
       <c r="R19" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="S19" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="T19" t="s">
         <v>56</v>
@@ -5584,44 +5481,38 @@
       <c r="AC19" t="s">
         <v>56</v>
       </c>
-      <c r="AD19" t="s">
-        <v>351</v>
-      </c>
       <c r="AE19" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="AF19" t="s">
+        <v>332</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>340</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>341</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>342</v>
+      </c>
+      <c r="AP19" t="s">
         <v>343</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>352</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>179</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>179</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>353</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>354</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>355</v>
       </c>
       <c r="AQ19" t="s">
         <v>56</v>
@@ -5659,25 +5550,25 @@
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D20" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E20" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="F20">
         <v>1955</v>
       </c>
       <c r="G20" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="H20" t="s">
         <v>59</v>
@@ -5710,10 +5601,10 @@
         <v>56</v>
       </c>
       <c r="R20" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="S20" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="T20" t="s">
         <v>56</v>
@@ -5745,20 +5636,17 @@
       <c r="AC20" t="s">
         <v>56</v>
       </c>
-      <c r="AD20" t="s">
-        <v>361</v>
-      </c>
       <c r="AE20" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="AF20" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="AG20" t="s">
         <v>56</v>
       </c>
       <c r="AH20" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="AI20" t="s">
         <v>56</v>
@@ -5767,19 +5655,16 @@
         <v>56</v>
       </c>
       <c r="AK20" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="AL20" t="s">
         <v>56</v>
       </c>
-      <c r="AM20" t="s">
-        <v>179</v>
-      </c>
       <c r="AN20" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="AO20" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="AP20" t="s">
         <v>56</v>
@@ -5820,25 +5705,25 @@
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D21" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E21" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F21">
         <v>1826</v>
       </c>
       <c r="G21" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="H21" t="s">
         <v>59</v>
@@ -5871,10 +5756,10 @@
         <v>56</v>
       </c>
       <c r="R21" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="S21" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="T21" t="s">
         <v>56</v>
@@ -5907,7 +5792,7 @@
         <v>56</v>
       </c>
       <c r="AD21" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="AE21" t="s">
         <v>56</v>
@@ -5919,7 +5804,7 @@
         <v>56</v>
       </c>
       <c r="AH21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="AI21" t="s">
         <v>56</v>
@@ -5928,34 +5813,31 @@
         <v>56</v>
       </c>
       <c r="AK21" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN21" t="s">
         <v>179</v>
       </c>
-      <c r="AL21" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>179</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>188</v>
-      </c>
       <c r="AO21" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="AP21" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="AQ21" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="AR21" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="AS21" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="AT21" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="AU21" t="s">
         <v>56</v>
@@ -5981,25 +5863,25 @@
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B22" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C22" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D22" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E22" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F22">
         <v>1926</v>
       </c>
       <c r="G22" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H22" t="s">
         <v>59</v>
@@ -6032,10 +5914,10 @@
         <v>56</v>
       </c>
       <c r="R22" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="S22" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="T22" t="s">
         <v>56</v>
@@ -6068,7 +5950,7 @@
         <v>56</v>
       </c>
       <c r="AD22" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="AE22" t="s">
         <v>56</v>
@@ -6080,7 +5962,7 @@
         <v>56</v>
       </c>
       <c r="AH22" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="AI22" t="s">
         <v>56</v>
@@ -6089,25 +5971,22 @@
         <v>56</v>
       </c>
       <c r="AK22" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="AL22" t="s">
         <v>56</v>
       </c>
-      <c r="AM22" t="s">
-        <v>179</v>
-      </c>
       <c r="AN22" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="AO22" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="AP22" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="AQ22" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="AR22" t="s">
         <v>56</v>
@@ -6142,25 +6021,25 @@
     </row>
     <row r="23" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D23" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E23" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="F23">
         <v>1800</v>
       </c>
       <c r="G23" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="H23" t="s">
         <v>59</v>
@@ -6193,10 +6072,10 @@
         <v>56</v>
       </c>
       <c r="R23" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="S23" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="T23" t="s">
         <v>56</v>
@@ -6229,7 +6108,7 @@
         <v>56</v>
       </c>
       <c r="AD23" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="AE23" t="s">
         <v>56</v>
@@ -6241,46 +6120,46 @@
         <v>56</v>
       </c>
       <c r="AH23" t="s">
+        <v>239</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>240</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>241</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>242</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>243</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>244</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>245</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>247</v>
+      </c>
+      <c r="AU23" t="s">
         <v>248</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>179</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>249</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>250</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>251</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>252</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>253</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>254</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>255</v>
-      </c>
-      <c r="AT23" t="s">
-        <v>256</v>
-      </c>
-      <c r="AU23" t="s">
-        <v>257</v>
       </c>
       <c r="AV23" t="s">
         <v>56</v>
@@ -6303,25 +6182,25 @@
     </row>
     <row r="24" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="C24" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="D24" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="E24" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="F24">
         <v>1811</v>
       </c>
       <c r="G24" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="H24" t="s">
         <v>59</v>
@@ -6354,10 +6233,10 @@
         <v>56</v>
       </c>
       <c r="R24" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="S24" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="T24" t="s">
         <v>56</v>
@@ -6390,7 +6269,7 @@
         <v>56</v>
       </c>
       <c r="AD24" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="AE24" t="s">
         <v>56</v>
@@ -6402,7 +6281,7 @@
         <v>56</v>
       </c>
       <c r="AH24" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="AI24" t="s">
         <v>56</v>
@@ -6411,31 +6290,31 @@
         <v>56</v>
       </c>
       <c r="AK24" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="AL24" t="s">
         <v>56</v>
       </c>
       <c r="AM24" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="AN24" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="AO24" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="AP24" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="AQ24" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="AR24" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="AS24" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="AT24" t="s">
         <v>56</v>
@@ -6464,25 +6343,25 @@
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D25" t="s">
         <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F25">
         <v>1936</v>
       </c>
       <c r="G25" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="H25" t="s">
         <v>59</v>
@@ -6515,10 +6394,10 @@
         <v>56</v>
       </c>
       <c r="R25" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="S25" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="T25" t="s">
         <v>56</v>
@@ -6563,7 +6442,7 @@
         <v>56</v>
       </c>
       <c r="AH25" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="AI25" t="s">
         <v>56</v>
@@ -6572,25 +6451,25 @@
         <v>56</v>
       </c>
       <c r="AK25" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="AL25" t="s">
         <v>56</v>
       </c>
       <c r="AM25" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="AN25" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="AO25" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="AP25" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="AQ25" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="AR25" t="s">
         <v>56</v>
@@ -6625,25 +6504,25 @@
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D26" t="s">
         <v>56</v>
       </c>
       <c r="E26" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F26">
         <v>1936</v>
       </c>
       <c r="G26" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="H26" t="s">
         <v>59</v>
@@ -6676,10 +6555,10 @@
         <v>56</v>
       </c>
       <c r="R26" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="S26" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="T26" t="s">
         <v>56</v>
@@ -6724,7 +6603,7 @@
         <v>56</v>
       </c>
       <c r="AH26" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="AI26" t="s">
         <v>56</v>
@@ -6733,25 +6612,25 @@
         <v>56</v>
       </c>
       <c r="AK26" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="AL26" t="s">
         <v>56</v>
       </c>
       <c r="AM26" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="AN26" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="AO26" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="AP26" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="AQ26" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="AR26" t="s">
         <v>56</v>
@@ -6899,9 +6778,6 @@
       <c r="AL27" t="s">
         <v>56</v>
       </c>
-      <c r="AM27" t="s">
-        <v>67</v>
-      </c>
       <c r="AN27" t="s">
         <v>55</v>
       </c>
@@ -7060,9 +6936,6 @@
       <c r="AL28" t="s">
         <v>56</v>
       </c>
-      <c r="AM28" t="s">
-        <v>67</v>
-      </c>
       <c r="AN28" t="s">
         <v>69</v>
       </c>
@@ -7221,9 +7094,6 @@
       <c r="AL29" t="s">
         <v>56</v>
       </c>
-      <c r="AM29" t="s">
-        <v>67</v>
-      </c>
       <c r="AN29" t="s">
         <v>89</v>
       </c>
@@ -7269,31 +7139,31 @@
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C30" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
         <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="F30">
-        <v>1833</v>
+        <v>1911</v>
       </c>
       <c r="G30" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="H30" t="s">
         <v>59</v>
       </c>
       <c r="I30">
-        <v>1233</v>
+        <v>1573</v>
       </c>
       <c r="J30" t="s">
         <v>56</v>
@@ -7320,10 +7190,10 @@
         <v>56</v>
       </c>
       <c r="R30" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S30" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="T30" t="s">
         <v>56</v>
@@ -7368,7 +7238,7 @@
         <v>56</v>
       </c>
       <c r="AH30" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AI30" t="s">
         <v>56</v>
@@ -7382,20 +7252,17 @@
       <c r="AL30" t="s">
         <v>56</v>
       </c>
-      <c r="AM30" t="s">
-        <v>67</v>
-      </c>
       <c r="AN30" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="AO30" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AP30" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="AQ30" t="s">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="AR30" t="s">
         <v>56</v>
@@ -7430,31 +7297,31 @@
     </row>
     <row r="31" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C31" t="s">
-        <v>131</v>
+        <v>384</v>
       </c>
       <c r="D31" t="s">
         <v>56</v>
       </c>
       <c r="E31" t="s">
-        <v>79</v>
+        <v>385</v>
       </c>
       <c r="F31">
-        <v>1911</v>
+        <v>1833</v>
       </c>
       <c r="G31" t="s">
-        <v>132</v>
+        <v>386</v>
       </c>
       <c r="H31" t="s">
         <v>59</v>
       </c>
       <c r="I31">
-        <v>1573</v>
+        <v>1233</v>
       </c>
       <c r="J31" t="s">
         <v>56</v>
@@ -7481,10 +7348,10 @@
         <v>56</v>
       </c>
       <c r="R31" t="s">
-        <v>133</v>
+        <v>387</v>
       </c>
       <c r="S31" t="s">
-        <v>134</v>
+        <v>388</v>
       </c>
       <c r="T31" t="s">
         <v>56</v>
@@ -7529,7 +7396,7 @@
         <v>56</v>
       </c>
       <c r="AH31" t="s">
-        <v>135</v>
+        <v>389</v>
       </c>
       <c r="AI31" t="s">
         <v>56</v>
@@ -7543,23 +7410,20 @@
       <c r="AL31" t="s">
         <v>56</v>
       </c>
-      <c r="AM31" t="s">
-        <v>67</v>
-      </c>
       <c r="AN31" t="s">
-        <v>131</v>
+        <v>384</v>
       </c>
       <c r="AO31" t="s">
-        <v>132</v>
+        <v>390</v>
       </c>
       <c r="AP31" t="s">
-        <v>56</v>
+        <v>391</v>
       </c>
       <c r="AQ31" t="s">
-        <v>56</v>
+        <v>392</v>
       </c>
       <c r="AR31" t="s">
-        <v>56</v>
+        <v>393</v>
       </c>
       <c r="AS31" t="s">
         <v>56</v>
@@ -7591,25 +7455,25 @@
     </row>
     <row r="32" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D32" t="s">
         <v>56</v>
       </c>
       <c r="E32" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F32">
         <v>1933</v>
       </c>
       <c r="G32" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="H32" t="s">
         <v>59</v>
@@ -7642,10 +7506,10 @@
         <v>56</v>
       </c>
       <c r="R32" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="S32" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="T32" t="s">
         <v>56</v>
@@ -7690,7 +7554,7 @@
         <v>56</v>
       </c>
       <c r="AH32" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="AI32" t="s">
         <v>56</v>
@@ -7705,19 +7569,19 @@
         <v>56</v>
       </c>
       <c r="AM32" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="AN32" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>158</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>159</v>
+      </c>
+      <c r="AQ32" t="s">
         <v>160</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>167</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>168</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>169</v>
       </c>
       <c r="AR32" t="s">
         <v>56</v>
@@ -7752,25 +7616,25 @@
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D33" t="s">
         <v>56</v>
       </c>
       <c r="E33" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F33">
         <v>1933</v>
       </c>
       <c r="G33" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="H33" t="s">
         <v>59</v>
@@ -7803,10 +7667,10 @@
         <v>56</v>
       </c>
       <c r="R33" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="S33" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="T33" t="s">
         <v>56</v>
@@ -7851,7 +7715,7 @@
         <v>56</v>
       </c>
       <c r="AH33" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="AI33" t="s">
         <v>56</v>
@@ -7866,19 +7730,19 @@
         <v>56</v>
       </c>
       <c r="AM33" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="AN33" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>158</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>159</v>
+      </c>
+      <c r="AQ33" t="s">
         <v>160</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>167</v>
-      </c>
-      <c r="AP33" t="s">
-        <v>168</v>
-      </c>
-      <c r="AQ33" t="s">
-        <v>169</v>
       </c>
       <c r="AR33" t="s">
         <v>56</v>
@@ -7913,25 +7777,25 @@
     </row>
     <row r="34" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C34" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D34" t="s">
         <v>56</v>
       </c>
       <c r="E34" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F34">
         <v>1933</v>
       </c>
       <c r="G34" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="H34" t="s">
         <v>59</v>
@@ -7964,10 +7828,10 @@
         <v>56</v>
       </c>
       <c r="R34" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="S34" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="T34" t="s">
         <v>56</v>
@@ -8012,7 +7876,7 @@
         <v>56</v>
       </c>
       <c r="AH34" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="AI34" t="s">
         <v>56</v>
@@ -8027,19 +7891,19 @@
         <v>56</v>
       </c>
       <c r="AM34" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="AN34" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>158</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>159</v>
+      </c>
+      <c r="AQ34" t="s">
         <v>160</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>167</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>168</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>169</v>
       </c>
       <c r="AR34" t="s">
         <v>56</v>
@@ -8074,25 +7938,25 @@
     </row>
     <row r="35" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B35" t="s">
         <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="D35" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E35" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F35">
         <v>1904</v>
       </c>
       <c r="G35" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H35" t="s">
         <v>59</v>
@@ -8125,10 +7989,10 @@
         <v>56</v>
       </c>
       <c r="R35" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="S35" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="T35" t="s">
         <v>56</v>
@@ -8161,7 +8025,7 @@
         <v>56</v>
       </c>
       <c r="AD35" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="AE35" t="s">
         <v>56</v>
@@ -8173,7 +8037,7 @@
         <v>56</v>
       </c>
       <c r="AH35" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="AI35" t="s">
         <v>56</v>
@@ -8188,13 +8052,13 @@
         <v>56</v>
       </c>
       <c r="AM35" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="AN35" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="AO35" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="AP35" t="s">
         <v>56</v>
@@ -8241,19 +8105,19 @@
         <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D36" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="E36" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="F36">
         <v>1975</v>
       </c>
       <c r="G36" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="H36" t="s">
         <v>59</v>
@@ -8286,10 +8150,10 @@
         <v>56</v>
       </c>
       <c r="R36" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="S36" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="T36" t="s">
         <v>56</v>
@@ -8321,20 +8185,17 @@
       <c r="AC36" t="s">
         <v>56</v>
       </c>
-      <c r="AD36" t="s">
-        <v>382</v>
-      </c>
       <c r="AE36" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="AF36" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="AG36" t="s">
         <v>56</v>
       </c>
       <c r="AH36" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="AI36" t="s">
         <v>56</v>
@@ -8349,13 +8210,13 @@
         <v>56</v>
       </c>
       <c r="AM36" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="AN36" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="AO36" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="AP36" t="s">
         <v>56</v>
@@ -8396,25 +8257,25 @@
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C37" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="D37" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="E37" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="F37">
         <v>1902</v>
       </c>
       <c r="G37" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="H37" t="s">
         <v>59</v>
@@ -8447,10 +8308,10 @@
         <v>56</v>
       </c>
       <c r="R37" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="S37" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="T37" t="s">
         <v>56</v>
@@ -8482,20 +8343,17 @@
       <c r="AC37" t="s">
         <v>56</v>
       </c>
-      <c r="AD37" t="s">
-        <v>544</v>
-      </c>
       <c r="AE37" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="AF37" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="AG37" t="s">
         <v>56</v>
       </c>
       <c r="AH37" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="AI37" t="s">
         <v>56</v>
@@ -8510,19 +8368,19 @@
         <v>56</v>
       </c>
       <c r="AM37" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="AN37" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="AO37" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="AP37" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="AQ37" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="AR37" t="s">
         <v>56</v>
@@ -8557,25 +8415,25 @@
     </row>
     <row r="38" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="D38" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="E38" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="F38">
         <v>1863</v>
       </c>
       <c r="G38" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="H38" t="s">
         <v>59</v>
@@ -8608,10 +8466,10 @@
         <v>56</v>
       </c>
       <c r="R38" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="S38" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="T38" t="s">
         <v>56</v>
@@ -8644,7 +8502,7 @@
         <v>56</v>
       </c>
       <c r="AD38" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="AE38" t="s">
         <v>56</v>
@@ -8656,7 +8514,7 @@
         <v>56</v>
       </c>
       <c r="AH38" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="AI38" t="s">
         <v>56</v>
@@ -8671,19 +8529,19 @@
         <v>56</v>
       </c>
       <c r="AM38" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="AN38" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="AO38" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="AP38" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="AQ38" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="AR38" t="s">
         <v>56</v>
@@ -8718,25 +8576,25 @@
     </row>
     <row r="39" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B39" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C39" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D39" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E39" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="F39">
         <v>1981</v>
       </c>
       <c r="G39" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="H39" t="s">
         <v>59</v>
@@ -8769,10 +8627,10 @@
         <v>56</v>
       </c>
       <c r="R39" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="S39" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="T39" t="s">
         <v>56</v>
@@ -8805,7 +8663,7 @@
         <v>56</v>
       </c>
       <c r="AD39" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="AE39" t="s">
         <v>56</v>
@@ -8817,7 +8675,7 @@
         <v>56</v>
       </c>
       <c r="AH39" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="AI39" t="s">
         <v>56</v>
@@ -8826,19 +8684,19 @@
         <v>56</v>
       </c>
       <c r="AK39" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="AL39" t="s">
         <v>56</v>
       </c>
       <c r="AM39" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="AN39" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="AO39" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="AP39" t="s">
         <v>56</v>
@@ -8879,25 +8737,25 @@
     </row>
     <row r="40" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B40" t="s">
         <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="D40" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="E40" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="F40">
         <v>1936</v>
       </c>
       <c r="G40" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="H40" t="s">
         <v>59</v>
@@ -8930,10 +8788,10 @@
         <v>56</v>
       </c>
       <c r="R40" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="S40" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="T40" t="s">
         <v>56</v>
@@ -8965,20 +8823,17 @@
       <c r="AC40" t="s">
         <v>56</v>
       </c>
-      <c r="AD40" t="s">
-        <v>487</v>
-      </c>
       <c r="AE40" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="AF40" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="AG40" t="s">
         <v>56</v>
       </c>
       <c r="AH40" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="AI40" t="s">
         <v>56</v>
@@ -8990,19 +8845,19 @@
         <v>56</v>
       </c>
       <c r="AL40" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="AM40" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="AN40" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="AO40" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="AP40" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="AQ40" t="s">
         <v>56</v>
@@ -9040,25 +8895,25 @@
     </row>
     <row r="41" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B41" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C41" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D41" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E41" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F41">
         <v>1930</v>
       </c>
       <c r="G41" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="H41" t="s">
         <v>59</v>
@@ -9091,10 +8946,10 @@
         <v>56</v>
       </c>
       <c r="R41" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="S41" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="T41" t="s">
         <v>56</v>
@@ -9127,7 +8982,7 @@
         <v>56</v>
       </c>
       <c r="AD41" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="AE41" t="s">
         <v>56</v>
@@ -9139,7 +8994,7 @@
         <v>56</v>
       </c>
       <c r="AH41" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="AI41" t="s">
         <v>56</v>
@@ -9154,13 +9009,13 @@
         <v>56</v>
       </c>
       <c r="AM41" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="AN41" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="AO41" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="AP41" t="s">
         <v>56</v>
@@ -9210,16 +9065,16 @@
         <v>89</v>
       </c>
       <c r="D42" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="E42" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F42">
         <v>1955</v>
       </c>
       <c r="G42" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="H42" t="s">
         <v>59</v>
@@ -9252,10 +9107,10 @@
         <v>56</v>
       </c>
       <c r="R42" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="S42" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="T42" t="s">
         <v>56</v>
@@ -9287,20 +9142,17 @@
       <c r="AC42" t="s">
         <v>56</v>
       </c>
-      <c r="AD42" t="s">
-        <v>370</v>
-      </c>
       <c r="AE42" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="AF42" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="AG42" t="s">
         <v>56</v>
       </c>
       <c r="AH42" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="AI42" t="s">
         <v>56</v>
@@ -9315,19 +9167,19 @@
         <v>56</v>
       </c>
       <c r="AM42" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="AN42" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="AO42" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="AP42" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="AQ42" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="AR42" t="s">
         <v>56</v>
@@ -9371,16 +9223,16 @@
         <v>89</v>
       </c>
       <c r="D43" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="E43" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F43">
         <v>1955</v>
       </c>
       <c r="G43" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="H43" t="s">
         <v>59</v>
@@ -9413,10 +9265,10 @@
         <v>56</v>
       </c>
       <c r="R43" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="S43" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="T43" t="s">
         <v>56</v>
@@ -9448,20 +9300,17 @@
       <c r="AC43" t="s">
         <v>56</v>
       </c>
-      <c r="AD43" t="s">
-        <v>370</v>
-      </c>
       <c r="AE43" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="AF43" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="AG43" t="s">
         <v>56</v>
       </c>
       <c r="AH43" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="AI43" t="s">
         <v>56</v>
@@ -9476,19 +9325,19 @@
         <v>56</v>
       </c>
       <c r="AM43" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="AN43" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="AO43" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="AP43" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="AQ43" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="AR43" t="s">
         <v>56</v>
@@ -9532,16 +9381,16 @@
         <v>89</v>
       </c>
       <c r="D44" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="E44" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="F44">
         <v>1896</v>
       </c>
       <c r="G44" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="H44" t="s">
         <v>59</v>
@@ -9574,10 +9423,10 @@
         <v>56</v>
       </c>
       <c r="R44" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="S44" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="T44" t="s">
         <v>56</v>
@@ -9609,20 +9458,17 @@
       <c r="AC44" t="s">
         <v>56</v>
       </c>
-      <c r="AD44" t="s">
-        <v>370</v>
-      </c>
       <c r="AE44" t="s">
-        <v>370</v>
+        <v>536</v>
       </c>
       <c r="AF44" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="AG44" t="s">
         <v>56</v>
       </c>
       <c r="AH44" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="AI44" t="s">
         <v>56</v>
@@ -9637,22 +9483,22 @@
         <v>56</v>
       </c>
       <c r="AM44" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="AN44" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="AO44" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="AP44" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="AQ44" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="AR44" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="AS44" t="s">
         <v>56</v>
@@ -9693,16 +9539,16 @@
         <v>89</v>
       </c>
       <c r="D45" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="E45" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="F45">
         <v>1896</v>
       </c>
       <c r="G45" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="H45" t="s">
         <v>59</v>
@@ -9735,10 +9581,10 @@
         <v>56</v>
       </c>
       <c r="R45" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="S45" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="T45" t="s">
         <v>56</v>
@@ -9770,20 +9616,17 @@
       <c r="AC45" t="s">
         <v>56</v>
       </c>
-      <c r="AD45" t="s">
-        <v>370</v>
-      </c>
       <c r="AE45" t="s">
-        <v>370</v>
+        <v>536</v>
       </c>
       <c r="AF45" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="AG45" t="s">
         <v>56</v>
       </c>
       <c r="AH45" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="AI45" t="s">
         <v>56</v>
@@ -9798,22 +9641,22 @@
         <v>56</v>
       </c>
       <c r="AM45" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="AN45" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="AO45" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="AP45" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="AQ45" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="AR45" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="AS45" t="s">
         <v>56</v>
@@ -9845,25 +9688,25 @@
     </row>
     <row r="46" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B46" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C46" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D46" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E46" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F46">
         <v>1923</v>
       </c>
       <c r="G46" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H46" t="s">
         <v>59</v>
@@ -9896,10 +9739,10 @@
         <v>56</v>
       </c>
       <c r="R46" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="S46" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="T46" t="s">
         <v>56</v>
@@ -9932,7 +9775,7 @@
         <v>56</v>
       </c>
       <c r="AD46" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="AE46" t="s">
         <v>56</v>
@@ -9944,7 +9787,7 @@
         <v>56</v>
       </c>
       <c r="AH46" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="AI46" t="s">
         <v>56</v>
@@ -9959,13 +9802,13 @@
         <v>56</v>
       </c>
       <c r="AM46" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="AN46" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="AO46" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="AP46" t="s">
         <v>56</v>
@@ -10006,13 +9849,13 @@
     </row>
     <row r="47" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B47" t="s">
         <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D47" t="s">
         <v>56</v>
@@ -10024,7 +9867,7 @@
         <v>1914</v>
       </c>
       <c r="G47" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="H47" t="s">
         <v>59</v>
@@ -10057,10 +9900,10 @@
         <v>56</v>
       </c>
       <c r="R47" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="S47" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="T47" t="s">
         <v>56</v>
@@ -10105,7 +9948,7 @@
         <v>56</v>
       </c>
       <c r="AH47" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="AI47" t="s">
         <v>56</v>
@@ -10120,13 +9963,13 @@
         <v>56</v>
       </c>
       <c r="AM47" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AN47" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="AO47" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="AP47" t="s">
         <v>56</v>
@@ -10170,22 +10013,22 @@
         <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C48" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D48" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="E48" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="F48">
         <v>1902</v>
       </c>
       <c r="G48" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="H48" t="s">
         <v>59</v>
@@ -10218,10 +10061,10 @@
         <v>56</v>
       </c>
       <c r="R48" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="S48" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="T48" t="s">
         <v>56</v>
@@ -10254,7 +10097,7 @@
         <v>56</v>
       </c>
       <c r="AD48" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="AE48" t="s">
         <v>56</v>
@@ -10266,7 +10109,7 @@
         <v>56</v>
       </c>
       <c r="AH48" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="AI48" t="s">
         <v>56</v>
@@ -10281,13 +10124,13 @@
         <v>56</v>
       </c>
       <c r="AM48" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="AN48" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="AO48" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="AP48" t="s">
         <v>56</v>
@@ -10328,25 +10171,25 @@
     </row>
     <row r="49" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B49" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C49" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D49" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E49" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="F49">
         <v>1909</v>
       </c>
       <c r="G49" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="H49" t="s">
         <v>59</v>
@@ -10379,10 +10222,10 @@
         <v>56</v>
       </c>
       <c r="R49" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="S49" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="T49" t="s">
         <v>56</v>
@@ -10415,7 +10258,7 @@
         <v>56</v>
       </c>
       <c r="AD49" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="AE49" t="s">
         <v>56</v>
@@ -10427,7 +10270,7 @@
         <v>56</v>
       </c>
       <c r="AH49" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="AI49" t="s">
         <v>56</v>
@@ -10436,22 +10279,22 @@
         <v>56</v>
       </c>
       <c r="AK49" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="AL49" t="s">
         <v>56</v>
       </c>
       <c r="AM49" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="AN49" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="AO49" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="AP49" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="AQ49" t="s">
         <v>56</v>
@@ -10495,19 +10338,19 @@
         <v>103</v>
       </c>
       <c r="C50" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="D50" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="E50" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="F50">
         <v>1909</v>
       </c>
       <c r="G50" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="H50" t="s">
         <v>59</v>
@@ -10540,10 +10383,10 @@
         <v>56</v>
       </c>
       <c r="R50" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="S50" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="T50" t="s">
         <v>56</v>
@@ -10575,20 +10418,17 @@
       <c r="AC50" t="s">
         <v>56</v>
       </c>
-      <c r="AD50" t="s">
-        <v>499</v>
-      </c>
       <c r="AE50" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="AF50" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="AG50" t="s">
         <v>56</v>
       </c>
       <c r="AH50" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="AI50" t="s">
         <v>56</v>
@@ -10597,22 +10437,22 @@
         <v>56</v>
       </c>
       <c r="AK50" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="AL50" t="s">
         <v>56</v>
       </c>
       <c r="AM50" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="AN50" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="AO50" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="AP50" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="AQ50" t="s">
         <v>56</v>
@@ -10808,13 +10648,13 @@
     </row>
     <row r="52" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C52" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D52" t="s">
         <v>56</v>
@@ -10826,7 +10666,7 @@
         <v>1944</v>
       </c>
       <c r="G52" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="H52" t="s">
         <v>59</v>
@@ -10859,10 +10699,10 @@
         <v>56</v>
       </c>
       <c r="R52" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="S52" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="T52" t="s">
         <v>56</v>
@@ -10907,7 +10747,7 @@
         <v>56</v>
       </c>
       <c r="AH52" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="AI52" t="s">
         <v>56</v>
@@ -10922,13 +10762,13 @@
         <v>56</v>
       </c>
       <c r="AN52" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AO52" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AP52" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="AQ52" t="s">
         <v>56</v>
@@ -10966,13 +10806,13 @@
     </row>
     <row r="53" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B53" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C53" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D53" t="s">
         <v>56</v>
@@ -10984,7 +10824,7 @@
         <v>1944</v>
       </c>
       <c r="G53" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="H53" t="s">
         <v>59</v>
@@ -11017,10 +10857,10 @@
         <v>56</v>
       </c>
       <c r="R53" t="s">
-        <v>404</v>
+        <v>116</v>
       </c>
       <c r="S53" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="T53" t="s">
         <v>56</v>
@@ -11065,7 +10905,7 @@
         <v>56</v>
       </c>
       <c r="AH53" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="AI53" t="s">
         <v>56</v>
@@ -11080,13 +10920,13 @@
         <v>56</v>
       </c>
       <c r="AN53" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AO53" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AP53" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="AQ53" t="s">
         <v>56</v>
@@ -11288,22 +11128,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C55" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D55" t="s">
         <v>56</v>
       </c>
       <c r="E55" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F55">
         <v>1915</v>
       </c>
       <c r="G55" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H55" t="s">
         <v>59</v>
@@ -11336,10 +11176,10 @@
         <v>56</v>
       </c>
       <c r="R55" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="S55" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="T55" t="s">
         <v>56</v>
@@ -11384,7 +11224,7 @@
         <v>56</v>
       </c>
       <c r="AH55" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="AI55" t="s">
         <v>56</v>
@@ -11399,13 +11239,13 @@
         <v>56</v>
       </c>
       <c r="AM55" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="AN55" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="AO55" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AP55" t="s">
         <v>56</v>
@@ -11449,22 +11289,22 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C56" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D56" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="E56" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="F56">
         <v>1947</v>
       </c>
       <c r="G56" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="H56" t="s">
         <v>59</v>
@@ -11497,10 +11337,10 @@
         <v>56</v>
       </c>
       <c r="R56" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="S56" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="T56" t="s">
         <v>56</v>
@@ -11532,20 +11372,17 @@
       <c r="AC56" t="s">
         <v>56</v>
       </c>
-      <c r="AD56" t="s">
-        <v>391</v>
-      </c>
       <c r="AE56" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="AF56" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="AG56" t="s">
         <v>56</v>
       </c>
       <c r="AH56" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="AI56" t="s">
         <v>56</v>
@@ -11560,13 +11397,13 @@
         <v>56</v>
       </c>
       <c r="AM56" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="AN56" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="AO56" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="AP56" t="s">
         <v>56</v>
@@ -11610,10 +11447,10 @@
         <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C57" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D57" t="s">
         <v>56</v>
@@ -11625,7 +11462,7 @@
         <v>1912</v>
       </c>
       <c r="G57" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="H57" t="s">
         <v>59</v>
@@ -11658,10 +11495,10 @@
         <v>56</v>
       </c>
       <c r="R57" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="S57" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="T57" t="s">
         <v>56</v>
@@ -11706,7 +11543,7 @@
         <v>56</v>
       </c>
       <c r="AH57" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="AI57" t="s">
         <v>56</v>
@@ -11721,16 +11558,16 @@
         <v>56</v>
       </c>
       <c r="AM57" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="AN57" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="AO57" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="AP57" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="AQ57" t="s">
         <v>56</v>
@@ -11771,10 +11608,10 @@
         <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C58" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D58" t="s">
         <v>56</v>
@@ -11786,7 +11623,7 @@
         <v>1912</v>
       </c>
       <c r="G58" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="H58" t="s">
         <v>59</v>
@@ -11819,10 +11656,10 @@
         <v>56</v>
       </c>
       <c r="R58" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="S58" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="T58" t="s">
         <v>56</v>
@@ -11867,7 +11704,7 @@
         <v>56</v>
       </c>
       <c r="AH58" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="AI58" t="s">
         <v>56</v>
@@ -11882,16 +11719,16 @@
         <v>56</v>
       </c>
       <c r="AM58" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="AN58" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="AO58" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="AP58" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="AQ58" t="s">
         <v>56</v>
@@ -12090,25 +11927,25 @@
     </row>
     <row r="60" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B60" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C60" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="D60" t="s">
         <v>56</v>
       </c>
       <c r="E60" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="F60">
         <v>1906</v>
       </c>
       <c r="G60" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="H60" t="s">
         <v>59</v>
@@ -12141,10 +11978,10 @@
         <v>56</v>
       </c>
       <c r="R60" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="S60" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="T60" t="s">
         <v>56</v>
@@ -12189,7 +12026,7 @@
         <v>56</v>
       </c>
       <c r="AH60" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="AI60" t="s">
         <v>56</v>
@@ -12207,19 +12044,19 @@
         <v>110</v>
       </c>
       <c r="AN60" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="AO60" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="AP60" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="AQ60" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="AR60" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="AS60" t="s">
         <v>56</v>
@@ -12251,31 +12088,31 @@
     </row>
     <row r="61" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B61" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C61" t="s">
-        <v>113</v>
+        <v>394</v>
       </c>
       <c r="D61" t="s">
         <v>56</v>
       </c>
       <c r="E61" t="s">
-        <v>114</v>
+        <v>395</v>
       </c>
       <c r="F61">
-        <v>1833</v>
+        <v>1906</v>
       </c>
       <c r="G61" t="s">
-        <v>115</v>
+        <v>396</v>
       </c>
       <c r="H61" t="s">
         <v>59</v>
       </c>
       <c r="I61">
-        <v>1233</v>
+        <v>1784</v>
       </c>
       <c r="J61" t="s">
         <v>56</v>
@@ -12302,10 +12139,10 @@
         <v>56</v>
       </c>
       <c r="R61" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="S61" t="s">
-        <v>117</v>
+        <v>398</v>
       </c>
       <c r="T61" t="s">
         <v>56</v>
@@ -12350,7 +12187,7 @@
         <v>56</v>
       </c>
       <c r="AH61" t="s">
-        <v>118</v>
+        <v>399</v>
       </c>
       <c r="AI61" t="s">
         <v>56</v>
@@ -12368,19 +12205,19 @@
         <v>110</v>
       </c>
       <c r="AN61" t="s">
-        <v>113</v>
+        <v>394</v>
       </c>
       <c r="AO61" t="s">
-        <v>119</v>
+        <v>400</v>
       </c>
       <c r="AP61" t="s">
-        <v>120</v>
+        <v>401</v>
       </c>
       <c r="AQ61" t="s">
-        <v>121</v>
+        <v>402</v>
       </c>
       <c r="AR61" t="s">
-        <v>56</v>
+        <v>403</v>
       </c>
       <c r="AS61" t="s">
         <v>56</v>
@@ -12412,31 +12249,31 @@
     </row>
     <row r="62" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B62" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C62" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="D62" t="s">
         <v>56</v>
       </c>
       <c r="E62" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="F62">
-        <v>1906</v>
+        <v>1833</v>
       </c>
       <c r="G62" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="H62" t="s">
         <v>59</v>
       </c>
       <c r="I62">
-        <v>1784</v>
+        <v>1233</v>
       </c>
       <c r="J62" t="s">
         <v>56</v>
@@ -12463,10 +12300,10 @@
         <v>56</v>
       </c>
       <c r="R62" t="s">
-        <v>507</v>
+        <v>544</v>
       </c>
       <c r="S62" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="T62" t="s">
         <v>56</v>
@@ -12511,7 +12348,7 @@
         <v>56</v>
       </c>
       <c r="AH62" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="AI62" t="s">
         <v>56</v>
@@ -12529,19 +12366,19 @@
         <v>110</v>
       </c>
       <c r="AN62" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="AO62" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="AP62" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="AQ62" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="AR62" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="AS62" t="s">
         <v>56</v>
@@ -12573,25 +12410,25 @@
     </row>
     <row r="63" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B63" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C63" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="D63" t="s">
         <v>56</v>
       </c>
       <c r="E63" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="F63">
         <v>1906</v>
       </c>
       <c r="G63" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="H63" t="s">
         <v>59</v>
@@ -12624,10 +12461,10 @@
         <v>56</v>
       </c>
       <c r="R63" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="S63" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="T63" t="s">
         <v>56</v>
@@ -12672,7 +12509,7 @@
         <v>56</v>
       </c>
       <c r="AH63" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="AI63" t="s">
         <v>56</v>
@@ -12690,19 +12527,19 @@
         <v>110</v>
       </c>
       <c r="AN63" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="AO63" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="AP63" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="AQ63" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="AR63" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="AS63" t="s">
         <v>56</v>
@@ -12737,22 +12574,22 @@
         <v>53</v>
       </c>
       <c r="B64" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C64" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D64" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="E64" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F64">
         <v>1907</v>
       </c>
       <c r="G64" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="H64" t="s">
         <v>59</v>
@@ -12785,10 +12622,10 @@
         <v>56</v>
       </c>
       <c r="R64" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="S64" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="T64" t="s">
         <v>56</v>
@@ -12821,7 +12658,7 @@
         <v>56</v>
       </c>
       <c r="AD64" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="AE64" t="s">
         <v>56</v>
@@ -12833,7 +12670,7 @@
         <v>56</v>
       </c>
       <c r="AH64" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="AI64" t="s">
         <v>56</v>
@@ -12848,13 +12685,13 @@
         <v>56</v>
       </c>
       <c r="AN64" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="AO64" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="AP64" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="AQ64" t="s">
         <v>56</v>
